--- a/HOPE_data/hinglish/Train/211.xlsx
+++ b/HOPE_data/hinglish/Train/211.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adityasingh/Desktop/Codes/BTP/Hinglish/SPARTA_WSDM2022/HOPE_data/hinglish/Train/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A50B122-2D1A-7A4C-B12A-3F6C86ED0AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="SummAnnotated - 211" sheetId="1" r:id="rId4"/>
+    <sheet name="SummAnnotated - 211" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="221">
   <si>
     <t>Type</t>
   </si>
@@ -673,27 +682,41 @@
   </si>
   <si>
     <t>Diagnosis</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -701,54 +724,56 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -938,31 +963,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.25"/>
-    <col customWidth="1" min="2" max="2" width="5.38"/>
-    <col customWidth="1" min="3" max="3" width="39.0"/>
-    <col customWidth="1" min="5" max="5" width="5.25"/>
-    <col customWidth="1" min="7" max="7" width="7.13"/>
-    <col customWidth="1" min="8" max="8" width="6.0"/>
-    <col customWidth="1" min="9" max="9" width="5.88"/>
-    <col customWidth="1" min="10" max="10" width="39.25"/>
-    <col customWidth="1" min="11" max="11" width="38.63"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" customWidth="1"/>
+    <col min="10" max="10" width="39.1640625" customWidth="1"/>
+    <col min="11" max="11" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -994,9 +1027,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -1023,9 +1056,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
@@ -1052,9 +1085,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -1081,9 +1114,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
@@ -1110,9 +1143,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
@@ -1139,9 +1172,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>17</v>
@@ -1168,9 +1201,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -1197,9 +1230,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
@@ -1226,9 +1259,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
@@ -1255,9 +1288,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
@@ -1284,9 +1317,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -1313,9 +1346,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
@@ -1342,9 +1375,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
@@ -1371,9 +1404,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
@@ -1400,9 +1433,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
@@ -1429,9 +1462,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
@@ -1458,9 +1491,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -1487,9 +1520,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
@@ -1516,9 +1549,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
@@ -1545,9 +1578,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>17</v>
@@ -1574,9 +1607,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>10</v>
@@ -1603,9 +1636,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
@@ -1632,9 +1665,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>10</v>
@@ -1661,9 +1694,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>17</v>
@@ -1690,9 +1723,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>10</v>
@@ -1719,9 +1752,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>17</v>
@@ -1748,9 +1781,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>10</v>
@@ -1777,9 +1810,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>17</v>
@@ -1806,9 +1839,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>10</v>
@@ -1835,9 +1868,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>17</v>
@@ -1864,9 +1897,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>10</v>
@@ -1893,9 +1926,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>17</v>
@@ -1922,9 +1955,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>10</v>
@@ -1951,9 +1984,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>17</v>
@@ -1980,9 +2013,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>10</v>
@@ -2009,9 +2042,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>17</v>
@@ -2038,9 +2071,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>10</v>
@@ -2067,9 +2100,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>17</v>
@@ -2096,9 +2129,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>10</v>
@@ -2125,9 +2158,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>17</v>
@@ -2154,9 +2187,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>10</v>
@@ -2183,9 +2216,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>17</v>
@@ -2212,9 +2245,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>10</v>
@@ -2241,9 +2274,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>17</v>
@@ -2270,9 +2303,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>10</v>
@@ -2299,9 +2332,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>17</v>
@@ -2328,9 +2361,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>10</v>
@@ -2357,9 +2390,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>17</v>
@@ -2386,9 +2419,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>10</v>
@@ -2415,9 +2448,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>17</v>
@@ -2444,9 +2477,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>10</v>
@@ -2473,9 +2506,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>17</v>
@@ -2502,9 +2535,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>10</v>
@@ -2531,9 +2564,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>17</v>
@@ -2560,9 +2593,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>10</v>
@@ -2589,9 +2622,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>17</v>
@@ -2618,9 +2651,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>10</v>
@@ -2647,9 +2680,9 @@
         <v>186</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>17</v>
@@ -2676,9 +2709,9 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:11" ht="112" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>10</v>
@@ -2705,9 +2738,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>17</v>
@@ -2734,9 +2767,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:11" ht="358" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>10</v>
@@ -2763,9 +2796,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>17</v>
@@ -2792,9 +2825,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:11" ht="196" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>10</v>
@@ -2821,9 +2854,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>17</v>
@@ -2850,9 +2883,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>10</v>
@@ -2879,9 +2912,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>17</v>
@@ -2908,9 +2941,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>214</v>
@@ -2925,9 +2958,9 @@
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>216</v>
@@ -2942,9 +2975,9 @@
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>218</v>
@@ -2959,7 +2992,7 @@
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C71" s="7"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -2968,7 +3001,7 @@
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C72" s="7"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -2977,7 +3010,7 @@
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C73" s="7"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -2986,7 +3019,7 @@
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C74" s="7"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -2995,7 +3028,7 @@
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C75" s="7"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -3004,7 +3037,7 @@
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C76" s="7"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
@@ -3013,7 +3046,7 @@
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C77" s="7"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
@@ -3022,7 +3055,7 @@
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C78" s="7"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
@@ -3031,7 +3064,7 @@
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C79" s="7"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
@@ -3040,7 +3073,7 @@
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C80" s="7"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
@@ -3049,7 +3082,7 @@
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
     </row>
-    <row r="81">
+    <row r="81" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C81" s="7"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
@@ -3058,7 +3091,7 @@
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
     </row>
-    <row r="82">
+    <row r="82" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C82" s="7"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -3067,7 +3100,7 @@
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
     </row>
-    <row r="83">
+    <row r="83" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C83" s="7"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
@@ -3076,7 +3109,7 @@
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
     </row>
-    <row r="84">
+    <row r="84" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C84" s="7"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -3085,7 +3118,7 @@
       <c r="J84" s="7"/>
       <c r="K84" s="7"/>
     </row>
-    <row r="85">
+    <row r="85" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C85" s="7"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
@@ -3094,7 +3127,7 @@
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
     </row>
-    <row r="86">
+    <row r="86" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C86" s="7"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
@@ -3103,7 +3136,7 @@
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
     </row>
-    <row r="87">
+    <row r="87" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C87" s="7"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
@@ -3112,7 +3145,7 @@
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
     </row>
-    <row r="88">
+    <row r="88" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C88" s="7"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
@@ -3121,7 +3154,7 @@
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
     </row>
-    <row r="89">
+    <row r="89" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C89" s="7"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
@@ -3130,7 +3163,7 @@
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
     </row>
-    <row r="90">
+    <row r="90" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C90" s="7"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
@@ -3139,7 +3172,7 @@
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
     </row>
-    <row r="91">
+    <row r="91" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C91" s="7"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
@@ -3148,7 +3181,7 @@
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
     </row>
-    <row r="92">
+    <row r="92" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C92" s="7"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
@@ -3157,7 +3190,7 @@
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
     </row>
-    <row r="93">
+    <row r="93" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C93" s="7"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
@@ -3166,7 +3199,7 @@
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
     </row>
-    <row r="94">
+    <row r="94" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C94" s="7"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
@@ -3175,7 +3208,7 @@
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
     </row>
-    <row r="95">
+    <row r="95" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C95" s="7"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
@@ -3184,7 +3217,7 @@
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
     </row>
-    <row r="96">
+    <row r="96" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C96" s="7"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
@@ -3193,7 +3226,7 @@
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
     </row>
-    <row r="97">
+    <row r="97" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C97" s="7"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
@@ -3202,7 +3235,7 @@
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
     </row>
-    <row r="98">
+    <row r="98" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C98" s="7"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
@@ -3211,7 +3244,7 @@
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
     </row>
-    <row r="99">
+    <row r="99" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C99" s="7"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
@@ -3220,7 +3253,7 @@
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
     </row>
-    <row r="100">
+    <row r="100" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C100" s="7"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
@@ -3229,7 +3262,7 @@
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
     </row>
-    <row r="101">
+    <row r="101" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C101" s="7"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
@@ -3238,7 +3271,7 @@
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
     </row>
-    <row r="102">
+    <row r="102" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C102" s="7"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
@@ -3247,7 +3280,7 @@
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
     </row>
-    <row r="103">
+    <row r="103" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C103" s="7"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
@@ -3256,7 +3289,7 @@
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
     </row>
-    <row r="104">
+    <row r="104" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C104" s="7"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
@@ -3265,7 +3298,7 @@
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
     </row>
-    <row r="105">
+    <row r="105" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C105" s="7"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
@@ -3274,7 +3307,7 @@
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
     </row>
-    <row r="106">
+    <row r="106" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C106" s="7"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
@@ -3283,7 +3316,7 @@
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
     </row>
-    <row r="107">
+    <row r="107" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C107" s="7"/>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
@@ -3292,7 +3325,7 @@
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
     </row>
-    <row r="108">
+    <row r="108" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C108" s="7"/>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
@@ -3301,7 +3334,7 @@
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
     </row>
-    <row r="109">
+    <row r="109" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C109" s="7"/>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
@@ -3310,7 +3343,7 @@
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
     </row>
-    <row r="110">
+    <row r="110" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C110" s="7"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
@@ -3319,7 +3352,7 @@
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
     </row>
-    <row r="111">
+    <row r="111" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C111" s="7"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
@@ -3328,7 +3361,7 @@
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
     </row>
-    <row r="112">
+    <row r="112" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C112" s="7"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
@@ -3337,7 +3370,7 @@
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
     </row>
-    <row r="113">
+    <row r="113" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C113" s="7"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
@@ -3346,7 +3379,7 @@
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
     </row>
-    <row r="114">
+    <row r="114" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C114" s="7"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
@@ -3355,7 +3388,7 @@
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
     </row>
-    <row r="115">
+    <row r="115" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C115" s="7"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
@@ -3364,7 +3397,7 @@
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
     </row>
-    <row r="116">
+    <row r="116" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C116" s="7"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
@@ -3373,7 +3406,7 @@
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
     </row>
-    <row r="117">
+    <row r="117" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C117" s="7"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
@@ -3382,7 +3415,7 @@
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
     </row>
-    <row r="118">
+    <row r="118" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C118" s="7"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
@@ -3391,7 +3424,7 @@
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
     </row>
-    <row r="119">
+    <row r="119" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C119" s="7"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
@@ -3400,7 +3433,7 @@
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
     </row>
-    <row r="120">
+    <row r="120" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C120" s="7"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
@@ -3409,7 +3442,7 @@
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
     </row>
-    <row r="121">
+    <row r="121" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C121" s="7"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
@@ -3418,7 +3451,7 @@
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
     </row>
-    <row r="122">
+    <row r="122" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C122" s="7"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
@@ -3427,7 +3460,7 @@
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
     </row>
-    <row r="123">
+    <row r="123" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C123" s="7"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
@@ -3436,7 +3469,7 @@
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
     </row>
-    <row r="124">
+    <row r="124" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C124" s="7"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
@@ -3445,7 +3478,7 @@
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
     </row>
-    <row r="125">
+    <row r="125" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C125" s="7"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
@@ -3454,7 +3487,7 @@
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
     </row>
-    <row r="126">
+    <row r="126" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C126" s="7"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
@@ -3463,7 +3496,7 @@
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
     </row>
-    <row r="127">
+    <row r="127" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C127" s="7"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
@@ -3472,7 +3505,7 @@
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
     </row>
-    <row r="128">
+    <row r="128" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C128" s="7"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
@@ -3481,7 +3514,7 @@
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
     </row>
-    <row r="129">
+    <row r="129" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C129" s="7"/>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
@@ -3490,7 +3523,7 @@
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
     </row>
-    <row r="130">
+    <row r="130" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C130" s="7"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
@@ -3499,7 +3532,7 @@
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
     </row>
-    <row r="131">
+    <row r="131" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C131" s="7"/>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
@@ -3508,7 +3541,7 @@
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
     </row>
-    <row r="132">
+    <row r="132" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C132" s="7"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
@@ -3517,7 +3550,7 @@
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
     </row>
-    <row r="133">
+    <row r="133" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C133" s="7"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
@@ -3526,7 +3559,7 @@
       <c r="J133" s="7"/>
       <c r="K133" s="7"/>
     </row>
-    <row r="134">
+    <row r="134" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C134" s="7"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
@@ -3535,7 +3568,7 @@
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
     </row>
-    <row r="135">
+    <row r="135" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C135" s="7"/>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
@@ -3544,7 +3577,7 @@
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
     </row>
-    <row r="136">
+    <row r="136" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C136" s="7"/>
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
@@ -3553,7 +3586,7 @@
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
     </row>
-    <row r="137">
+    <row r="137" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C137" s="7"/>
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
@@ -3562,7 +3595,7 @@
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
     </row>
-    <row r="138">
+    <row r="138" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C138" s="7"/>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
@@ -3571,7 +3604,7 @@
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
     </row>
-    <row r="139">
+    <row r="139" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C139" s="7"/>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
@@ -3580,7 +3613,7 @@
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
     </row>
-    <row r="140">
+    <row r="140" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C140" s="7"/>
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
@@ -3589,7 +3622,7 @@
       <c r="J140" s="7"/>
       <c r="K140" s="7"/>
     </row>
-    <row r="141">
+    <row r="141" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C141" s="7"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
@@ -3598,7 +3631,7 @@
       <c r="J141" s="7"/>
       <c r="K141" s="7"/>
     </row>
-    <row r="142">
+    <row r="142" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C142" s="7"/>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
@@ -3607,7 +3640,7 @@
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
     </row>
-    <row r="143">
+    <row r="143" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C143" s="7"/>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
@@ -3616,7 +3649,7 @@
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
     </row>
-    <row r="144">
+    <row r="144" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C144" s="7"/>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
@@ -3625,7 +3658,7 @@
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
     </row>
-    <row r="145">
+    <row r="145" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C145" s="7"/>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
@@ -3634,7 +3667,7 @@
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
     </row>
-    <row r="146">
+    <row r="146" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C146" s="7"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
@@ -3643,7 +3676,7 @@
       <c r="J146" s="7"/>
       <c r="K146" s="7"/>
     </row>
-    <row r="147">
+    <row r="147" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C147" s="7"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
@@ -3652,7 +3685,7 @@
       <c r="J147" s="7"/>
       <c r="K147" s="7"/>
     </row>
-    <row r="148">
+    <row r="148" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C148" s="7"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
@@ -3661,7 +3694,7 @@
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
     </row>
-    <row r="149">
+    <row r="149" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C149" s="7"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
@@ -3670,7 +3703,7 @@
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
     </row>
-    <row r="150">
+    <row r="150" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C150" s="7"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
@@ -3679,7 +3712,7 @@
       <c r="J150" s="7"/>
       <c r="K150" s="7"/>
     </row>
-    <row r="151">
+    <row r="151" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C151" s="7"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
@@ -3688,7 +3721,7 @@
       <c r="J151" s="7"/>
       <c r="K151" s="7"/>
     </row>
-    <row r="152">
+    <row r="152" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C152" s="7"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
@@ -3697,7 +3730,7 @@
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
     </row>
-    <row r="153">
+    <row r="153" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C153" s="7"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
@@ -3706,7 +3739,7 @@
       <c r="J153" s="7"/>
       <c r="K153" s="7"/>
     </row>
-    <row r="154">
+    <row r="154" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C154" s="7"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
@@ -3715,7 +3748,7 @@
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
     </row>
-    <row r="155">
+    <row r="155" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C155" s="7"/>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
@@ -3724,7 +3757,7 @@
       <c r="J155" s="7"/>
       <c r="K155" s="7"/>
     </row>
-    <row r="156">
+    <row r="156" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C156" s="7"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
@@ -3733,7 +3766,7 @@
       <c r="J156" s="7"/>
       <c r="K156" s="7"/>
     </row>
-    <row r="157">
+    <row r="157" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C157" s="7"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
@@ -3742,7 +3775,7 @@
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
     </row>
-    <row r="158">
+    <row r="158" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C158" s="7"/>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
@@ -3751,7 +3784,7 @@
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
     </row>
-    <row r="159">
+    <row r="159" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C159" s="7"/>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
@@ -3760,7 +3793,7 @@
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
     </row>
-    <row r="160">
+    <row r="160" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C160" s="7"/>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
@@ -3769,7 +3802,7 @@
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
     </row>
-    <row r="161">
+    <row r="161" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C161" s="7"/>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
@@ -3778,7 +3811,7 @@
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
     </row>
-    <row r="162">
+    <row r="162" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C162" s="7"/>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
@@ -3787,7 +3820,7 @@
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
     </row>
-    <row r="163">
+    <row r="163" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C163" s="7"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
@@ -3796,7 +3829,7 @@
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
     </row>
-    <row r="164">
+    <row r="164" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C164" s="7"/>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
@@ -3805,7 +3838,7 @@
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
     </row>
-    <row r="165">
+    <row r="165" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C165" s="7"/>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
@@ -3814,7 +3847,7 @@
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
     </row>
-    <row r="166">
+    <row r="166" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C166" s="7"/>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
@@ -3823,7 +3856,7 @@
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
     </row>
-    <row r="167">
+    <row r="167" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C167" s="7"/>
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
@@ -3832,7 +3865,7 @@
       <c r="J167" s="7"/>
       <c r="K167" s="7"/>
     </row>
-    <row r="168">
+    <row r="168" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C168" s="7"/>
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
@@ -3841,7 +3874,7 @@
       <c r="J168" s="7"/>
       <c r="K168" s="7"/>
     </row>
-    <row r="169">
+    <row r="169" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C169" s="7"/>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
@@ -3850,7 +3883,7 @@
       <c r="J169" s="7"/>
       <c r="K169" s="7"/>
     </row>
-    <row r="170">
+    <row r="170" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C170" s="7"/>
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
@@ -3859,7 +3892,7 @@
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
     </row>
-    <row r="171">
+    <row r="171" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C171" s="7"/>
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
@@ -3868,7 +3901,7 @@
       <c r="J171" s="7"/>
       <c r="K171" s="7"/>
     </row>
-    <row r="172">
+    <row r="172" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C172" s="7"/>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
@@ -3877,7 +3910,7 @@
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
     </row>
-    <row r="173">
+    <row r="173" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C173" s="7"/>
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
@@ -3886,7 +3919,7 @@
       <c r="J173" s="7"/>
       <c r="K173" s="7"/>
     </row>
-    <row r="174">
+    <row r="174" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C174" s="7"/>
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
@@ -3895,7 +3928,7 @@
       <c r="J174" s="7"/>
       <c r="K174" s="7"/>
     </row>
-    <row r="175">
+    <row r="175" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C175" s="7"/>
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
@@ -3904,7 +3937,7 @@
       <c r="J175" s="7"/>
       <c r="K175" s="7"/>
     </row>
-    <row r="176">
+    <row r="176" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C176" s="7"/>
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
@@ -3913,7 +3946,7 @@
       <c r="J176" s="7"/>
       <c r="K176" s="7"/>
     </row>
-    <row r="177">
+    <row r="177" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C177" s="7"/>
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
@@ -3922,7 +3955,7 @@
       <c r="J177" s="7"/>
       <c r="K177" s="7"/>
     </row>
-    <row r="178">
+    <row r="178" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C178" s="7"/>
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
@@ -3931,7 +3964,7 @@
       <c r="J178" s="7"/>
       <c r="K178" s="7"/>
     </row>
-    <row r="179">
+    <row r="179" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C179" s="7"/>
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
@@ -3940,7 +3973,7 @@
       <c r="J179" s="7"/>
       <c r="K179" s="7"/>
     </row>
-    <row r="180">
+    <row r="180" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C180" s="7"/>
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
@@ -3949,7 +3982,7 @@
       <c r="J180" s="7"/>
       <c r="K180" s="7"/>
     </row>
-    <row r="181">
+    <row r="181" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C181" s="7"/>
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
@@ -3958,7 +3991,7 @@
       <c r="J181" s="7"/>
       <c r="K181" s="7"/>
     </row>
-    <row r="182">
+    <row r="182" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C182" s="7"/>
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
@@ -3967,7 +4000,7 @@
       <c r="J182" s="7"/>
       <c r="K182" s="7"/>
     </row>
-    <row r="183">
+    <row r="183" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C183" s="7"/>
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
@@ -3976,7 +4009,7 @@
       <c r="J183" s="7"/>
       <c r="K183" s="7"/>
     </row>
-    <row r="184">
+    <row r="184" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C184" s="7"/>
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
@@ -3985,7 +4018,7 @@
       <c r="J184" s="7"/>
       <c r="K184" s="7"/>
     </row>
-    <row r="185">
+    <row r="185" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C185" s="7"/>
       <c r="F185" s="4"/>
       <c r="G185" s="4"/>
@@ -3994,7 +4027,7 @@
       <c r="J185" s="7"/>
       <c r="K185" s="7"/>
     </row>
-    <row r="186">
+    <row r="186" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C186" s="7"/>
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
@@ -4003,7 +4036,7 @@
       <c r="J186" s="7"/>
       <c r="K186" s="7"/>
     </row>
-    <row r="187">
+    <row r="187" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C187" s="7"/>
       <c r="F187" s="4"/>
       <c r="G187" s="4"/>
@@ -4012,7 +4045,7 @@
       <c r="J187" s="7"/>
       <c r="K187" s="7"/>
     </row>
-    <row r="188">
+    <row r="188" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C188" s="7"/>
       <c r="F188" s="4"/>
       <c r="G188" s="4"/>
@@ -4021,7 +4054,7 @@
       <c r="J188" s="7"/>
       <c r="K188" s="7"/>
     </row>
-    <row r="189">
+    <row r="189" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C189" s="7"/>
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
@@ -4030,7 +4063,7 @@
       <c r="J189" s="7"/>
       <c r="K189" s="7"/>
     </row>
-    <row r="190">
+    <row r="190" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C190" s="7"/>
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
@@ -4039,7 +4072,7 @@
       <c r="J190" s="7"/>
       <c r="K190" s="7"/>
     </row>
-    <row r="191">
+    <row r="191" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C191" s="7"/>
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
@@ -4048,7 +4081,7 @@
       <c r="J191" s="7"/>
       <c r="K191" s="7"/>
     </row>
-    <row r="192">
+    <row r="192" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C192" s="7"/>
       <c r="F192" s="4"/>
       <c r="G192" s="4"/>
@@ -4057,7 +4090,7 @@
       <c r="J192" s="7"/>
       <c r="K192" s="7"/>
     </row>
-    <row r="193">
+    <row r="193" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C193" s="7"/>
       <c r="F193" s="4"/>
       <c r="G193" s="4"/>
@@ -4066,7 +4099,7 @@
       <c r="J193" s="7"/>
       <c r="K193" s="7"/>
     </row>
-    <row r="194">
+    <row r="194" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C194" s="7"/>
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
@@ -4075,7 +4108,7 @@
       <c r="J194" s="7"/>
       <c r="K194" s="7"/>
     </row>
-    <row r="195">
+    <row r="195" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C195" s="7"/>
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
@@ -4084,7 +4117,7 @@
       <c r="J195" s="7"/>
       <c r="K195" s="7"/>
     </row>
-    <row r="196">
+    <row r="196" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C196" s="7"/>
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
@@ -4093,7 +4126,7 @@
       <c r="J196" s="7"/>
       <c r="K196" s="7"/>
     </row>
-    <row r="197">
+    <row r="197" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C197" s="7"/>
       <c r="F197" s="4"/>
       <c r="G197" s="4"/>
@@ -4102,7 +4135,7 @@
       <c r="J197" s="7"/>
       <c r="K197" s="7"/>
     </row>
-    <row r="198">
+    <row r="198" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C198" s="7"/>
       <c r="F198" s="4"/>
       <c r="G198" s="4"/>
@@ -4111,7 +4144,7 @@
       <c r="J198" s="7"/>
       <c r="K198" s="7"/>
     </row>
-    <row r="199">
+    <row r="199" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C199" s="7"/>
       <c r="F199" s="4"/>
       <c r="G199" s="4"/>
@@ -4120,7 +4153,7 @@
       <c r="J199" s="7"/>
       <c r="K199" s="7"/>
     </row>
-    <row r="200">
+    <row r="200" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C200" s="7"/>
       <c r="F200" s="4"/>
       <c r="G200" s="4"/>
@@ -4129,7 +4162,7 @@
       <c r="J200" s="7"/>
       <c r="K200" s="7"/>
     </row>
-    <row r="201">
+    <row r="201" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C201" s="7"/>
       <c r="F201" s="4"/>
       <c r="G201" s="4"/>
@@ -4138,7 +4171,7 @@
       <c r="J201" s="7"/>
       <c r="K201" s="7"/>
     </row>
-    <row r="202">
+    <row r="202" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C202" s="7"/>
       <c r="F202" s="4"/>
       <c r="G202" s="4"/>
@@ -4147,7 +4180,7 @@
       <c r="J202" s="7"/>
       <c r="K202" s="7"/>
     </row>
-    <row r="203">
+    <row r="203" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C203" s="7"/>
       <c r="F203" s="4"/>
       <c r="G203" s="4"/>
@@ -4156,7 +4189,7 @@
       <c r="J203" s="7"/>
       <c r="K203" s="7"/>
     </row>
-    <row r="204">
+    <row r="204" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C204" s="7"/>
       <c r="F204" s="4"/>
       <c r="G204" s="4"/>
@@ -4165,7 +4198,7 @@
       <c r="J204" s="7"/>
       <c r="K204" s="7"/>
     </row>
-    <row r="205">
+    <row r="205" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C205" s="7"/>
       <c r="F205" s="4"/>
       <c r="G205" s="4"/>
@@ -4174,7 +4207,7 @@
       <c r="J205" s="7"/>
       <c r="K205" s="7"/>
     </row>
-    <row r="206">
+    <row r="206" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C206" s="7"/>
       <c r="F206" s="4"/>
       <c r="G206" s="4"/>
@@ -4183,7 +4216,7 @@
       <c r="J206" s="7"/>
       <c r="K206" s="7"/>
     </row>
-    <row r="207">
+    <row r="207" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C207" s="7"/>
       <c r="F207" s="4"/>
       <c r="G207" s="4"/>
@@ -4192,7 +4225,7 @@
       <c r="J207" s="7"/>
       <c r="K207" s="7"/>
     </row>
-    <row r="208">
+    <row r="208" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C208" s="7"/>
       <c r="F208" s="4"/>
       <c r="G208" s="4"/>
@@ -4201,7 +4234,7 @@
       <c r="J208" s="7"/>
       <c r="K208" s="7"/>
     </row>
-    <row r="209">
+    <row r="209" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C209" s="7"/>
       <c r="F209" s="4"/>
       <c r="G209" s="4"/>
@@ -4210,7 +4243,7 @@
       <c r="J209" s="7"/>
       <c r="K209" s="7"/>
     </row>
-    <row r="210">
+    <row r="210" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C210" s="7"/>
       <c r="F210" s="4"/>
       <c r="G210" s="4"/>
@@ -4219,7 +4252,7 @@
       <c r="J210" s="7"/>
       <c r="K210" s="7"/>
     </row>
-    <row r="211">
+    <row r="211" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C211" s="7"/>
       <c r="F211" s="4"/>
       <c r="G211" s="4"/>
@@ -4228,7 +4261,7 @@
       <c r="J211" s="7"/>
       <c r="K211" s="7"/>
     </row>
-    <row r="212">
+    <row r="212" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C212" s="7"/>
       <c r="F212" s="4"/>
       <c r="G212" s="4"/>
@@ -4237,7 +4270,7 @@
       <c r="J212" s="7"/>
       <c r="K212" s="7"/>
     </row>
-    <row r="213">
+    <row r="213" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C213" s="7"/>
       <c r="F213" s="4"/>
       <c r="G213" s="4"/>
@@ -4246,7 +4279,7 @@
       <c r="J213" s="7"/>
       <c r="K213" s="7"/>
     </row>
-    <row r="214">
+    <row r="214" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C214" s="7"/>
       <c r="F214" s="4"/>
       <c r="G214" s="4"/>
@@ -4255,7 +4288,7 @@
       <c r="J214" s="7"/>
       <c r="K214" s="7"/>
     </row>
-    <row r="215">
+    <row r="215" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C215" s="7"/>
       <c r="F215" s="4"/>
       <c r="G215" s="4"/>
@@ -4264,7 +4297,7 @@
       <c r="J215" s="7"/>
       <c r="K215" s="7"/>
     </row>
-    <row r="216">
+    <row r="216" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C216" s="7"/>
       <c r="F216" s="4"/>
       <c r="G216" s="4"/>
@@ -4273,7 +4306,7 @@
       <c r="J216" s="7"/>
       <c r="K216" s="7"/>
     </row>
-    <row r="217">
+    <row r="217" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C217" s="7"/>
       <c r="F217" s="4"/>
       <c r="G217" s="4"/>
@@ -4282,7 +4315,7 @@
       <c r="J217" s="7"/>
       <c r="K217" s="7"/>
     </row>
-    <row r="218">
+    <row r="218" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C218" s="7"/>
       <c r="F218" s="4"/>
       <c r="G218" s="4"/>
@@ -4291,7 +4324,7 @@
       <c r="J218" s="7"/>
       <c r="K218" s="7"/>
     </row>
-    <row r="219">
+    <row r="219" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C219" s="7"/>
       <c r="F219" s="4"/>
       <c r="G219" s="4"/>
@@ -4300,7 +4333,7 @@
       <c r="J219" s="7"/>
       <c r="K219" s="7"/>
     </row>
-    <row r="220">
+    <row r="220" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C220" s="7"/>
       <c r="F220" s="4"/>
       <c r="G220" s="4"/>
@@ -4309,7 +4342,7 @@
       <c r="J220" s="7"/>
       <c r="K220" s="7"/>
     </row>
-    <row r="221">
+    <row r="221" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C221" s="7"/>
       <c r="F221" s="4"/>
       <c r="G221" s="4"/>
@@ -4318,7 +4351,7 @@
       <c r="J221" s="7"/>
       <c r="K221" s="7"/>
     </row>
-    <row r="222">
+    <row r="222" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C222" s="7"/>
       <c r="F222" s="4"/>
       <c r="G222" s="4"/>
@@ -4327,7 +4360,7 @@
       <c r="J222" s="7"/>
       <c r="K222" s="7"/>
     </row>
-    <row r="223">
+    <row r="223" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C223" s="7"/>
       <c r="F223" s="4"/>
       <c r="G223" s="4"/>
@@ -4336,7 +4369,7 @@
       <c r="J223" s="7"/>
       <c r="K223" s="7"/>
     </row>
-    <row r="224">
+    <row r="224" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C224" s="7"/>
       <c r="F224" s="4"/>
       <c r="G224" s="4"/>
@@ -4345,7 +4378,7 @@
       <c r="J224" s="7"/>
       <c r="K224" s="7"/>
     </row>
-    <row r="225">
+    <row r="225" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C225" s="7"/>
       <c r="F225" s="4"/>
       <c r="G225" s="4"/>
@@ -4354,7 +4387,7 @@
       <c r="J225" s="7"/>
       <c r="K225" s="7"/>
     </row>
-    <row r="226">
+    <row r="226" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C226" s="7"/>
       <c r="F226" s="4"/>
       <c r="G226" s="4"/>
@@ -4363,7 +4396,7 @@
       <c r="J226" s="7"/>
       <c r="K226" s="7"/>
     </row>
-    <row r="227">
+    <row r="227" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C227" s="7"/>
       <c r="F227" s="4"/>
       <c r="G227" s="4"/>
@@ -4372,7 +4405,7 @@
       <c r="J227" s="7"/>
       <c r="K227" s="7"/>
     </row>
-    <row r="228">
+    <row r="228" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C228" s="7"/>
       <c r="F228" s="4"/>
       <c r="G228" s="4"/>
@@ -4381,7 +4414,7 @@
       <c r="J228" s="7"/>
       <c r="K228" s="7"/>
     </row>
-    <row r="229">
+    <row r="229" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C229" s="7"/>
       <c r="F229" s="4"/>
       <c r="G229" s="4"/>
@@ -4390,7 +4423,7 @@
       <c r="J229" s="7"/>
       <c r="K229" s="7"/>
     </row>
-    <row r="230">
+    <row r="230" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C230" s="7"/>
       <c r="F230" s="4"/>
       <c r="G230" s="4"/>
@@ -4399,7 +4432,7 @@
       <c r="J230" s="7"/>
       <c r="K230" s="7"/>
     </row>
-    <row r="231">
+    <row r="231" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C231" s="7"/>
       <c r="F231" s="4"/>
       <c r="G231" s="4"/>
@@ -4408,7 +4441,7 @@
       <c r="J231" s="7"/>
       <c r="K231" s="7"/>
     </row>
-    <row r="232">
+    <row r="232" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C232" s="7"/>
       <c r="F232" s="4"/>
       <c r="G232" s="4"/>
@@ -4417,7 +4450,7 @@
       <c r="J232" s="7"/>
       <c r="K232" s="7"/>
     </row>
-    <row r="233">
+    <row r="233" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C233" s="7"/>
       <c r="F233" s="4"/>
       <c r="G233" s="4"/>
@@ -4426,7 +4459,7 @@
       <c r="J233" s="7"/>
       <c r="K233" s="7"/>
     </row>
-    <row r="234">
+    <row r="234" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C234" s="7"/>
       <c r="F234" s="4"/>
       <c r="G234" s="4"/>
@@ -4435,7 +4468,7 @@
       <c r="J234" s="7"/>
       <c r="K234" s="7"/>
     </row>
-    <row r="235">
+    <row r="235" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C235" s="7"/>
       <c r="F235" s="4"/>
       <c r="G235" s="4"/>
@@ -4444,7 +4477,7 @@
       <c r="J235" s="7"/>
       <c r="K235" s="7"/>
     </row>
-    <row r="236">
+    <row r="236" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C236" s="7"/>
       <c r="F236" s="4"/>
       <c r="G236" s="4"/>
@@ -4453,7 +4486,7 @@
       <c r="J236" s="7"/>
       <c r="K236" s="7"/>
     </row>
-    <row r="237">
+    <row r="237" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C237" s="7"/>
       <c r="F237" s="4"/>
       <c r="G237" s="4"/>
@@ -4462,7 +4495,7 @@
       <c r="J237" s="7"/>
       <c r="K237" s="7"/>
     </row>
-    <row r="238">
+    <row r="238" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C238" s="7"/>
       <c r="F238" s="4"/>
       <c r="G238" s="4"/>
@@ -4471,7 +4504,7 @@
       <c r="J238" s="7"/>
       <c r="K238" s="7"/>
     </row>
-    <row r="239">
+    <row r="239" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C239" s="7"/>
       <c r="F239" s="4"/>
       <c r="G239" s="4"/>
@@ -4480,7 +4513,7 @@
       <c r="J239" s="7"/>
       <c r="K239" s="7"/>
     </row>
-    <row r="240">
+    <row r="240" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C240" s="7"/>
       <c r="F240" s="4"/>
       <c r="G240" s="4"/>
@@ -4489,7 +4522,7 @@
       <c r="J240" s="7"/>
       <c r="K240" s="7"/>
     </row>
-    <row r="241">
+    <row r="241" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C241" s="7"/>
       <c r="F241" s="4"/>
       <c r="G241" s="4"/>
@@ -4498,7 +4531,7 @@
       <c r="J241" s="7"/>
       <c r="K241" s="7"/>
     </row>
-    <row r="242">
+    <row r="242" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C242" s="7"/>
       <c r="F242" s="4"/>
       <c r="G242" s="4"/>
@@ -4507,7 +4540,7 @@
       <c r="J242" s="7"/>
       <c r="K242" s="7"/>
     </row>
-    <row r="243">
+    <row r="243" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C243" s="7"/>
       <c r="F243" s="4"/>
       <c r="G243" s="4"/>
@@ -4516,7 +4549,7 @@
       <c r="J243" s="7"/>
       <c r="K243" s="7"/>
     </row>
-    <row r="244">
+    <row r="244" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C244" s="7"/>
       <c r="F244" s="4"/>
       <c r="G244" s="4"/>
@@ -4525,7 +4558,7 @@
       <c r="J244" s="7"/>
       <c r="K244" s="7"/>
     </row>
-    <row r="245">
+    <row r="245" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C245" s="7"/>
       <c r="F245" s="4"/>
       <c r="G245" s="4"/>
@@ -4534,7 +4567,7 @@
       <c r="J245" s="7"/>
       <c r="K245" s="7"/>
     </row>
-    <row r="246">
+    <row r="246" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C246" s="7"/>
       <c r="F246" s="4"/>
       <c r="G246" s="4"/>
@@ -4543,7 +4576,7 @@
       <c r="J246" s="7"/>
       <c r="K246" s="7"/>
     </row>
-    <row r="247">
+    <row r="247" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C247" s="7"/>
       <c r="F247" s="4"/>
       <c r="G247" s="4"/>
@@ -4552,7 +4585,7 @@
       <c r="J247" s="7"/>
       <c r="K247" s="7"/>
     </row>
-    <row r="248">
+    <row r="248" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C248" s="7"/>
       <c r="F248" s="4"/>
       <c r="G248" s="4"/>
@@ -4561,7 +4594,7 @@
       <c r="J248" s="7"/>
       <c r="K248" s="7"/>
     </row>
-    <row r="249">
+    <row r="249" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C249" s="7"/>
       <c r="F249" s="4"/>
       <c r="G249" s="4"/>
@@ -4570,7 +4603,7 @@
       <c r="J249" s="7"/>
       <c r="K249" s="7"/>
     </row>
-    <row r="250">
+    <row r="250" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C250" s="7"/>
       <c r="F250" s="4"/>
       <c r="G250" s="4"/>
@@ -4579,7 +4612,7 @@
       <c r="J250" s="7"/>
       <c r="K250" s="7"/>
     </row>
-    <row r="251">
+    <row r="251" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C251" s="7"/>
       <c r="F251" s="4"/>
       <c r="G251" s="4"/>
@@ -4588,7 +4621,7 @@
       <c r="J251" s="7"/>
       <c r="K251" s="7"/>
     </row>
-    <row r="252">
+    <row r="252" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C252" s="7"/>
       <c r="F252" s="4"/>
       <c r="G252" s="4"/>
@@ -4597,7 +4630,7 @@
       <c r="J252" s="7"/>
       <c r="K252" s="7"/>
     </row>
-    <row r="253">
+    <row r="253" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C253" s="7"/>
       <c r="F253" s="4"/>
       <c r="G253" s="4"/>
@@ -4606,7 +4639,7 @@
       <c r="J253" s="7"/>
       <c r="K253" s="7"/>
     </row>
-    <row r="254">
+    <row r="254" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C254" s="7"/>
       <c r="F254" s="4"/>
       <c r="G254" s="4"/>
@@ -4615,7 +4648,7 @@
       <c r="J254" s="7"/>
       <c r="K254" s="7"/>
     </row>
-    <row r="255">
+    <row r="255" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C255" s="7"/>
       <c r="F255" s="4"/>
       <c r="G255" s="4"/>
@@ -4624,7 +4657,7 @@
       <c r="J255" s="7"/>
       <c r="K255" s="7"/>
     </row>
-    <row r="256">
+    <row r="256" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C256" s="7"/>
       <c r="F256" s="4"/>
       <c r="G256" s="4"/>
@@ -4633,7 +4666,7 @@
       <c r="J256" s="7"/>
       <c r="K256" s="7"/>
     </row>
-    <row r="257">
+    <row r="257" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C257" s="7"/>
       <c r="F257" s="4"/>
       <c r="G257" s="4"/>
@@ -4642,7 +4675,7 @@
       <c r="J257" s="7"/>
       <c r="K257" s="7"/>
     </row>
-    <row r="258">
+    <row r="258" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C258" s="7"/>
       <c r="F258" s="4"/>
       <c r="G258" s="4"/>
@@ -4651,7 +4684,7 @@
       <c r="J258" s="7"/>
       <c r="K258" s="7"/>
     </row>
-    <row r="259">
+    <row r="259" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C259" s="7"/>
       <c r="F259" s="4"/>
       <c r="G259" s="4"/>
@@ -4660,7 +4693,7 @@
       <c r="J259" s="7"/>
       <c r="K259" s="7"/>
     </row>
-    <row r="260">
+    <row r="260" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C260" s="7"/>
       <c r="F260" s="4"/>
       <c r="G260" s="4"/>
@@ -4669,7 +4702,7 @@
       <c r="J260" s="7"/>
       <c r="K260" s="7"/>
     </row>
-    <row r="261">
+    <row r="261" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C261" s="7"/>
       <c r="F261" s="4"/>
       <c r="G261" s="4"/>
@@ -4678,7 +4711,7 @@
       <c r="J261" s="7"/>
       <c r="K261" s="7"/>
     </row>
-    <row r="262">
+    <row r="262" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C262" s="7"/>
       <c r="F262" s="4"/>
       <c r="G262" s="4"/>
@@ -4687,7 +4720,7 @@
       <c r="J262" s="7"/>
       <c r="K262" s="7"/>
     </row>
-    <row r="263">
+    <row r="263" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C263" s="7"/>
       <c r="F263" s="4"/>
       <c r="G263" s="4"/>
@@ -4696,7 +4729,7 @@
       <c r="J263" s="7"/>
       <c r="K263" s="7"/>
     </row>
-    <row r="264">
+    <row r="264" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C264" s="7"/>
       <c r="F264" s="4"/>
       <c r="G264" s="4"/>
@@ -4705,7 +4738,7 @@
       <c r="J264" s="7"/>
       <c r="K264" s="7"/>
     </row>
-    <row r="265">
+    <row r="265" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C265" s="7"/>
       <c r="F265" s="4"/>
       <c r="G265" s="4"/>
@@ -4714,7 +4747,7 @@
       <c r="J265" s="7"/>
       <c r="K265" s="7"/>
     </row>
-    <row r="266">
+    <row r="266" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C266" s="7"/>
       <c r="F266" s="4"/>
       <c r="G266" s="4"/>
@@ -4723,7 +4756,7 @@
       <c r="J266" s="7"/>
       <c r="K266" s="7"/>
     </row>
-    <row r="267">
+    <row r="267" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C267" s="7"/>
       <c r="F267" s="4"/>
       <c r="G267" s="4"/>
@@ -4732,7 +4765,7 @@
       <c r="J267" s="7"/>
       <c r="K267" s="7"/>
     </row>
-    <row r="268">
+    <row r="268" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C268" s="7"/>
       <c r="F268" s="4"/>
       <c r="G268" s="4"/>
@@ -4741,7 +4774,7 @@
       <c r="J268" s="7"/>
       <c r="K268" s="7"/>
     </row>
-    <row r="269">
+    <row r="269" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C269" s="7"/>
       <c r="F269" s="4"/>
       <c r="G269" s="4"/>
@@ -4750,7 +4783,7 @@
       <c r="J269" s="7"/>
       <c r="K269" s="7"/>
     </row>
-    <row r="270">
+    <row r="270" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C270" s="7"/>
       <c r="F270" s="4"/>
       <c r="G270" s="4"/>
@@ -4759,7 +4792,7 @@
       <c r="J270" s="7"/>
       <c r="K270" s="7"/>
     </row>
-    <row r="271">
+    <row r="271" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C271" s="7"/>
       <c r="F271" s="4"/>
       <c r="G271" s="4"/>
@@ -4768,7 +4801,7 @@
       <c r="J271" s="7"/>
       <c r="K271" s="7"/>
     </row>
-    <row r="272">
+    <row r="272" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C272" s="7"/>
       <c r="F272" s="4"/>
       <c r="G272" s="4"/>
@@ -4777,7 +4810,7 @@
       <c r="J272" s="7"/>
       <c r="K272" s="7"/>
     </row>
-    <row r="273">
+    <row r="273" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C273" s="7"/>
       <c r="F273" s="4"/>
       <c r="G273" s="4"/>
@@ -4786,7 +4819,7 @@
       <c r="J273" s="7"/>
       <c r="K273" s="7"/>
     </row>
-    <row r="274">
+    <row r="274" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C274" s="7"/>
       <c r="F274" s="4"/>
       <c r="G274" s="4"/>
@@ -4795,7 +4828,7 @@
       <c r="J274" s="7"/>
       <c r="K274" s="7"/>
     </row>
-    <row r="275">
+    <row r="275" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C275" s="7"/>
       <c r="F275" s="4"/>
       <c r="G275" s="4"/>
@@ -4804,7 +4837,7 @@
       <c r="J275" s="7"/>
       <c r="K275" s="7"/>
     </row>
-    <row r="276">
+    <row r="276" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C276" s="7"/>
       <c r="F276" s="4"/>
       <c r="G276" s="4"/>
@@ -4813,7 +4846,7 @@
       <c r="J276" s="7"/>
       <c r="K276" s="7"/>
     </row>
-    <row r="277">
+    <row r="277" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C277" s="7"/>
       <c r="F277" s="4"/>
       <c r="G277" s="4"/>
@@ -4822,7 +4855,7 @@
       <c r="J277" s="7"/>
       <c r="K277" s="7"/>
     </row>
-    <row r="278">
+    <row r="278" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C278" s="7"/>
       <c r="F278" s="4"/>
       <c r="G278" s="4"/>
@@ -4831,7 +4864,7 @@
       <c r="J278" s="7"/>
       <c r="K278" s="7"/>
     </row>
-    <row r="279">
+    <row r="279" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C279" s="7"/>
       <c r="F279" s="4"/>
       <c r="G279" s="4"/>
@@ -4840,7 +4873,7 @@
       <c r="J279" s="7"/>
       <c r="K279" s="7"/>
     </row>
-    <row r="280">
+    <row r="280" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C280" s="7"/>
       <c r="F280" s="4"/>
       <c r="G280" s="4"/>
@@ -4849,7 +4882,7 @@
       <c r="J280" s="7"/>
       <c r="K280" s="7"/>
     </row>
-    <row r="281">
+    <row r="281" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C281" s="7"/>
       <c r="F281" s="4"/>
       <c r="G281" s="4"/>
@@ -4858,7 +4891,7 @@
       <c r="J281" s="7"/>
       <c r="K281" s="7"/>
     </row>
-    <row r="282">
+    <row r="282" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C282" s="7"/>
       <c r="F282" s="4"/>
       <c r="G282" s="4"/>
@@ -4867,7 +4900,7 @@
       <c r="J282" s="7"/>
       <c r="K282" s="7"/>
     </row>
-    <row r="283">
+    <row r="283" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C283" s="7"/>
       <c r="F283" s="4"/>
       <c r="G283" s="4"/>
@@ -4876,7 +4909,7 @@
       <c r="J283" s="7"/>
       <c r="K283" s="7"/>
     </row>
-    <row r="284">
+    <row r="284" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C284" s="7"/>
       <c r="F284" s="4"/>
       <c r="G284" s="4"/>
@@ -4885,7 +4918,7 @@
       <c r="J284" s="7"/>
       <c r="K284" s="7"/>
     </row>
-    <row r="285">
+    <row r="285" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C285" s="7"/>
       <c r="F285" s="4"/>
       <c r="G285" s="4"/>
@@ -4894,7 +4927,7 @@
       <c r="J285" s="7"/>
       <c r="K285" s="7"/>
     </row>
-    <row r="286">
+    <row r="286" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C286" s="7"/>
       <c r="F286" s="4"/>
       <c r="G286" s="4"/>
@@ -4903,7 +4936,7 @@
       <c r="J286" s="7"/>
       <c r="K286" s="7"/>
     </row>
-    <row r="287">
+    <row r="287" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C287" s="7"/>
       <c r="F287" s="4"/>
       <c r="G287" s="4"/>
@@ -4912,7 +4945,7 @@
       <c r="J287" s="7"/>
       <c r="K287" s="7"/>
     </row>
-    <row r="288">
+    <row r="288" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C288" s="7"/>
       <c r="F288" s="4"/>
       <c r="G288" s="4"/>
@@ -4921,7 +4954,7 @@
       <c r="J288" s="7"/>
       <c r="K288" s="7"/>
     </row>
-    <row r="289">
+    <row r="289" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C289" s="7"/>
       <c r="F289" s="4"/>
       <c r="G289" s="4"/>
@@ -4930,7 +4963,7 @@
       <c r="J289" s="7"/>
       <c r="K289" s="7"/>
     </row>
-    <row r="290">
+    <row r="290" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C290" s="7"/>
       <c r="F290" s="4"/>
       <c r="G290" s="4"/>
@@ -4939,7 +4972,7 @@
       <c r="J290" s="7"/>
       <c r="K290" s="7"/>
     </row>
-    <row r="291">
+    <row r="291" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C291" s="7"/>
       <c r="F291" s="4"/>
       <c r="G291" s="4"/>
@@ -4948,7 +4981,7 @@
       <c r="J291" s="7"/>
       <c r="K291" s="7"/>
     </row>
-    <row r="292">
+    <row r="292" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C292" s="7"/>
       <c r="F292" s="4"/>
       <c r="G292" s="4"/>
@@ -4957,7 +4990,7 @@
       <c r="J292" s="7"/>
       <c r="K292" s="7"/>
     </row>
-    <row r="293">
+    <row r="293" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C293" s="7"/>
       <c r="F293" s="4"/>
       <c r="G293" s="4"/>
@@ -4966,7 +4999,7 @@
       <c r="J293" s="7"/>
       <c r="K293" s="7"/>
     </row>
-    <row r="294">
+    <row r="294" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C294" s="7"/>
       <c r="F294" s="4"/>
       <c r="G294" s="4"/>
@@ -4975,7 +5008,7 @@
       <c r="J294" s="7"/>
       <c r="K294" s="7"/>
     </row>
-    <row r="295">
+    <row r="295" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C295" s="7"/>
       <c r="F295" s="4"/>
       <c r="G295" s="4"/>
@@ -4984,7 +5017,7 @@
       <c r="J295" s="7"/>
       <c r="K295" s="7"/>
     </row>
-    <row r="296">
+    <row r="296" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C296" s="7"/>
       <c r="F296" s="4"/>
       <c r="G296" s="4"/>
@@ -4993,7 +5026,7 @@
       <c r="J296" s="7"/>
       <c r="K296" s="7"/>
     </row>
-    <row r="297">
+    <row r="297" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C297" s="7"/>
       <c r="F297" s="4"/>
       <c r="G297" s="4"/>
@@ -5002,7 +5035,7 @@
       <c r="J297" s="7"/>
       <c r="K297" s="7"/>
     </row>
-    <row r="298">
+    <row r="298" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C298" s="7"/>
       <c r="F298" s="4"/>
       <c r="G298" s="4"/>
@@ -5011,7 +5044,7 @@
       <c r="J298" s="7"/>
       <c r="K298" s="7"/>
     </row>
-    <row r="299">
+    <row r="299" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C299" s="7"/>
       <c r="F299" s="4"/>
       <c r="G299" s="4"/>
@@ -5020,7 +5053,7 @@
       <c r="J299" s="7"/>
       <c r="K299" s="7"/>
     </row>
-    <row r="300">
+    <row r="300" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C300" s="7"/>
       <c r="F300" s="4"/>
       <c r="G300" s="4"/>
@@ -5029,7 +5062,7 @@
       <c r="J300" s="7"/>
       <c r="K300" s="7"/>
     </row>
-    <row r="301">
+    <row r="301" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C301" s="7"/>
       <c r="F301" s="4"/>
       <c r="G301" s="4"/>
@@ -5038,7 +5071,7 @@
       <c r="J301" s="7"/>
       <c r="K301" s="7"/>
     </row>
-    <row r="302">
+    <row r="302" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C302" s="7"/>
       <c r="F302" s="4"/>
       <c r="G302" s="4"/>
@@ -5047,7 +5080,7 @@
       <c r="J302" s="7"/>
       <c r="K302" s="7"/>
     </row>
-    <row r="303">
+    <row r="303" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C303" s="7"/>
       <c r="F303" s="4"/>
       <c r="G303" s="4"/>
@@ -5056,7 +5089,7 @@
       <c r="J303" s="7"/>
       <c r="K303" s="7"/>
     </row>
-    <row r="304">
+    <row r="304" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C304" s="7"/>
       <c r="F304" s="4"/>
       <c r="G304" s="4"/>
@@ -5065,7 +5098,7 @@
       <c r="J304" s="7"/>
       <c r="K304" s="7"/>
     </row>
-    <row r="305">
+    <row r="305" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C305" s="7"/>
       <c r="F305" s="4"/>
       <c r="G305" s="4"/>
@@ -5074,7 +5107,7 @@
       <c r="J305" s="7"/>
       <c r="K305" s="7"/>
     </row>
-    <row r="306">
+    <row r="306" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C306" s="7"/>
       <c r="F306" s="4"/>
       <c r="G306" s="4"/>
@@ -5083,7 +5116,7 @@
       <c r="J306" s="7"/>
       <c r="K306" s="7"/>
     </row>
-    <row r="307">
+    <row r="307" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C307" s="7"/>
       <c r="F307" s="4"/>
       <c r="G307" s="4"/>
@@ -5092,7 +5125,7 @@
       <c r="J307" s="7"/>
       <c r="K307" s="7"/>
     </row>
-    <row r="308">
+    <row r="308" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C308" s="7"/>
       <c r="F308" s="4"/>
       <c r="G308" s="4"/>
@@ -5101,7 +5134,7 @@
       <c r="J308" s="7"/>
       <c r="K308" s="7"/>
     </row>
-    <row r="309">
+    <row r="309" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C309" s="7"/>
       <c r="F309" s="4"/>
       <c r="G309" s="4"/>
@@ -5110,7 +5143,7 @@
       <c r="J309" s="7"/>
       <c r="K309" s="7"/>
     </row>
-    <row r="310">
+    <row r="310" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C310" s="7"/>
       <c r="F310" s="4"/>
       <c r="G310" s="4"/>
@@ -5119,7 +5152,7 @@
       <c r="J310" s="7"/>
       <c r="K310" s="7"/>
     </row>
-    <row r="311">
+    <row r="311" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C311" s="7"/>
       <c r="F311" s="4"/>
       <c r="G311" s="4"/>
@@ -5128,7 +5161,7 @@
       <c r="J311" s="7"/>
       <c r="K311" s="7"/>
     </row>
-    <row r="312">
+    <row r="312" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C312" s="7"/>
       <c r="F312" s="4"/>
       <c r="G312" s="4"/>
@@ -5137,7 +5170,7 @@
       <c r="J312" s="7"/>
       <c r="K312" s="7"/>
     </row>
-    <row r="313">
+    <row r="313" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C313" s="7"/>
       <c r="F313" s="4"/>
       <c r="G313" s="4"/>
@@ -5146,7 +5179,7 @@
       <c r="J313" s="7"/>
       <c r="K313" s="7"/>
     </row>
-    <row r="314">
+    <row r="314" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C314" s="7"/>
       <c r="F314" s="4"/>
       <c r="G314" s="4"/>
@@ -5155,7 +5188,7 @@
       <c r="J314" s="7"/>
       <c r="K314" s="7"/>
     </row>
-    <row r="315">
+    <row r="315" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C315" s="7"/>
       <c r="F315" s="4"/>
       <c r="G315" s="4"/>
@@ -5164,7 +5197,7 @@
       <c r="J315" s="7"/>
       <c r="K315" s="7"/>
     </row>
-    <row r="316">
+    <row r="316" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C316" s="7"/>
       <c r="F316" s="4"/>
       <c r="G316" s="4"/>
@@ -5173,7 +5206,7 @@
       <c r="J316" s="7"/>
       <c r="K316" s="7"/>
     </row>
-    <row r="317">
+    <row r="317" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C317" s="7"/>
       <c r="F317" s="4"/>
       <c r="G317" s="4"/>
@@ -5182,7 +5215,7 @@
       <c r="J317" s="7"/>
       <c r="K317" s="7"/>
     </row>
-    <row r="318">
+    <row r="318" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C318" s="7"/>
       <c r="F318" s="4"/>
       <c r="G318" s="4"/>
@@ -5191,7 +5224,7 @@
       <c r="J318" s="7"/>
       <c r="K318" s="7"/>
     </row>
-    <row r="319">
+    <row r="319" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C319" s="7"/>
       <c r="F319" s="4"/>
       <c r="G319" s="4"/>
@@ -5200,7 +5233,7 @@
       <c r="J319" s="7"/>
       <c r="K319" s="7"/>
     </row>
-    <row r="320">
+    <row r="320" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C320" s="7"/>
       <c r="F320" s="4"/>
       <c r="G320" s="4"/>
@@ -5209,7 +5242,7 @@
       <c r="J320" s="7"/>
       <c r="K320" s="7"/>
     </row>
-    <row r="321">
+    <row r="321" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C321" s="7"/>
       <c r="F321" s="4"/>
       <c r="G321" s="4"/>
@@ -5218,7 +5251,7 @@
       <c r="J321" s="7"/>
       <c r="K321" s="7"/>
     </row>
-    <row r="322">
+    <row r="322" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C322" s="7"/>
       <c r="F322" s="4"/>
       <c r="G322" s="4"/>
@@ -5227,7 +5260,7 @@
       <c r="J322" s="7"/>
       <c r="K322" s="7"/>
     </row>
-    <row r="323">
+    <row r="323" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C323" s="7"/>
       <c r="F323" s="4"/>
       <c r="G323" s="4"/>
@@ -5236,7 +5269,7 @@
       <c r="J323" s="7"/>
       <c r="K323" s="7"/>
     </row>
-    <row r="324">
+    <row r="324" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C324" s="7"/>
       <c r="F324" s="4"/>
       <c r="G324" s="4"/>
@@ -5245,7 +5278,7 @@
       <c r="J324" s="7"/>
       <c r="K324" s="7"/>
     </row>
-    <row r="325">
+    <row r="325" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C325" s="7"/>
       <c r="F325" s="4"/>
       <c r="G325" s="4"/>
@@ -5254,7 +5287,7 @@
       <c r="J325" s="7"/>
       <c r="K325" s="7"/>
     </row>
-    <row r="326">
+    <row r="326" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C326" s="7"/>
       <c r="F326" s="4"/>
       <c r="G326" s="4"/>
@@ -5263,7 +5296,7 @@
       <c r="J326" s="7"/>
       <c r="K326" s="7"/>
     </row>
-    <row r="327">
+    <row r="327" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C327" s="7"/>
       <c r="F327" s="4"/>
       <c r="G327" s="4"/>
@@ -5272,7 +5305,7 @@
       <c r="J327" s="7"/>
       <c r="K327" s="7"/>
     </row>
-    <row r="328">
+    <row r="328" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C328" s="7"/>
       <c r="F328" s="4"/>
       <c r="G328" s="4"/>
@@ -5281,7 +5314,7 @@
       <c r="J328" s="7"/>
       <c r="K328" s="7"/>
     </row>
-    <row r="329">
+    <row r="329" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C329" s="7"/>
       <c r="F329" s="4"/>
       <c r="G329" s="4"/>
@@ -5290,7 +5323,7 @@
       <c r="J329" s="7"/>
       <c r="K329" s="7"/>
     </row>
-    <row r="330">
+    <row r="330" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C330" s="7"/>
       <c r="F330" s="4"/>
       <c r="G330" s="4"/>
@@ -5299,7 +5332,7 @@
       <c r="J330" s="7"/>
       <c r="K330" s="7"/>
     </row>
-    <row r="331">
+    <row r="331" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C331" s="7"/>
       <c r="F331" s="4"/>
       <c r="G331" s="4"/>
@@ -5308,7 +5341,7 @@
       <c r="J331" s="7"/>
       <c r="K331" s="7"/>
     </row>
-    <row r="332">
+    <row r="332" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C332" s="7"/>
       <c r="F332" s="4"/>
       <c r="G332" s="4"/>
@@ -5317,7 +5350,7 @@
       <c r="J332" s="7"/>
       <c r="K332" s="7"/>
     </row>
-    <row r="333">
+    <row r="333" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C333" s="7"/>
       <c r="F333" s="4"/>
       <c r="G333" s="4"/>
@@ -5326,7 +5359,7 @@
       <c r="J333" s="7"/>
       <c r="K333" s="7"/>
     </row>
-    <row r="334">
+    <row r="334" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C334" s="7"/>
       <c r="F334" s="4"/>
       <c r="G334" s="4"/>
@@ -5335,7 +5368,7 @@
       <c r="J334" s="7"/>
       <c r="K334" s="7"/>
     </row>
-    <row r="335">
+    <row r="335" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C335" s="7"/>
       <c r="F335" s="4"/>
       <c r="G335" s="4"/>
@@ -5344,7 +5377,7 @@
       <c r="J335" s="7"/>
       <c r="K335" s="7"/>
     </row>
-    <row r="336">
+    <row r="336" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C336" s="7"/>
       <c r="F336" s="4"/>
       <c r="G336" s="4"/>
@@ -5353,7 +5386,7 @@
       <c r="J336" s="7"/>
       <c r="K336" s="7"/>
     </row>
-    <row r="337">
+    <row r="337" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C337" s="7"/>
       <c r="F337" s="4"/>
       <c r="G337" s="4"/>
@@ -5362,7 +5395,7 @@
       <c r="J337" s="7"/>
       <c r="K337" s="7"/>
     </row>
-    <row r="338">
+    <row r="338" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C338" s="7"/>
       <c r="F338" s="4"/>
       <c r="G338" s="4"/>
@@ -5371,7 +5404,7 @@
       <c r="J338" s="7"/>
       <c r="K338" s="7"/>
     </row>
-    <row r="339">
+    <row r="339" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C339" s="7"/>
       <c r="F339" s="4"/>
       <c r="G339" s="4"/>
@@ -5380,7 +5413,7 @@
       <c r="J339" s="7"/>
       <c r="K339" s="7"/>
     </row>
-    <row r="340">
+    <row r="340" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C340" s="7"/>
       <c r="F340" s="4"/>
       <c r="G340" s="4"/>
@@ -5389,7 +5422,7 @@
       <c r="J340" s="7"/>
       <c r="K340" s="7"/>
     </row>
-    <row r="341">
+    <row r="341" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C341" s="7"/>
       <c r="F341" s="4"/>
       <c r="G341" s="4"/>
@@ -5398,7 +5431,7 @@
       <c r="J341" s="7"/>
       <c r="K341" s="7"/>
     </row>
-    <row r="342">
+    <row r="342" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C342" s="7"/>
       <c r="F342" s="4"/>
       <c r="G342" s="4"/>
@@ -5407,7 +5440,7 @@
       <c r="J342" s="7"/>
       <c r="K342" s="7"/>
     </row>
-    <row r="343">
+    <row r="343" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C343" s="7"/>
       <c r="F343" s="4"/>
       <c r="G343" s="4"/>
@@ -5416,7 +5449,7 @@
       <c r="J343" s="7"/>
       <c r="K343" s="7"/>
     </row>
-    <row r="344">
+    <row r="344" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C344" s="7"/>
       <c r="F344" s="4"/>
       <c r="G344" s="4"/>
@@ -5425,7 +5458,7 @@
       <c r="J344" s="7"/>
       <c r="K344" s="7"/>
     </row>
-    <row r="345">
+    <row r="345" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C345" s="7"/>
       <c r="F345" s="4"/>
       <c r="G345" s="4"/>
@@ -5434,7 +5467,7 @@
       <c r="J345" s="7"/>
       <c r="K345" s="7"/>
     </row>
-    <row r="346">
+    <row r="346" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C346" s="7"/>
       <c r="F346" s="4"/>
       <c r="G346" s="4"/>
@@ -5443,7 +5476,7 @@
       <c r="J346" s="7"/>
       <c r="K346" s="7"/>
     </row>
-    <row r="347">
+    <row r="347" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C347" s="7"/>
       <c r="F347" s="4"/>
       <c r="G347" s="4"/>
@@ -5452,7 +5485,7 @@
       <c r="J347" s="7"/>
       <c r="K347" s="7"/>
     </row>
-    <row r="348">
+    <row r="348" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C348" s="7"/>
       <c r="F348" s="4"/>
       <c r="G348" s="4"/>
@@ -5461,7 +5494,7 @@
       <c r="J348" s="7"/>
       <c r="K348" s="7"/>
     </row>
-    <row r="349">
+    <row r="349" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C349" s="7"/>
       <c r="F349" s="4"/>
       <c r="G349" s="4"/>
@@ -5470,7 +5503,7 @@
       <c r="J349" s="7"/>
       <c r="K349" s="7"/>
     </row>
-    <row r="350">
+    <row r="350" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C350" s="7"/>
       <c r="F350" s="4"/>
       <c r="G350" s="4"/>
@@ -5479,7 +5512,7 @@
       <c r="J350" s="7"/>
       <c r="K350" s="7"/>
     </row>
-    <row r="351">
+    <row r="351" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C351" s="7"/>
       <c r="F351" s="4"/>
       <c r="G351" s="4"/>
@@ -5488,7 +5521,7 @@
       <c r="J351" s="7"/>
       <c r="K351" s="7"/>
     </row>
-    <row r="352">
+    <row r="352" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C352" s="7"/>
       <c r="F352" s="4"/>
       <c r="G352" s="4"/>
@@ -5497,7 +5530,7 @@
       <c r="J352" s="7"/>
       <c r="K352" s="7"/>
     </row>
-    <row r="353">
+    <row r="353" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C353" s="7"/>
       <c r="F353" s="4"/>
       <c r="G353" s="4"/>
@@ -5506,7 +5539,7 @@
       <c r="J353" s="7"/>
       <c r="K353" s="7"/>
     </row>
-    <row r="354">
+    <row r="354" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C354" s="7"/>
       <c r="F354" s="4"/>
       <c r="G354" s="4"/>
@@ -5515,7 +5548,7 @@
       <c r="J354" s="7"/>
       <c r="K354" s="7"/>
     </row>
-    <row r="355">
+    <row r="355" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C355" s="7"/>
       <c r="F355" s="4"/>
       <c r="G355" s="4"/>
@@ -5524,7 +5557,7 @@
       <c r="J355" s="7"/>
       <c r="K355" s="7"/>
     </row>
-    <row r="356">
+    <row r="356" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C356" s="7"/>
       <c r="F356" s="4"/>
       <c r="G356" s="4"/>
@@ -5533,7 +5566,7 @@
       <c r="J356" s="7"/>
       <c r="K356" s="7"/>
     </row>
-    <row r="357">
+    <row r="357" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C357" s="7"/>
       <c r="F357" s="4"/>
       <c r="G357" s="4"/>
@@ -5542,7 +5575,7 @@
       <c r="J357" s="7"/>
       <c r="K357" s="7"/>
     </row>
-    <row r="358">
+    <row r="358" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C358" s="7"/>
       <c r="F358" s="4"/>
       <c r="G358" s="4"/>
@@ -5551,7 +5584,7 @@
       <c r="J358" s="7"/>
       <c r="K358" s="7"/>
     </row>
-    <row r="359">
+    <row r="359" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C359" s="7"/>
       <c r="F359" s="4"/>
       <c r="G359" s="4"/>
@@ -5560,7 +5593,7 @@
       <c r="J359" s="7"/>
       <c r="K359" s="7"/>
     </row>
-    <row r="360">
+    <row r="360" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C360" s="7"/>
       <c r="F360" s="4"/>
       <c r="G360" s="4"/>
@@ -5569,7 +5602,7 @@
       <c r="J360" s="7"/>
       <c r="K360" s="7"/>
     </row>
-    <row r="361">
+    <row r="361" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C361" s="7"/>
       <c r="F361" s="4"/>
       <c r="G361" s="4"/>
@@ -5578,7 +5611,7 @@
       <c r="J361" s="7"/>
       <c r="K361" s="7"/>
     </row>
-    <row r="362">
+    <row r="362" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C362" s="7"/>
       <c r="F362" s="4"/>
       <c r="G362" s="4"/>
@@ -5587,7 +5620,7 @@
       <c r="J362" s="7"/>
       <c r="K362" s="7"/>
     </row>
-    <row r="363">
+    <row r="363" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C363" s="7"/>
       <c r="F363" s="4"/>
       <c r="G363" s="4"/>
@@ -5596,7 +5629,7 @@
       <c r="J363" s="7"/>
       <c r="K363" s="7"/>
     </row>
-    <row r="364">
+    <row r="364" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C364" s="7"/>
       <c r="F364" s="4"/>
       <c r="G364" s="4"/>
@@ -5605,7 +5638,7 @@
       <c r="J364" s="7"/>
       <c r="K364" s="7"/>
     </row>
-    <row r="365">
+    <row r="365" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C365" s="7"/>
       <c r="F365" s="4"/>
       <c r="G365" s="4"/>
@@ -5614,7 +5647,7 @@
       <c r="J365" s="7"/>
       <c r="K365" s="7"/>
     </row>
-    <row r="366">
+    <row r="366" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C366" s="7"/>
       <c r="F366" s="4"/>
       <c r="G366" s="4"/>
@@ -5623,7 +5656,7 @@
       <c r="J366" s="7"/>
       <c r="K366" s="7"/>
     </row>
-    <row r="367">
+    <row r="367" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C367" s="7"/>
       <c r="F367" s="4"/>
       <c r="G367" s="4"/>
@@ -5632,7 +5665,7 @@
       <c r="J367" s="7"/>
       <c r="K367" s="7"/>
     </row>
-    <row r="368">
+    <row r="368" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C368" s="7"/>
       <c r="F368" s="4"/>
       <c r="G368" s="4"/>
@@ -5641,7 +5674,7 @@
       <c r="J368" s="7"/>
       <c r="K368" s="7"/>
     </row>
-    <row r="369">
+    <row r="369" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C369" s="7"/>
       <c r="F369" s="4"/>
       <c r="G369" s="4"/>
@@ -5650,7 +5683,7 @@
       <c r="J369" s="7"/>
       <c r="K369" s="7"/>
     </row>
-    <row r="370">
+    <row r="370" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C370" s="7"/>
       <c r="F370" s="4"/>
       <c r="G370" s="4"/>
@@ -5659,7 +5692,7 @@
       <c r="J370" s="7"/>
       <c r="K370" s="7"/>
     </row>
-    <row r="371">
+    <row r="371" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C371" s="7"/>
       <c r="F371" s="4"/>
       <c r="G371" s="4"/>
@@ -5668,7 +5701,7 @@
       <c r="J371" s="7"/>
       <c r="K371" s="7"/>
     </row>
-    <row r="372">
+    <row r="372" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C372" s="7"/>
       <c r="F372" s="4"/>
       <c r="G372" s="4"/>
@@ -5677,7 +5710,7 @@
       <c r="J372" s="7"/>
       <c r="K372" s="7"/>
     </row>
-    <row r="373">
+    <row r="373" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C373" s="7"/>
       <c r="F373" s="4"/>
       <c r="G373" s="4"/>
@@ -5686,7 +5719,7 @@
       <c r="J373" s="7"/>
       <c r="K373" s="7"/>
     </row>
-    <row r="374">
+    <row r="374" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C374" s="7"/>
       <c r="F374" s="4"/>
       <c r="G374" s="4"/>
@@ -5695,7 +5728,7 @@
       <c r="J374" s="7"/>
       <c r="K374" s="7"/>
     </row>
-    <row r="375">
+    <row r="375" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C375" s="7"/>
       <c r="F375" s="4"/>
       <c r="G375" s="4"/>
@@ -5704,7 +5737,7 @@
       <c r="J375" s="7"/>
       <c r="K375" s="7"/>
     </row>
-    <row r="376">
+    <row r="376" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C376" s="7"/>
       <c r="F376" s="4"/>
       <c r="G376" s="4"/>
@@ -5713,7 +5746,7 @@
       <c r="J376" s="7"/>
       <c r="K376" s="7"/>
     </row>
-    <row r="377">
+    <row r="377" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C377" s="7"/>
       <c r="F377" s="4"/>
       <c r="G377" s="4"/>
@@ -5722,7 +5755,7 @@
       <c r="J377" s="7"/>
       <c r="K377" s="7"/>
     </row>
-    <row r="378">
+    <row r="378" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C378" s="7"/>
       <c r="F378" s="4"/>
       <c r="G378" s="4"/>
@@ -5731,7 +5764,7 @@
       <c r="J378" s="7"/>
       <c r="K378" s="7"/>
     </row>
-    <row r="379">
+    <row r="379" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C379" s="7"/>
       <c r="F379" s="4"/>
       <c r="G379" s="4"/>
@@ -5740,7 +5773,7 @@
       <c r="J379" s="7"/>
       <c r="K379" s="7"/>
     </row>
-    <row r="380">
+    <row r="380" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C380" s="7"/>
       <c r="F380" s="4"/>
       <c r="G380" s="4"/>
@@ -5749,7 +5782,7 @@
       <c r="J380" s="7"/>
       <c r="K380" s="7"/>
     </row>
-    <row r="381">
+    <row r="381" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C381" s="7"/>
       <c r="F381" s="4"/>
       <c r="G381" s="4"/>
@@ -5758,7 +5791,7 @@
       <c r="J381" s="7"/>
       <c r="K381" s="7"/>
     </row>
-    <row r="382">
+    <row r="382" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C382" s="7"/>
       <c r="F382" s="4"/>
       <c r="G382" s="4"/>
@@ -5767,7 +5800,7 @@
       <c r="J382" s="7"/>
       <c r="K382" s="7"/>
     </row>
-    <row r="383">
+    <row r="383" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C383" s="7"/>
       <c r="F383" s="4"/>
       <c r="G383" s="4"/>
@@ -5776,7 +5809,7 @@
       <c r="J383" s="7"/>
       <c r="K383" s="7"/>
     </row>
-    <row r="384">
+    <row r="384" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C384" s="7"/>
       <c r="F384" s="4"/>
       <c r="G384" s="4"/>
@@ -5785,7 +5818,7 @@
       <c r="J384" s="7"/>
       <c r="K384" s="7"/>
     </row>
-    <row r="385">
+    <row r="385" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C385" s="7"/>
       <c r="F385" s="4"/>
       <c r="G385" s="4"/>
@@ -5794,7 +5827,7 @@
       <c r="J385" s="7"/>
       <c r="K385" s="7"/>
     </row>
-    <row r="386">
+    <row r="386" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C386" s="7"/>
       <c r="F386" s="4"/>
       <c r="G386" s="4"/>
@@ -5803,7 +5836,7 @@
       <c r="J386" s="7"/>
       <c r="K386" s="7"/>
     </row>
-    <row r="387">
+    <row r="387" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C387" s="7"/>
       <c r="F387" s="4"/>
       <c r="G387" s="4"/>
@@ -5812,7 +5845,7 @@
       <c r="J387" s="7"/>
       <c r="K387" s="7"/>
     </row>
-    <row r="388">
+    <row r="388" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C388" s="7"/>
       <c r="F388" s="4"/>
       <c r="G388" s="4"/>
@@ -5821,7 +5854,7 @@
       <c r="J388" s="7"/>
       <c r="K388" s="7"/>
     </row>
-    <row r="389">
+    <row r="389" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C389" s="7"/>
       <c r="F389" s="4"/>
       <c r="G389" s="4"/>
@@ -5830,7 +5863,7 @@
       <c r="J389" s="7"/>
       <c r="K389" s="7"/>
     </row>
-    <row r="390">
+    <row r="390" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C390" s="7"/>
       <c r="F390" s="4"/>
       <c r="G390" s="4"/>
@@ -5839,7 +5872,7 @@
       <c r="J390" s="7"/>
       <c r="K390" s="7"/>
     </row>
-    <row r="391">
+    <row r="391" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C391" s="7"/>
       <c r="F391" s="4"/>
       <c r="G391" s="4"/>
@@ -5848,7 +5881,7 @@
       <c r="J391" s="7"/>
       <c r="K391" s="7"/>
     </row>
-    <row r="392">
+    <row r="392" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C392" s="7"/>
       <c r="F392" s="4"/>
       <c r="G392" s="4"/>
@@ -5857,7 +5890,7 @@
       <c r="J392" s="7"/>
       <c r="K392" s="7"/>
     </row>
-    <row r="393">
+    <row r="393" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C393" s="7"/>
       <c r="F393" s="4"/>
       <c r="G393" s="4"/>
@@ -5866,7 +5899,7 @@
       <c r="J393" s="7"/>
       <c r="K393" s="7"/>
     </row>
-    <row r="394">
+    <row r="394" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C394" s="7"/>
       <c r="F394" s="4"/>
       <c r="G394" s="4"/>
@@ -5875,7 +5908,7 @@
       <c r="J394" s="7"/>
       <c r="K394" s="7"/>
     </row>
-    <row r="395">
+    <row r="395" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C395" s="7"/>
       <c r="F395" s="4"/>
       <c r="G395" s="4"/>
@@ -5884,7 +5917,7 @@
       <c r="J395" s="7"/>
       <c r="K395" s="7"/>
     </row>
-    <row r="396">
+    <row r="396" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C396" s="7"/>
       <c r="F396" s="4"/>
       <c r="G396" s="4"/>
@@ -5893,7 +5926,7 @@
       <c r="J396" s="7"/>
       <c r="K396" s="7"/>
     </row>
-    <row r="397">
+    <row r="397" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C397" s="7"/>
       <c r="F397" s="4"/>
       <c r="G397" s="4"/>
@@ -5902,7 +5935,7 @@
       <c r="J397" s="7"/>
       <c r="K397" s="7"/>
     </row>
-    <row r="398">
+    <row r="398" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C398" s="7"/>
       <c r="F398" s="4"/>
       <c r="G398" s="4"/>
@@ -5911,7 +5944,7 @@
       <c r="J398" s="7"/>
       <c r="K398" s="7"/>
     </row>
-    <row r="399">
+    <row r="399" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C399" s="7"/>
       <c r="F399" s="4"/>
       <c r="G399" s="4"/>
@@ -5920,7 +5953,7 @@
       <c r="J399" s="7"/>
       <c r="K399" s="7"/>
     </row>
-    <row r="400">
+    <row r="400" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C400" s="7"/>
       <c r="F400" s="4"/>
       <c r="G400" s="4"/>
@@ -5929,7 +5962,7 @@
       <c r="J400" s="7"/>
       <c r="K400" s="7"/>
     </row>
-    <row r="401">
+    <row r="401" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C401" s="7"/>
       <c r="F401" s="4"/>
       <c r="G401" s="4"/>
@@ -5938,7 +5971,7 @@
       <c r="J401" s="7"/>
       <c r="K401" s="7"/>
     </row>
-    <row r="402">
+    <row r="402" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C402" s="7"/>
       <c r="F402" s="4"/>
       <c r="G402" s="4"/>
@@ -5947,7 +5980,7 @@
       <c r="J402" s="7"/>
       <c r="K402" s="7"/>
     </row>
-    <row r="403">
+    <row r="403" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C403" s="7"/>
       <c r="F403" s="4"/>
       <c r="G403" s="4"/>
@@ -5956,7 +5989,7 @@
       <c r="J403" s="7"/>
       <c r="K403" s="7"/>
     </row>
-    <row r="404">
+    <row r="404" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C404" s="7"/>
       <c r="F404" s="4"/>
       <c r="G404" s="4"/>
@@ -5965,7 +5998,7 @@
       <c r="J404" s="7"/>
       <c r="K404" s="7"/>
     </row>
-    <row r="405">
+    <row r="405" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C405" s="7"/>
       <c r="F405" s="4"/>
       <c r="G405" s="4"/>
@@ -5974,7 +6007,7 @@
       <c r="J405" s="7"/>
       <c r="K405" s="7"/>
     </row>
-    <row r="406">
+    <row r="406" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C406" s="7"/>
       <c r="F406" s="4"/>
       <c r="G406" s="4"/>
@@ -5983,7 +6016,7 @@
       <c r="J406" s="7"/>
       <c r="K406" s="7"/>
     </row>
-    <row r="407">
+    <row r="407" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C407" s="7"/>
       <c r="F407" s="4"/>
       <c r="G407" s="4"/>
@@ -5992,7 +6025,7 @@
       <c r="J407" s="7"/>
       <c r="K407" s="7"/>
     </row>
-    <row r="408">
+    <row r="408" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C408" s="7"/>
       <c r="F408" s="4"/>
       <c r="G408" s="4"/>
@@ -6001,7 +6034,7 @@
       <c r="J408" s="7"/>
       <c r="K408" s="7"/>
     </row>
-    <row r="409">
+    <row r="409" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C409" s="7"/>
       <c r="F409" s="4"/>
       <c r="G409" s="4"/>
@@ -6010,7 +6043,7 @@
       <c r="J409" s="7"/>
       <c r="K409" s="7"/>
     </row>
-    <row r="410">
+    <row r="410" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C410" s="7"/>
       <c r="F410" s="4"/>
       <c r="G410" s="4"/>
@@ -6019,7 +6052,7 @@
       <c r="J410" s="7"/>
       <c r="K410" s="7"/>
     </row>
-    <row r="411">
+    <row r="411" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C411" s="7"/>
       <c r="F411" s="4"/>
       <c r="G411" s="4"/>
@@ -6028,7 +6061,7 @@
       <c r="J411" s="7"/>
       <c r="K411" s="7"/>
     </row>
-    <row r="412">
+    <row r="412" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C412" s="7"/>
       <c r="F412" s="4"/>
       <c r="G412" s="4"/>
@@ -6037,7 +6070,7 @@
       <c r="J412" s="7"/>
       <c r="K412" s="7"/>
     </row>
-    <row r="413">
+    <row r="413" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C413" s="7"/>
       <c r="F413" s="4"/>
       <c r="G413" s="4"/>
@@ -6046,7 +6079,7 @@
       <c r="J413" s="7"/>
       <c r="K413" s="7"/>
     </row>
-    <row r="414">
+    <row r="414" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C414" s="7"/>
       <c r="F414" s="4"/>
       <c r="G414" s="4"/>
@@ -6055,7 +6088,7 @@
       <c r="J414" s="7"/>
       <c r="K414" s="7"/>
     </row>
-    <row r="415">
+    <row r="415" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C415" s="7"/>
       <c r="F415" s="4"/>
       <c r="G415" s="4"/>
@@ -6064,7 +6097,7 @@
       <c r="J415" s="7"/>
       <c r="K415" s="7"/>
     </row>
-    <row r="416">
+    <row r="416" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C416" s="7"/>
       <c r="F416" s="4"/>
       <c r="G416" s="4"/>
@@ -6073,7 +6106,7 @@
       <c r="J416" s="7"/>
       <c r="K416" s="7"/>
     </row>
-    <row r="417">
+    <row r="417" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C417" s="7"/>
       <c r="F417" s="4"/>
       <c r="G417" s="4"/>
@@ -6082,7 +6115,7 @@
       <c r="J417" s="7"/>
       <c r="K417" s="7"/>
     </row>
-    <row r="418">
+    <row r="418" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C418" s="7"/>
       <c r="F418" s="4"/>
       <c r="G418" s="4"/>
@@ -6091,7 +6124,7 @@
       <c r="J418" s="7"/>
       <c r="K418" s="7"/>
     </row>
-    <row r="419">
+    <row r="419" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C419" s="7"/>
       <c r="F419" s="4"/>
       <c r="G419" s="4"/>
@@ -6100,7 +6133,7 @@
       <c r="J419" s="7"/>
       <c r="K419" s="7"/>
     </row>
-    <row r="420">
+    <row r="420" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C420" s="7"/>
       <c r="F420" s="4"/>
       <c r="G420" s="4"/>
@@ -6109,7 +6142,7 @@
       <c r="J420" s="7"/>
       <c r="K420" s="7"/>
     </row>
-    <row r="421">
+    <row r="421" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C421" s="7"/>
       <c r="F421" s="4"/>
       <c r="G421" s="4"/>
@@ -6118,7 +6151,7 @@
       <c r="J421" s="7"/>
       <c r="K421" s="7"/>
     </row>
-    <row r="422">
+    <row r="422" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C422" s="7"/>
       <c r="F422" s="4"/>
       <c r="G422" s="4"/>
@@ -6127,7 +6160,7 @@
       <c r="J422" s="7"/>
       <c r="K422" s="7"/>
     </row>
-    <row r="423">
+    <row r="423" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C423" s="7"/>
       <c r="F423" s="4"/>
       <c r="G423" s="4"/>
@@ -6136,7 +6169,7 @@
       <c r="J423" s="7"/>
       <c r="K423" s="7"/>
     </row>
-    <row r="424">
+    <row r="424" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C424" s="7"/>
       <c r="F424" s="4"/>
       <c r="G424" s="4"/>
@@ -6145,7 +6178,7 @@
       <c r="J424" s="7"/>
       <c r="K424" s="7"/>
     </row>
-    <row r="425">
+    <row r="425" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C425" s="7"/>
       <c r="F425" s="4"/>
       <c r="G425" s="4"/>
@@ -6154,7 +6187,7 @@
       <c r="J425" s="7"/>
       <c r="K425" s="7"/>
     </row>
-    <row r="426">
+    <row r="426" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C426" s="7"/>
       <c r="F426" s="4"/>
       <c r="G426" s="4"/>
@@ -6163,7 +6196,7 @@
       <c r="J426" s="7"/>
       <c r="K426" s="7"/>
     </row>
-    <row r="427">
+    <row r="427" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C427" s="7"/>
       <c r="F427" s="4"/>
       <c r="G427" s="4"/>
@@ -6172,7 +6205,7 @@
       <c r="J427" s="7"/>
       <c r="K427" s="7"/>
     </row>
-    <row r="428">
+    <row r="428" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C428" s="7"/>
       <c r="F428" s="4"/>
       <c r="G428" s="4"/>
@@ -6181,7 +6214,7 @@
       <c r="J428" s="7"/>
       <c r="K428" s="7"/>
     </row>
-    <row r="429">
+    <row r="429" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C429" s="7"/>
       <c r="F429" s="4"/>
       <c r="G429" s="4"/>
@@ -6190,7 +6223,7 @@
       <c r="J429" s="7"/>
       <c r="K429" s="7"/>
     </row>
-    <row r="430">
+    <row r="430" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C430" s="7"/>
       <c r="F430" s="4"/>
       <c r="G430" s="4"/>
@@ -6199,7 +6232,7 @@
       <c r="J430" s="7"/>
       <c r="K430" s="7"/>
     </row>
-    <row r="431">
+    <row r="431" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C431" s="7"/>
       <c r="F431" s="4"/>
       <c r="G431" s="4"/>
@@ -6208,7 +6241,7 @@
       <c r="J431" s="7"/>
       <c r="K431" s="7"/>
     </row>
-    <row r="432">
+    <row r="432" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C432" s="7"/>
       <c r="F432" s="4"/>
       <c r="G432" s="4"/>
@@ -6217,7 +6250,7 @@
       <c r="J432" s="7"/>
       <c r="K432" s="7"/>
     </row>
-    <row r="433">
+    <row r="433" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C433" s="7"/>
       <c r="F433" s="4"/>
       <c r="G433" s="4"/>
@@ -6226,7 +6259,7 @@
       <c r="J433" s="7"/>
       <c r="K433" s="7"/>
     </row>
-    <row r="434">
+    <row r="434" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C434" s="7"/>
       <c r="F434" s="4"/>
       <c r="G434" s="4"/>
@@ -6235,7 +6268,7 @@
       <c r="J434" s="7"/>
       <c r="K434" s="7"/>
     </row>
-    <row r="435">
+    <row r="435" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C435" s="7"/>
       <c r="F435" s="4"/>
       <c r="G435" s="4"/>
@@ -6244,7 +6277,7 @@
       <c r="J435" s="7"/>
       <c r="K435" s="7"/>
     </row>
-    <row r="436">
+    <row r="436" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C436" s="7"/>
       <c r="F436" s="4"/>
       <c r="G436" s="4"/>
@@ -6253,7 +6286,7 @@
       <c r="J436" s="7"/>
       <c r="K436" s="7"/>
     </row>
-    <row r="437">
+    <row r="437" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C437" s="7"/>
       <c r="F437" s="4"/>
       <c r="G437" s="4"/>
@@ -6262,7 +6295,7 @@
       <c r="J437" s="7"/>
       <c r="K437" s="7"/>
     </row>
-    <row r="438">
+    <row r="438" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C438" s="7"/>
       <c r="F438" s="4"/>
       <c r="G438" s="4"/>
@@ -6271,7 +6304,7 @@
       <c r="J438" s="7"/>
       <c r="K438" s="7"/>
     </row>
-    <row r="439">
+    <row r="439" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C439" s="7"/>
       <c r="F439" s="4"/>
       <c r="G439" s="4"/>
@@ -6280,7 +6313,7 @@
       <c r="J439" s="7"/>
       <c r="K439" s="7"/>
     </row>
-    <row r="440">
+    <row r="440" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C440" s="7"/>
       <c r="F440" s="4"/>
       <c r="G440" s="4"/>
@@ -6289,7 +6322,7 @@
       <c r="J440" s="7"/>
       <c r="K440" s="7"/>
     </row>
-    <row r="441">
+    <row r="441" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C441" s="7"/>
       <c r="F441" s="4"/>
       <c r="G441" s="4"/>
@@ -6298,7 +6331,7 @@
       <c r="J441" s="7"/>
       <c r="K441" s="7"/>
     </row>
-    <row r="442">
+    <row r="442" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C442" s="7"/>
       <c r="F442" s="4"/>
       <c r="G442" s="4"/>
@@ -6307,7 +6340,7 @@
       <c r="J442" s="7"/>
       <c r="K442" s="7"/>
     </row>
-    <row r="443">
+    <row r="443" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C443" s="7"/>
       <c r="F443" s="4"/>
       <c r="G443" s="4"/>
@@ -6316,7 +6349,7 @@
       <c r="J443" s="7"/>
       <c r="K443" s="7"/>
     </row>
-    <row r="444">
+    <row r="444" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C444" s="7"/>
       <c r="F444" s="4"/>
       <c r="G444" s="4"/>
@@ -6325,7 +6358,7 @@
       <c r="J444" s="7"/>
       <c r="K444" s="7"/>
     </row>
-    <row r="445">
+    <row r="445" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C445" s="7"/>
       <c r="F445" s="4"/>
       <c r="G445" s="4"/>
@@ -6334,7 +6367,7 @@
       <c r="J445" s="7"/>
       <c r="K445" s="7"/>
     </row>
-    <row r="446">
+    <row r="446" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C446" s="7"/>
       <c r="F446" s="4"/>
       <c r="G446" s="4"/>
@@ -6343,7 +6376,7 @@
       <c r="J446" s="7"/>
       <c r="K446" s="7"/>
     </row>
-    <row r="447">
+    <row r="447" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C447" s="7"/>
       <c r="F447" s="4"/>
       <c r="G447" s="4"/>
@@ -6352,7 +6385,7 @@
       <c r="J447" s="7"/>
       <c r="K447" s="7"/>
     </row>
-    <row r="448">
+    <row r="448" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C448" s="7"/>
       <c r="F448" s="4"/>
       <c r="G448" s="4"/>
@@ -6361,7 +6394,7 @@
       <c r="J448" s="7"/>
       <c r="K448" s="7"/>
     </row>
-    <row r="449">
+    <row r="449" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C449" s="7"/>
       <c r="F449" s="4"/>
       <c r="G449" s="4"/>
@@ -6370,7 +6403,7 @@
       <c r="J449" s="7"/>
       <c r="K449" s="7"/>
     </row>
-    <row r="450">
+    <row r="450" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C450" s="7"/>
       <c r="F450" s="4"/>
       <c r="G450" s="4"/>
@@ -6379,7 +6412,7 @@
       <c r="J450" s="7"/>
       <c r="K450" s="7"/>
     </row>
-    <row r="451">
+    <row r="451" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C451" s="7"/>
       <c r="F451" s="4"/>
       <c r="G451" s="4"/>
@@ -6388,7 +6421,7 @@
       <c r="J451" s="7"/>
       <c r="K451" s="7"/>
     </row>
-    <row r="452">
+    <row r="452" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C452" s="7"/>
       <c r="F452" s="4"/>
       <c r="G452" s="4"/>
@@ -6397,7 +6430,7 @@
       <c r="J452" s="7"/>
       <c r="K452" s="7"/>
     </row>
-    <row r="453">
+    <row r="453" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C453" s="7"/>
       <c r="F453" s="4"/>
       <c r="G453" s="4"/>
@@ -6406,7 +6439,7 @@
       <c r="J453" s="7"/>
       <c r="K453" s="7"/>
     </row>
-    <row r="454">
+    <row r="454" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C454" s="7"/>
       <c r="F454" s="4"/>
       <c r="G454" s="4"/>
@@ -6415,7 +6448,7 @@
       <c r="J454" s="7"/>
       <c r="K454" s="7"/>
     </row>
-    <row r="455">
+    <row r="455" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C455" s="7"/>
       <c r="F455" s="4"/>
       <c r="G455" s="4"/>
@@ -6424,7 +6457,7 @@
       <c r="J455" s="7"/>
       <c r="K455" s="7"/>
     </row>
-    <row r="456">
+    <row r="456" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C456" s="7"/>
       <c r="F456" s="4"/>
       <c r="G456" s="4"/>
@@ -6433,7 +6466,7 @@
       <c r="J456" s="7"/>
       <c r="K456" s="7"/>
     </row>
-    <row r="457">
+    <row r="457" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C457" s="7"/>
       <c r="F457" s="4"/>
       <c r="G457" s="4"/>
@@ -6442,7 +6475,7 @@
       <c r="J457" s="7"/>
       <c r="K457" s="7"/>
     </row>
-    <row r="458">
+    <row r="458" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C458" s="7"/>
       <c r="F458" s="4"/>
       <c r="G458" s="4"/>
@@ -6451,7 +6484,7 @@
       <c r="J458" s="7"/>
       <c r="K458" s="7"/>
     </row>
-    <row r="459">
+    <row r="459" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C459" s="7"/>
       <c r="F459" s="4"/>
       <c r="G459" s="4"/>
@@ -6460,7 +6493,7 @@
       <c r="J459" s="7"/>
       <c r="K459" s="7"/>
     </row>
-    <row r="460">
+    <row r="460" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C460" s="7"/>
       <c r="F460" s="4"/>
       <c r="G460" s="4"/>
@@ -6469,7 +6502,7 @@
       <c r="J460" s="7"/>
       <c r="K460" s="7"/>
     </row>
-    <row r="461">
+    <row r="461" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C461" s="7"/>
       <c r="F461" s="4"/>
       <c r="G461" s="4"/>
@@ -6478,7 +6511,7 @@
       <c r="J461" s="7"/>
       <c r="K461" s="7"/>
     </row>
-    <row r="462">
+    <row r="462" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C462" s="7"/>
       <c r="F462" s="4"/>
       <c r="G462" s="4"/>
@@ -6487,7 +6520,7 @@
       <c r="J462" s="7"/>
       <c r="K462" s="7"/>
     </row>
-    <row r="463">
+    <row r="463" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C463" s="7"/>
       <c r="F463" s="4"/>
       <c r="G463" s="4"/>
@@ -6496,7 +6529,7 @@
       <c r="J463" s="7"/>
       <c r="K463" s="7"/>
     </row>
-    <row r="464">
+    <row r="464" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C464" s="7"/>
       <c r="F464" s="4"/>
       <c r="G464" s="4"/>
@@ -6505,7 +6538,7 @@
       <c r="J464" s="7"/>
       <c r="K464" s="7"/>
     </row>
-    <row r="465">
+    <row r="465" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C465" s="7"/>
       <c r="F465" s="4"/>
       <c r="G465" s="4"/>
@@ -6514,7 +6547,7 @@
       <c r="J465" s="7"/>
       <c r="K465" s="7"/>
     </row>
-    <row r="466">
+    <row r="466" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C466" s="7"/>
       <c r="F466" s="4"/>
       <c r="G466" s="4"/>
@@ -6523,7 +6556,7 @@
       <c r="J466" s="7"/>
       <c r="K466" s="7"/>
     </row>
-    <row r="467">
+    <row r="467" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C467" s="7"/>
       <c r="F467" s="4"/>
       <c r="G467" s="4"/>
@@ -6532,7 +6565,7 @@
       <c r="J467" s="7"/>
       <c r="K467" s="7"/>
     </row>
-    <row r="468">
+    <row r="468" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C468" s="7"/>
       <c r="F468" s="4"/>
       <c r="G468" s="4"/>
@@ -6541,7 +6574,7 @@
       <c r="J468" s="7"/>
       <c r="K468" s="7"/>
     </row>
-    <row r="469">
+    <row r="469" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C469" s="7"/>
       <c r="F469" s="4"/>
       <c r="G469" s="4"/>
@@ -6550,7 +6583,7 @@
       <c r="J469" s="7"/>
       <c r="K469" s="7"/>
     </row>
-    <row r="470">
+    <row r="470" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C470" s="7"/>
       <c r="F470" s="4"/>
       <c r="G470" s="4"/>
@@ -6559,7 +6592,7 @@
       <c r="J470" s="7"/>
       <c r="K470" s="7"/>
     </row>
-    <row r="471">
+    <row r="471" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C471" s="7"/>
       <c r="F471" s="4"/>
       <c r="G471" s="4"/>
@@ -6568,7 +6601,7 @@
       <c r="J471" s="7"/>
       <c r="K471" s="7"/>
     </row>
-    <row r="472">
+    <row r="472" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C472" s="7"/>
       <c r="F472" s="4"/>
       <c r="G472" s="4"/>
@@ -6577,7 +6610,7 @@
       <c r="J472" s="7"/>
       <c r="K472" s="7"/>
     </row>
-    <row r="473">
+    <row r="473" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C473" s="7"/>
       <c r="F473" s="4"/>
       <c r="G473" s="4"/>
@@ -6586,7 +6619,7 @@
       <c r="J473" s="7"/>
       <c r="K473" s="7"/>
     </row>
-    <row r="474">
+    <row r="474" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C474" s="7"/>
       <c r="F474" s="4"/>
       <c r="G474" s="4"/>
@@ -6595,7 +6628,7 @@
       <c r="J474" s="7"/>
       <c r="K474" s="7"/>
     </row>
-    <row r="475">
+    <row r="475" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C475" s="7"/>
       <c r="F475" s="4"/>
       <c r="G475" s="4"/>
@@ -6604,7 +6637,7 @@
       <c r="J475" s="7"/>
       <c r="K475" s="7"/>
     </row>
-    <row r="476">
+    <row r="476" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C476" s="7"/>
       <c r="F476" s="4"/>
       <c r="G476" s="4"/>
@@ -6613,7 +6646,7 @@
       <c r="J476" s="7"/>
       <c r="K476" s="7"/>
     </row>
-    <row r="477">
+    <row r="477" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C477" s="7"/>
       <c r="F477" s="4"/>
       <c r="G477" s="4"/>
@@ -6622,7 +6655,7 @@
       <c r="J477" s="7"/>
       <c r="K477" s="7"/>
     </row>
-    <row r="478">
+    <row r="478" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C478" s="7"/>
       <c r="F478" s="4"/>
       <c r="G478" s="4"/>
@@ -6631,7 +6664,7 @@
       <c r="J478" s="7"/>
       <c r="K478" s="7"/>
     </row>
-    <row r="479">
+    <row r="479" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C479" s="7"/>
       <c r="F479" s="4"/>
       <c r="G479" s="4"/>
@@ -6640,7 +6673,7 @@
       <c r="J479" s="7"/>
       <c r="K479" s="7"/>
     </row>
-    <row r="480">
+    <row r="480" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C480" s="7"/>
       <c r="F480" s="4"/>
       <c r="G480" s="4"/>
@@ -6649,7 +6682,7 @@
       <c r="J480" s="7"/>
       <c r="K480" s="7"/>
     </row>
-    <row r="481">
+    <row r="481" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C481" s="7"/>
       <c r="F481" s="4"/>
       <c r="G481" s="4"/>
@@ -6658,7 +6691,7 @@
       <c r="J481" s="7"/>
       <c r="K481" s="7"/>
     </row>
-    <row r="482">
+    <row r="482" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C482" s="7"/>
       <c r="F482" s="4"/>
       <c r="G482" s="4"/>
@@ -6667,7 +6700,7 @@
       <c r="J482" s="7"/>
       <c r="K482" s="7"/>
     </row>
-    <row r="483">
+    <row r="483" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C483" s="7"/>
       <c r="F483" s="4"/>
       <c r="G483" s="4"/>
@@ -6676,7 +6709,7 @@
       <c r="J483" s="7"/>
       <c r="K483" s="7"/>
     </row>
-    <row r="484">
+    <row r="484" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C484" s="7"/>
       <c r="F484" s="4"/>
       <c r="G484" s="4"/>
@@ -6685,7 +6718,7 @@
       <c r="J484" s="7"/>
       <c r="K484" s="7"/>
     </row>
-    <row r="485">
+    <row r="485" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C485" s="7"/>
       <c r="F485" s="4"/>
       <c r="G485" s="4"/>
@@ -6694,7 +6727,7 @@
       <c r="J485" s="7"/>
       <c r="K485" s="7"/>
     </row>
-    <row r="486">
+    <row r="486" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C486" s="7"/>
       <c r="F486" s="4"/>
       <c r="G486" s="4"/>
@@ -6703,7 +6736,7 @@
       <c r="J486" s="7"/>
       <c r="K486" s="7"/>
     </row>
-    <row r="487">
+    <row r="487" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C487" s="7"/>
       <c r="F487" s="4"/>
       <c r="G487" s="4"/>
@@ -6712,7 +6745,7 @@
       <c r="J487" s="7"/>
       <c r="K487" s="7"/>
     </row>
-    <row r="488">
+    <row r="488" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C488" s="7"/>
       <c r="F488" s="4"/>
       <c r="G488" s="4"/>
@@ -6721,7 +6754,7 @@
       <c r="J488" s="7"/>
       <c r="K488" s="7"/>
     </row>
-    <row r="489">
+    <row r="489" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C489" s="7"/>
       <c r="F489" s="4"/>
       <c r="G489" s="4"/>
@@ -6730,7 +6763,7 @@
       <c r="J489" s="7"/>
       <c r="K489" s="7"/>
     </row>
-    <row r="490">
+    <row r="490" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C490" s="7"/>
       <c r="F490" s="4"/>
       <c r="G490" s="4"/>
@@ -6739,7 +6772,7 @@
       <c r="J490" s="7"/>
       <c r="K490" s="7"/>
     </row>
-    <row r="491">
+    <row r="491" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C491" s="7"/>
       <c r="F491" s="4"/>
       <c r="G491" s="4"/>
@@ -6748,7 +6781,7 @@
       <c r="J491" s="7"/>
       <c r="K491" s="7"/>
     </row>
-    <row r="492">
+    <row r="492" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C492" s="7"/>
       <c r="F492" s="4"/>
       <c r="G492" s="4"/>
@@ -6757,7 +6790,7 @@
       <c r="J492" s="7"/>
       <c r="K492" s="7"/>
     </row>
-    <row r="493">
+    <row r="493" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C493" s="7"/>
       <c r="F493" s="4"/>
       <c r="G493" s="4"/>
@@ -6766,7 +6799,7 @@
       <c r="J493" s="7"/>
       <c r="K493" s="7"/>
     </row>
-    <row r="494">
+    <row r="494" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C494" s="7"/>
       <c r="F494" s="4"/>
       <c r="G494" s="4"/>
@@ -6775,7 +6808,7 @@
       <c r="J494" s="7"/>
       <c r="K494" s="7"/>
     </row>
-    <row r="495">
+    <row r="495" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C495" s="7"/>
       <c r="F495" s="4"/>
       <c r="G495" s="4"/>
@@ -6784,7 +6817,7 @@
       <c r="J495" s="7"/>
       <c r="K495" s="7"/>
     </row>
-    <row r="496">
+    <row r="496" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C496" s="7"/>
       <c r="F496" s="4"/>
       <c r="G496" s="4"/>
@@ -6793,7 +6826,7 @@
       <c r="J496" s="7"/>
       <c r="K496" s="7"/>
     </row>
-    <row r="497">
+    <row r="497" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C497" s="7"/>
       <c r="F497" s="4"/>
       <c r="G497" s="4"/>
@@ -6802,7 +6835,7 @@
       <c r="J497" s="7"/>
       <c r="K497" s="7"/>
     </row>
-    <row r="498">
+    <row r="498" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C498" s="7"/>
       <c r="F498" s="4"/>
       <c r="G498" s="4"/>
@@ -6811,7 +6844,7 @@
       <c r="J498" s="7"/>
       <c r="K498" s="7"/>
     </row>
-    <row r="499">
+    <row r="499" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C499" s="7"/>
       <c r="F499" s="4"/>
       <c r="G499" s="4"/>
@@ -6820,7 +6853,7 @@
       <c r="J499" s="7"/>
       <c r="K499" s="7"/>
     </row>
-    <row r="500">
+    <row r="500" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C500" s="7"/>
       <c r="F500" s="4"/>
       <c r="G500" s="4"/>
@@ -6829,7 +6862,7 @@
       <c r="J500" s="7"/>
       <c r="K500" s="7"/>
     </row>
-    <row r="501">
+    <row r="501" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C501" s="7"/>
       <c r="F501" s="4"/>
       <c r="G501" s="4"/>
@@ -6838,7 +6871,7 @@
       <c r="J501" s="7"/>
       <c r="K501" s="7"/>
     </row>
-    <row r="502">
+    <row r="502" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C502" s="7"/>
       <c r="F502" s="4"/>
       <c r="G502" s="4"/>
@@ -6847,7 +6880,7 @@
       <c r="J502" s="7"/>
       <c r="K502" s="7"/>
     </row>
-    <row r="503">
+    <row r="503" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C503" s="7"/>
       <c r="F503" s="4"/>
       <c r="G503" s="4"/>
@@ -6856,7 +6889,7 @@
       <c r="J503" s="7"/>
       <c r="K503" s="7"/>
     </row>
-    <row r="504">
+    <row r="504" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C504" s="7"/>
       <c r="F504" s="4"/>
       <c r="G504" s="4"/>
@@ -6865,7 +6898,7 @@
       <c r="J504" s="7"/>
       <c r="K504" s="7"/>
     </row>
-    <row r="505">
+    <row r="505" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C505" s="7"/>
       <c r="F505" s="4"/>
       <c r="G505" s="4"/>
@@ -6874,7 +6907,7 @@
       <c r="J505" s="7"/>
       <c r="K505" s="7"/>
     </row>
-    <row r="506">
+    <row r="506" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C506" s="7"/>
       <c r="F506" s="4"/>
       <c r="G506" s="4"/>
@@ -6883,7 +6916,7 @@
       <c r="J506" s="7"/>
       <c r="K506" s="7"/>
     </row>
-    <row r="507">
+    <row r="507" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C507" s="7"/>
       <c r="F507" s="4"/>
       <c r="G507" s="4"/>
@@ -6892,7 +6925,7 @@
       <c r="J507" s="7"/>
       <c r="K507" s="7"/>
     </row>
-    <row r="508">
+    <row r="508" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C508" s="7"/>
       <c r="F508" s="4"/>
       <c r="G508" s="4"/>
@@ -6901,7 +6934,7 @@
       <c r="J508" s="7"/>
       <c r="K508" s="7"/>
     </row>
-    <row r="509">
+    <row r="509" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C509" s="7"/>
       <c r="F509" s="4"/>
       <c r="G509" s="4"/>
@@ -6910,7 +6943,7 @@
       <c r="J509" s="7"/>
       <c r="K509" s="7"/>
     </row>
-    <row r="510">
+    <row r="510" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C510" s="7"/>
       <c r="F510" s="4"/>
       <c r="G510" s="4"/>
@@ -6919,7 +6952,7 @@
       <c r="J510" s="7"/>
       <c r="K510" s="7"/>
     </row>
-    <row r="511">
+    <row r="511" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C511" s="7"/>
       <c r="F511" s="4"/>
       <c r="G511" s="4"/>
@@ -6928,7 +6961,7 @@
       <c r="J511" s="7"/>
       <c r="K511" s="7"/>
     </row>
-    <row r="512">
+    <row r="512" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C512" s="7"/>
       <c r="F512" s="4"/>
       <c r="G512" s="4"/>
@@ -6937,7 +6970,7 @@
       <c r="J512" s="7"/>
       <c r="K512" s="7"/>
     </row>
-    <row r="513">
+    <row r="513" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C513" s="7"/>
       <c r="F513" s="4"/>
       <c r="G513" s="4"/>
@@ -6946,7 +6979,7 @@
       <c r="J513" s="7"/>
       <c r="K513" s="7"/>
     </row>
-    <row r="514">
+    <row r="514" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C514" s="7"/>
       <c r="F514" s="4"/>
       <c r="G514" s="4"/>
@@ -6955,7 +6988,7 @@
       <c r="J514" s="7"/>
       <c r="K514" s="7"/>
     </row>
-    <row r="515">
+    <row r="515" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C515" s="7"/>
       <c r="F515" s="4"/>
       <c r="G515" s="4"/>
@@ -6964,7 +6997,7 @@
       <c r="J515" s="7"/>
       <c r="K515" s="7"/>
     </row>
-    <row r="516">
+    <row r="516" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C516" s="7"/>
       <c r="F516" s="4"/>
       <c r="G516" s="4"/>
@@ -6973,7 +7006,7 @@
       <c r="J516" s="7"/>
       <c r="K516" s="7"/>
     </row>
-    <row r="517">
+    <row r="517" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C517" s="7"/>
       <c r="F517" s="4"/>
       <c r="G517" s="4"/>
@@ -6982,7 +7015,7 @@
       <c r="J517" s="7"/>
       <c r="K517" s="7"/>
     </row>
-    <row r="518">
+    <row r="518" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C518" s="7"/>
       <c r="F518" s="4"/>
       <c r="G518" s="4"/>
@@ -6991,7 +7024,7 @@
       <c r="J518" s="7"/>
       <c r="K518" s="7"/>
     </row>
-    <row r="519">
+    <row r="519" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C519" s="7"/>
       <c r="F519" s="4"/>
       <c r="G519" s="4"/>
@@ -7000,7 +7033,7 @@
       <c r="J519" s="7"/>
       <c r="K519" s="7"/>
     </row>
-    <row r="520">
+    <row r="520" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C520" s="7"/>
       <c r="F520" s="4"/>
       <c r="G520" s="4"/>
@@ -7009,7 +7042,7 @@
       <c r="J520" s="7"/>
       <c r="K520" s="7"/>
     </row>
-    <row r="521">
+    <row r="521" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C521" s="7"/>
       <c r="F521" s="4"/>
       <c r="G521" s="4"/>
@@ -7018,7 +7051,7 @@
       <c r="J521" s="7"/>
       <c r="K521" s="7"/>
     </row>
-    <row r="522">
+    <row r="522" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C522" s="7"/>
       <c r="F522" s="4"/>
       <c r="G522" s="4"/>
@@ -7027,7 +7060,7 @@
       <c r="J522" s="7"/>
       <c r="K522" s="7"/>
     </row>
-    <row r="523">
+    <row r="523" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C523" s="7"/>
       <c r="F523" s="4"/>
       <c r="G523" s="4"/>
@@ -7036,7 +7069,7 @@
       <c r="J523" s="7"/>
       <c r="K523" s="7"/>
     </row>
-    <row r="524">
+    <row r="524" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C524" s="7"/>
       <c r="F524" s="4"/>
       <c r="G524" s="4"/>
@@ -7045,7 +7078,7 @@
       <c r="J524" s="7"/>
       <c r="K524" s="7"/>
     </row>
-    <row r="525">
+    <row r="525" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C525" s="7"/>
       <c r="F525" s="4"/>
       <c r="G525" s="4"/>
@@ -7054,7 +7087,7 @@
       <c r="J525" s="7"/>
       <c r="K525" s="7"/>
     </row>
-    <row r="526">
+    <row r="526" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C526" s="7"/>
       <c r="F526" s="4"/>
       <c r="G526" s="4"/>
@@ -7063,7 +7096,7 @@
       <c r="J526" s="7"/>
       <c r="K526" s="7"/>
     </row>
-    <row r="527">
+    <row r="527" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C527" s="7"/>
       <c r="F527" s="4"/>
       <c r="G527" s="4"/>
@@ -7072,7 +7105,7 @@
       <c r="J527" s="7"/>
       <c r="K527" s="7"/>
     </row>
-    <row r="528">
+    <row r="528" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C528" s="7"/>
       <c r="F528" s="4"/>
       <c r="G528" s="4"/>
@@ -7081,7 +7114,7 @@
       <c r="J528" s="7"/>
       <c r="K528" s="7"/>
     </row>
-    <row r="529">
+    <row r="529" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C529" s="7"/>
       <c r="F529" s="4"/>
       <c r="G529" s="4"/>
@@ -7090,7 +7123,7 @@
       <c r="J529" s="7"/>
       <c r="K529" s="7"/>
     </row>
-    <row r="530">
+    <row r="530" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C530" s="7"/>
       <c r="F530" s="4"/>
       <c r="G530" s="4"/>
@@ -7099,7 +7132,7 @@
       <c r="J530" s="7"/>
       <c r="K530" s="7"/>
     </row>
-    <row r="531">
+    <row r="531" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C531" s="7"/>
       <c r="F531" s="4"/>
       <c r="G531" s="4"/>
@@ -7108,7 +7141,7 @@
       <c r="J531" s="7"/>
       <c r="K531" s="7"/>
     </row>
-    <row r="532">
+    <row r="532" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C532" s="7"/>
       <c r="F532" s="4"/>
       <c r="G532" s="4"/>
@@ -7117,7 +7150,7 @@
       <c r="J532" s="7"/>
       <c r="K532" s="7"/>
     </row>
-    <row r="533">
+    <row r="533" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C533" s="7"/>
       <c r="F533" s="4"/>
       <c r="G533" s="4"/>
@@ -7126,7 +7159,7 @@
       <c r="J533" s="7"/>
       <c r="K533" s="7"/>
     </row>
-    <row r="534">
+    <row r="534" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C534" s="7"/>
       <c r="F534" s="4"/>
       <c r="G534" s="4"/>
@@ -7135,7 +7168,7 @@
       <c r="J534" s="7"/>
       <c r="K534" s="7"/>
     </row>
-    <row r="535">
+    <row r="535" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C535" s="7"/>
       <c r="F535" s="4"/>
       <c r="G535" s="4"/>
@@ -7144,7 +7177,7 @@
       <c r="J535" s="7"/>
       <c r="K535" s="7"/>
     </row>
-    <row r="536">
+    <row r="536" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C536" s="7"/>
       <c r="F536" s="4"/>
       <c r="G536" s="4"/>
@@ -7153,7 +7186,7 @@
       <c r="J536" s="7"/>
       <c r="K536" s="7"/>
     </row>
-    <row r="537">
+    <row r="537" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C537" s="7"/>
       <c r="F537" s="4"/>
       <c r="G537" s="4"/>
@@ -7162,7 +7195,7 @@
       <c r="J537" s="7"/>
       <c r="K537" s="7"/>
     </row>
-    <row r="538">
+    <row r="538" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C538" s="7"/>
       <c r="F538" s="4"/>
       <c r="G538" s="4"/>
@@ -7171,7 +7204,7 @@
       <c r="J538" s="7"/>
       <c r="K538" s="7"/>
     </row>
-    <row r="539">
+    <row r="539" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C539" s="7"/>
       <c r="F539" s="4"/>
       <c r="G539" s="4"/>
@@ -7180,7 +7213,7 @@
       <c r="J539" s="7"/>
       <c r="K539" s="7"/>
     </row>
-    <row r="540">
+    <row r="540" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C540" s="7"/>
       <c r="F540" s="4"/>
       <c r="G540" s="4"/>
@@ -7189,7 +7222,7 @@
       <c r="J540" s="7"/>
       <c r="K540" s="7"/>
     </row>
-    <row r="541">
+    <row r="541" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C541" s="7"/>
       <c r="F541" s="4"/>
       <c r="G541" s="4"/>
@@ -7198,7 +7231,7 @@
       <c r="J541" s="7"/>
       <c r="K541" s="7"/>
     </row>
-    <row r="542">
+    <row r="542" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C542" s="7"/>
       <c r="F542" s="4"/>
       <c r="G542" s="4"/>
@@ -7207,7 +7240,7 @@
       <c r="J542" s="7"/>
       <c r="K542" s="7"/>
     </row>
-    <row r="543">
+    <row r="543" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C543" s="7"/>
       <c r="F543" s="4"/>
       <c r="G543" s="4"/>
@@ -7216,7 +7249,7 @@
       <c r="J543" s="7"/>
       <c r="K543" s="7"/>
     </row>
-    <row r="544">
+    <row r="544" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C544" s="7"/>
       <c r="F544" s="4"/>
       <c r="G544" s="4"/>
@@ -7225,7 +7258,7 @@
       <c r="J544" s="7"/>
       <c r="K544" s="7"/>
     </row>
-    <row r="545">
+    <row r="545" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C545" s="7"/>
       <c r="F545" s="4"/>
       <c r="G545" s="4"/>
@@ -7234,7 +7267,7 @@
       <c r="J545" s="7"/>
       <c r="K545" s="7"/>
     </row>
-    <row r="546">
+    <row r="546" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C546" s="7"/>
       <c r="F546" s="4"/>
       <c r="G546" s="4"/>
@@ -7243,7 +7276,7 @@
       <c r="J546" s="7"/>
       <c r="K546" s="7"/>
     </row>
-    <row r="547">
+    <row r="547" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C547" s="7"/>
       <c r="F547" s="4"/>
       <c r="G547" s="4"/>
@@ -7252,7 +7285,7 @@
       <c r="J547" s="7"/>
       <c r="K547" s="7"/>
     </row>
-    <row r="548">
+    <row r="548" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C548" s="7"/>
       <c r="F548" s="4"/>
       <c r="G548" s="4"/>
@@ -7261,7 +7294,7 @@
       <c r="J548" s="7"/>
       <c r="K548" s="7"/>
     </row>
-    <row r="549">
+    <row r="549" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C549" s="7"/>
       <c r="F549" s="4"/>
       <c r="G549" s="4"/>
@@ -7270,7 +7303,7 @@
       <c r="J549" s="7"/>
       <c r="K549" s="7"/>
     </row>
-    <row r="550">
+    <row r="550" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C550" s="7"/>
       <c r="F550" s="4"/>
       <c r="G550" s="4"/>
@@ -7279,7 +7312,7 @@
       <c r="J550" s="7"/>
       <c r="K550" s="7"/>
     </row>
-    <row r="551">
+    <row r="551" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C551" s="7"/>
       <c r="F551" s="4"/>
       <c r="G551" s="4"/>
@@ -7288,7 +7321,7 @@
       <c r="J551" s="7"/>
       <c r="K551" s="7"/>
     </row>
-    <row r="552">
+    <row r="552" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C552" s="7"/>
       <c r="F552" s="4"/>
       <c r="G552" s="4"/>
@@ -7297,7 +7330,7 @@
       <c r="J552" s="7"/>
       <c r="K552" s="7"/>
     </row>
-    <row r="553">
+    <row r="553" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C553" s="7"/>
       <c r="F553" s="4"/>
       <c r="G553" s="4"/>
@@ -7306,7 +7339,7 @@
       <c r="J553" s="7"/>
       <c r="K553" s="7"/>
     </row>
-    <row r="554">
+    <row r="554" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C554" s="7"/>
       <c r="F554" s="4"/>
       <c r="G554" s="4"/>
@@ -7315,7 +7348,7 @@
       <c r="J554" s="7"/>
       <c r="K554" s="7"/>
     </row>
-    <row r="555">
+    <row r="555" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C555" s="7"/>
       <c r="F555" s="4"/>
       <c r="G555" s="4"/>
@@ -7324,7 +7357,7 @@
       <c r="J555" s="7"/>
       <c r="K555" s="7"/>
     </row>
-    <row r="556">
+    <row r="556" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C556" s="7"/>
       <c r="F556" s="4"/>
       <c r="G556" s="4"/>
@@ -7333,7 +7366,7 @@
       <c r="J556" s="7"/>
       <c r="K556" s="7"/>
     </row>
-    <row r="557">
+    <row r="557" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C557" s="7"/>
       <c r="F557" s="4"/>
       <c r="G557" s="4"/>
@@ -7342,7 +7375,7 @@
       <c r="J557" s="7"/>
       <c r="K557" s="7"/>
     </row>
-    <row r="558">
+    <row r="558" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C558" s="7"/>
       <c r="F558" s="4"/>
       <c r="G558" s="4"/>
@@ -7351,7 +7384,7 @@
       <c r="J558" s="7"/>
       <c r="K558" s="7"/>
     </row>
-    <row r="559">
+    <row r="559" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C559" s="7"/>
       <c r="F559" s="4"/>
       <c r="G559" s="4"/>
@@ -7360,7 +7393,7 @@
       <c r="J559" s="7"/>
       <c r="K559" s="7"/>
     </row>
-    <row r="560">
+    <row r="560" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C560" s="7"/>
       <c r="F560" s="4"/>
       <c r="G560" s="4"/>
@@ -7369,7 +7402,7 @@
       <c r="J560" s="7"/>
       <c r="K560" s="7"/>
     </row>
-    <row r="561">
+    <row r="561" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C561" s="7"/>
       <c r="F561" s="4"/>
       <c r="G561" s="4"/>
@@ -7378,7 +7411,7 @@
       <c r="J561" s="7"/>
       <c r="K561" s="7"/>
     </row>
-    <row r="562">
+    <row r="562" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C562" s="7"/>
       <c r="F562" s="4"/>
       <c r="G562" s="4"/>
@@ -7387,7 +7420,7 @@
       <c r="J562" s="7"/>
       <c r="K562" s="7"/>
     </row>
-    <row r="563">
+    <row r="563" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C563" s="7"/>
       <c r="F563" s="4"/>
       <c r="G563" s="4"/>
@@ -7396,7 +7429,7 @@
       <c r="J563" s="7"/>
       <c r="K563" s="7"/>
     </row>
-    <row r="564">
+    <row r="564" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C564" s="7"/>
       <c r="F564" s="4"/>
       <c r="G564" s="4"/>
@@ -7405,7 +7438,7 @@
       <c r="J564" s="7"/>
       <c r="K564" s="7"/>
     </row>
-    <row r="565">
+    <row r="565" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C565" s="7"/>
       <c r="F565" s="4"/>
       <c r="G565" s="4"/>
@@ -7414,7 +7447,7 @@
       <c r="J565" s="7"/>
       <c r="K565" s="7"/>
     </row>
-    <row r="566">
+    <row r="566" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C566" s="7"/>
       <c r="F566" s="4"/>
       <c r="G566" s="4"/>
@@ -7423,7 +7456,7 @@
       <c r="J566" s="7"/>
       <c r="K566" s="7"/>
     </row>
-    <row r="567">
+    <row r="567" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C567" s="7"/>
       <c r="F567" s="4"/>
       <c r="G567" s="4"/>
@@ -7432,7 +7465,7 @@
       <c r="J567" s="7"/>
       <c r="K567" s="7"/>
     </row>
-    <row r="568">
+    <row r="568" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C568" s="7"/>
       <c r="F568" s="4"/>
       <c r="G568" s="4"/>
@@ -7441,7 +7474,7 @@
       <c r="J568" s="7"/>
       <c r="K568" s="7"/>
     </row>
-    <row r="569">
+    <row r="569" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C569" s="7"/>
       <c r="F569" s="4"/>
       <c r="G569" s="4"/>
@@ -7450,7 +7483,7 @@
       <c r="J569" s="7"/>
       <c r="K569" s="7"/>
     </row>
-    <row r="570">
+    <row r="570" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C570" s="7"/>
       <c r="F570" s="4"/>
       <c r="G570" s="4"/>
@@ -7459,7 +7492,7 @@
       <c r="J570" s="7"/>
       <c r="K570" s="7"/>
     </row>
-    <row r="571">
+    <row r="571" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C571" s="7"/>
       <c r="F571" s="4"/>
       <c r="G571" s="4"/>
@@ -7468,7 +7501,7 @@
       <c r="J571" s="7"/>
       <c r="K571" s="7"/>
     </row>
-    <row r="572">
+    <row r="572" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C572" s="7"/>
       <c r="F572" s="4"/>
       <c r="G572" s="4"/>
@@ -7477,7 +7510,7 @@
       <c r="J572" s="7"/>
       <c r="K572" s="7"/>
     </row>
-    <row r="573">
+    <row r="573" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C573" s="7"/>
       <c r="F573" s="4"/>
       <c r="G573" s="4"/>
@@ -7486,7 +7519,7 @@
       <c r="J573" s="7"/>
       <c r="K573" s="7"/>
     </row>
-    <row r="574">
+    <row r="574" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C574" s="7"/>
       <c r="F574" s="4"/>
       <c r="G574" s="4"/>
@@ -7495,7 +7528,7 @@
       <c r="J574" s="7"/>
       <c r="K574" s="7"/>
     </row>
-    <row r="575">
+    <row r="575" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C575" s="7"/>
       <c r="F575" s="4"/>
       <c r="G575" s="4"/>
@@ -7504,7 +7537,7 @@
       <c r="J575" s="7"/>
       <c r="K575" s="7"/>
     </row>
-    <row r="576">
+    <row r="576" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C576" s="7"/>
       <c r="F576" s="4"/>
       <c r="G576" s="4"/>
@@ -7513,7 +7546,7 @@
       <c r="J576" s="7"/>
       <c r="K576" s="7"/>
     </row>
-    <row r="577">
+    <row r="577" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C577" s="7"/>
       <c r="F577" s="4"/>
       <c r="G577" s="4"/>
@@ -7522,7 +7555,7 @@
       <c r="J577" s="7"/>
       <c r="K577" s="7"/>
     </row>
-    <row r="578">
+    <row r="578" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C578" s="7"/>
       <c r="F578" s="4"/>
       <c r="G578" s="4"/>
@@ -7531,7 +7564,7 @@
       <c r="J578" s="7"/>
       <c r="K578" s="7"/>
     </row>
-    <row r="579">
+    <row r="579" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C579" s="7"/>
       <c r="F579" s="4"/>
       <c r="G579" s="4"/>
@@ -7540,7 +7573,7 @@
       <c r="J579" s="7"/>
       <c r="K579" s="7"/>
     </row>
-    <row r="580">
+    <row r="580" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C580" s="7"/>
       <c r="F580" s="4"/>
       <c r="G580" s="4"/>
@@ -7549,7 +7582,7 @@
       <c r="J580" s="7"/>
       <c r="K580" s="7"/>
     </row>
-    <row r="581">
+    <row r="581" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C581" s="7"/>
       <c r="F581" s="4"/>
       <c r="G581" s="4"/>
@@ -7558,7 +7591,7 @@
       <c r="J581" s="7"/>
       <c r="K581" s="7"/>
     </row>
-    <row r="582">
+    <row r="582" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C582" s="7"/>
       <c r="F582" s="4"/>
       <c r="G582" s="4"/>
@@ -7567,7 +7600,7 @@
       <c r="J582" s="7"/>
       <c r="K582" s="7"/>
     </row>
-    <row r="583">
+    <row r="583" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C583" s="7"/>
       <c r="F583" s="4"/>
       <c r="G583" s="4"/>
@@ -7576,7 +7609,7 @@
       <c r="J583" s="7"/>
       <c r="K583" s="7"/>
     </row>
-    <row r="584">
+    <row r="584" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C584" s="7"/>
       <c r="F584" s="4"/>
       <c r="G584" s="4"/>
@@ -7585,7 +7618,7 @@
       <c r="J584" s="7"/>
       <c r="K584" s="7"/>
     </row>
-    <row r="585">
+    <row r="585" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C585" s="7"/>
       <c r="F585" s="4"/>
       <c r="G585" s="4"/>
@@ -7594,7 +7627,7 @@
       <c r="J585" s="7"/>
       <c r="K585" s="7"/>
     </row>
-    <row r="586">
+    <row r="586" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C586" s="7"/>
       <c r="F586" s="4"/>
       <c r="G586" s="4"/>
@@ -7603,7 +7636,7 @@
       <c r="J586" s="7"/>
       <c r="K586" s="7"/>
     </row>
-    <row r="587">
+    <row r="587" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C587" s="7"/>
       <c r="F587" s="4"/>
       <c r="G587" s="4"/>
@@ -7612,7 +7645,7 @@
       <c r="J587" s="7"/>
       <c r="K587" s="7"/>
     </row>
-    <row r="588">
+    <row r="588" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C588" s="7"/>
       <c r="F588" s="4"/>
       <c r="G588" s="4"/>
@@ -7621,7 +7654,7 @@
       <c r="J588" s="7"/>
       <c r="K588" s="7"/>
     </row>
-    <row r="589">
+    <row r="589" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C589" s="7"/>
       <c r="F589" s="4"/>
       <c r="G589" s="4"/>
@@ -7630,7 +7663,7 @@
       <c r="J589" s="7"/>
       <c r="K589" s="7"/>
     </row>
-    <row r="590">
+    <row r="590" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C590" s="7"/>
       <c r="F590" s="4"/>
       <c r="G590" s="4"/>
@@ -7639,7 +7672,7 @@
       <c r="J590" s="7"/>
       <c r="K590" s="7"/>
     </row>
-    <row r="591">
+    <row r="591" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C591" s="7"/>
       <c r="F591" s="4"/>
       <c r="G591" s="4"/>
@@ -7648,7 +7681,7 @@
       <c r="J591" s="7"/>
       <c r="K591" s="7"/>
     </row>
-    <row r="592">
+    <row r="592" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C592" s="7"/>
       <c r="F592" s="4"/>
       <c r="G592" s="4"/>
@@ -7657,7 +7690,7 @@
       <c r="J592" s="7"/>
       <c r="K592" s="7"/>
     </row>
-    <row r="593">
+    <row r="593" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C593" s="7"/>
       <c r="F593" s="4"/>
       <c r="G593" s="4"/>
@@ -7666,7 +7699,7 @@
       <c r="J593" s="7"/>
       <c r="K593" s="7"/>
     </row>
-    <row r="594">
+    <row r="594" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C594" s="7"/>
       <c r="F594" s="4"/>
       <c r="G594" s="4"/>
@@ -7675,7 +7708,7 @@
       <c r="J594" s="7"/>
       <c r="K594" s="7"/>
     </row>
-    <row r="595">
+    <row r="595" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C595" s="7"/>
       <c r="F595" s="4"/>
       <c r="G595" s="4"/>
@@ -7684,7 +7717,7 @@
       <c r="J595" s="7"/>
       <c r="K595" s="7"/>
     </row>
-    <row r="596">
+    <row r="596" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C596" s="7"/>
       <c r="F596" s="4"/>
       <c r="G596" s="4"/>
@@ -7693,7 +7726,7 @@
       <c r="J596" s="7"/>
       <c r="K596" s="7"/>
     </row>
-    <row r="597">
+    <row r="597" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C597" s="7"/>
       <c r="F597" s="4"/>
       <c r="G597" s="4"/>
@@ -7702,7 +7735,7 @@
       <c r="J597" s="7"/>
       <c r="K597" s="7"/>
     </row>
-    <row r="598">
+    <row r="598" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C598" s="7"/>
       <c r="F598" s="4"/>
       <c r="G598" s="4"/>
@@ -7711,7 +7744,7 @@
       <c r="J598" s="7"/>
       <c r="K598" s="7"/>
     </row>
-    <row r="599">
+    <row r="599" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C599" s="7"/>
       <c r="F599" s="4"/>
       <c r="G599" s="4"/>
@@ -7720,7 +7753,7 @@
       <c r="J599" s="7"/>
       <c r="K599" s="7"/>
     </row>
-    <row r="600">
+    <row r="600" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C600" s="7"/>
       <c r="F600" s="4"/>
       <c r="G600" s="4"/>
@@ -7729,7 +7762,7 @@
       <c r="J600" s="7"/>
       <c r="K600" s="7"/>
     </row>
-    <row r="601">
+    <row r="601" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C601" s="7"/>
       <c r="F601" s="4"/>
       <c r="G601" s="4"/>
@@ -7738,7 +7771,7 @@
       <c r="J601" s="7"/>
       <c r="K601" s="7"/>
     </row>
-    <row r="602">
+    <row r="602" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C602" s="7"/>
       <c r="F602" s="4"/>
       <c r="G602" s="4"/>
@@ -7747,7 +7780,7 @@
       <c r="J602" s="7"/>
       <c r="K602" s="7"/>
     </row>
-    <row r="603">
+    <row r="603" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C603" s="7"/>
       <c r="F603" s="4"/>
       <c r="G603" s="4"/>
@@ -7756,7 +7789,7 @@
       <c r="J603" s="7"/>
       <c r="K603" s="7"/>
     </row>
-    <row r="604">
+    <row r="604" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C604" s="7"/>
       <c r="F604" s="4"/>
       <c r="G604" s="4"/>
@@ -7765,7 +7798,7 @@
       <c r="J604" s="7"/>
       <c r="K604" s="7"/>
     </row>
-    <row r="605">
+    <row r="605" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C605" s="7"/>
       <c r="F605" s="4"/>
       <c r="G605" s="4"/>
@@ -7774,7 +7807,7 @@
       <c r="J605" s="7"/>
       <c r="K605" s="7"/>
     </row>
-    <row r="606">
+    <row r="606" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C606" s="7"/>
       <c r="F606" s="4"/>
       <c r="G606" s="4"/>
@@ -7783,7 +7816,7 @@
       <c r="J606" s="7"/>
       <c r="K606" s="7"/>
     </row>
-    <row r="607">
+    <row r="607" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C607" s="7"/>
       <c r="F607" s="4"/>
       <c r="G607" s="4"/>
@@ -7792,7 +7825,7 @@
       <c r="J607" s="7"/>
       <c r="K607" s="7"/>
     </row>
-    <row r="608">
+    <row r="608" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C608" s="7"/>
       <c r="F608" s="4"/>
       <c r="G608" s="4"/>
@@ -7801,7 +7834,7 @@
       <c r="J608" s="7"/>
       <c r="K608" s="7"/>
     </row>
-    <row r="609">
+    <row r="609" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C609" s="7"/>
       <c r="F609" s="4"/>
       <c r="G609" s="4"/>
@@ -7810,7 +7843,7 @@
       <c r="J609" s="7"/>
       <c r="K609" s="7"/>
     </row>
-    <row r="610">
+    <row r="610" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C610" s="7"/>
       <c r="F610" s="4"/>
       <c r="G610" s="4"/>
@@ -7819,7 +7852,7 @@
       <c r="J610" s="7"/>
       <c r="K610" s="7"/>
     </row>
-    <row r="611">
+    <row r="611" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C611" s="7"/>
       <c r="F611" s="4"/>
       <c r="G611" s="4"/>
@@ -7828,7 +7861,7 @@
       <c r="J611" s="7"/>
       <c r="K611" s="7"/>
     </row>
-    <row r="612">
+    <row r="612" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C612" s="7"/>
       <c r="F612" s="4"/>
       <c r="G612" s="4"/>
@@ -7837,7 +7870,7 @@
       <c r="J612" s="7"/>
       <c r="K612" s="7"/>
     </row>
-    <row r="613">
+    <row r="613" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C613" s="7"/>
       <c r="F613" s="4"/>
       <c r="G613" s="4"/>
@@ -7846,7 +7879,7 @@
       <c r="J613" s="7"/>
       <c r="K613" s="7"/>
     </row>
-    <row r="614">
+    <row r="614" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C614" s="7"/>
       <c r="F614" s="4"/>
       <c r="G614" s="4"/>
@@ -7855,7 +7888,7 @@
       <c r="J614" s="7"/>
       <c r="K614" s="7"/>
     </row>
-    <row r="615">
+    <row r="615" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C615" s="7"/>
       <c r="F615" s="4"/>
       <c r="G615" s="4"/>
@@ -7864,7 +7897,7 @@
       <c r="J615" s="7"/>
       <c r="K615" s="7"/>
     </row>
-    <row r="616">
+    <row r="616" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C616" s="7"/>
       <c r="F616" s="4"/>
       <c r="G616" s="4"/>
@@ -7873,7 +7906,7 @@
       <c r="J616" s="7"/>
       <c r="K616" s="7"/>
     </row>
-    <row r="617">
+    <row r="617" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C617" s="7"/>
       <c r="F617" s="4"/>
       <c r="G617" s="4"/>
@@ -7882,7 +7915,7 @@
       <c r="J617" s="7"/>
       <c r="K617" s="7"/>
     </row>
-    <row r="618">
+    <row r="618" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C618" s="7"/>
       <c r="F618" s="4"/>
       <c r="G618" s="4"/>
@@ -7891,7 +7924,7 @@
       <c r="J618" s="7"/>
       <c r="K618" s="7"/>
     </row>
-    <row r="619">
+    <row r="619" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C619" s="7"/>
       <c r="F619" s="4"/>
       <c r="G619" s="4"/>
@@ -7900,7 +7933,7 @@
       <c r="J619" s="7"/>
       <c r="K619" s="7"/>
     </row>
-    <row r="620">
+    <row r="620" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C620" s="7"/>
       <c r="F620" s="4"/>
       <c r="G620" s="4"/>
@@ -7909,7 +7942,7 @@
       <c r="J620" s="7"/>
       <c r="K620" s="7"/>
     </row>
-    <row r="621">
+    <row r="621" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C621" s="7"/>
       <c r="F621" s="4"/>
       <c r="G621" s="4"/>
@@ -7918,7 +7951,7 @@
       <c r="J621" s="7"/>
       <c r="K621" s="7"/>
     </row>
-    <row r="622">
+    <row r="622" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C622" s="7"/>
       <c r="F622" s="4"/>
       <c r="G622" s="4"/>
@@ -7927,7 +7960,7 @@
       <c r="J622" s="7"/>
       <c r="K622" s="7"/>
     </row>
-    <row r="623">
+    <row r="623" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C623" s="7"/>
       <c r="F623" s="4"/>
       <c r="G623" s="4"/>
@@ -7936,7 +7969,7 @@
       <c r="J623" s="7"/>
       <c r="K623" s="7"/>
     </row>
-    <row r="624">
+    <row r="624" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C624" s="7"/>
       <c r="F624" s="4"/>
       <c r="G624" s="4"/>
@@ -7945,7 +7978,7 @@
       <c r="J624" s="7"/>
       <c r="K624" s="7"/>
     </row>
-    <row r="625">
+    <row r="625" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C625" s="7"/>
       <c r="F625" s="4"/>
       <c r="G625" s="4"/>
@@ -7954,7 +7987,7 @@
       <c r="J625" s="7"/>
       <c r="K625" s="7"/>
     </row>
-    <row r="626">
+    <row r="626" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C626" s="7"/>
       <c r="F626" s="4"/>
       <c r="G626" s="4"/>
@@ -7963,7 +7996,7 @@
       <c r="J626" s="7"/>
       <c r="K626" s="7"/>
     </row>
-    <row r="627">
+    <row r="627" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C627" s="7"/>
       <c r="F627" s="4"/>
       <c r="G627" s="4"/>
@@ -7972,7 +8005,7 @@
       <c r="J627" s="7"/>
       <c r="K627" s="7"/>
     </row>
-    <row r="628">
+    <row r="628" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C628" s="7"/>
       <c r="F628" s="4"/>
       <c r="G628" s="4"/>
@@ -7981,7 +8014,7 @@
       <c r="J628" s="7"/>
       <c r="K628" s="7"/>
     </row>
-    <row r="629">
+    <row r="629" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C629" s="7"/>
       <c r="F629" s="4"/>
       <c r="G629" s="4"/>
@@ -7990,7 +8023,7 @@
       <c r="J629" s="7"/>
       <c r="K629" s="7"/>
     </row>
-    <row r="630">
+    <row r="630" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C630" s="7"/>
       <c r="F630" s="4"/>
       <c r="G630" s="4"/>
@@ -7999,7 +8032,7 @@
       <c r="J630" s="7"/>
       <c r="K630" s="7"/>
     </row>
-    <row r="631">
+    <row r="631" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C631" s="7"/>
       <c r="F631" s="4"/>
       <c r="G631" s="4"/>
@@ -8008,7 +8041,7 @@
       <c r="J631" s="7"/>
       <c r="K631" s="7"/>
     </row>
-    <row r="632">
+    <row r="632" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C632" s="7"/>
       <c r="F632" s="4"/>
       <c r="G632" s="4"/>
@@ -8017,7 +8050,7 @@
       <c r="J632" s="7"/>
       <c r="K632" s="7"/>
     </row>
-    <row r="633">
+    <row r="633" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C633" s="7"/>
       <c r="F633" s="4"/>
       <c r="G633" s="4"/>
@@ -8026,7 +8059,7 @@
       <c r="J633" s="7"/>
       <c r="K633" s="7"/>
     </row>
-    <row r="634">
+    <row r="634" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C634" s="7"/>
       <c r="F634" s="4"/>
       <c r="G634" s="4"/>
@@ -8035,7 +8068,7 @@
       <c r="J634" s="7"/>
       <c r="K634" s="7"/>
     </row>
-    <row r="635">
+    <row r="635" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C635" s="7"/>
       <c r="F635" s="4"/>
       <c r="G635" s="4"/>
@@ -8044,7 +8077,7 @@
       <c r="J635" s="7"/>
       <c r="K635" s="7"/>
     </row>
-    <row r="636">
+    <row r="636" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C636" s="7"/>
       <c r="F636" s="4"/>
       <c r="G636" s="4"/>
@@ -8053,7 +8086,7 @@
       <c r="J636" s="7"/>
       <c r="K636" s="7"/>
     </row>
-    <row r="637">
+    <row r="637" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C637" s="7"/>
       <c r="F637" s="4"/>
       <c r="G637" s="4"/>
@@ -8062,7 +8095,7 @@
       <c r="J637" s="7"/>
       <c r="K637" s="7"/>
     </row>
-    <row r="638">
+    <row r="638" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C638" s="7"/>
       <c r="F638" s="4"/>
       <c r="G638" s="4"/>
@@ -8071,7 +8104,7 @@
       <c r="J638" s="7"/>
       <c r="K638" s="7"/>
     </row>
-    <row r="639">
+    <row r="639" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C639" s="7"/>
       <c r="F639" s="4"/>
       <c r="G639" s="4"/>
@@ -8080,7 +8113,7 @@
       <c r="J639" s="7"/>
       <c r="K639" s="7"/>
     </row>
-    <row r="640">
+    <row r="640" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C640" s="7"/>
       <c r="F640" s="4"/>
       <c r="G640" s="4"/>
@@ -8089,7 +8122,7 @@
       <c r="J640" s="7"/>
       <c r="K640" s="7"/>
     </row>
-    <row r="641">
+    <row r="641" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C641" s="7"/>
       <c r="F641" s="4"/>
       <c r="G641" s="4"/>
@@ -8098,7 +8131,7 @@
       <c r="J641" s="7"/>
       <c r="K641" s="7"/>
     </row>
-    <row r="642">
+    <row r="642" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C642" s="7"/>
       <c r="F642" s="4"/>
       <c r="G642" s="4"/>
@@ -8107,7 +8140,7 @@
       <c r="J642" s="7"/>
       <c r="K642" s="7"/>
     </row>
-    <row r="643">
+    <row r="643" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C643" s="7"/>
       <c r="F643" s="4"/>
       <c r="G643" s="4"/>
@@ -8116,7 +8149,7 @@
       <c r="J643" s="7"/>
       <c r="K643" s="7"/>
     </row>
-    <row r="644">
+    <row r="644" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C644" s="7"/>
       <c r="F644" s="4"/>
       <c r="G644" s="4"/>
@@ -8125,7 +8158,7 @@
       <c r="J644" s="7"/>
       <c r="K644" s="7"/>
     </row>
-    <row r="645">
+    <row r="645" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C645" s="7"/>
       <c r="F645" s="4"/>
       <c r="G645" s="4"/>
@@ -8134,7 +8167,7 @@
       <c r="J645" s="7"/>
       <c r="K645" s="7"/>
     </row>
-    <row r="646">
+    <row r="646" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C646" s="7"/>
       <c r="F646" s="4"/>
       <c r="G646" s="4"/>
@@ -8143,7 +8176,7 @@
       <c r="J646" s="7"/>
       <c r="K646" s="7"/>
     </row>
-    <row r="647">
+    <row r="647" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C647" s="7"/>
       <c r="F647" s="4"/>
       <c r="G647" s="4"/>
@@ -8152,7 +8185,7 @@
       <c r="J647" s="7"/>
       <c r="K647" s="7"/>
     </row>
-    <row r="648">
+    <row r="648" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C648" s="7"/>
       <c r="F648" s="4"/>
       <c r="G648" s="4"/>
@@ -8161,7 +8194,7 @@
       <c r="J648" s="7"/>
       <c r="K648" s="7"/>
     </row>
-    <row r="649">
+    <row r="649" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C649" s="7"/>
       <c r="F649" s="4"/>
       <c r="G649" s="4"/>
@@ -8170,7 +8203,7 @@
       <c r="J649" s="7"/>
       <c r="K649" s="7"/>
     </row>
-    <row r="650">
+    <row r="650" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C650" s="7"/>
       <c r="F650" s="4"/>
       <c r="G650" s="4"/>
@@ -8179,7 +8212,7 @@
       <c r="J650" s="7"/>
       <c r="K650" s="7"/>
     </row>
-    <row r="651">
+    <row r="651" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C651" s="7"/>
       <c r="F651" s="4"/>
       <c r="G651" s="4"/>
@@ -8188,7 +8221,7 @@
       <c r="J651" s="7"/>
       <c r="K651" s="7"/>
     </row>
-    <row r="652">
+    <row r="652" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C652" s="7"/>
       <c r="F652" s="4"/>
       <c r="G652" s="4"/>
@@ -8197,7 +8230,7 @@
       <c r="J652" s="7"/>
       <c r="K652" s="7"/>
     </row>
-    <row r="653">
+    <row r="653" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C653" s="7"/>
       <c r="F653" s="4"/>
       <c r="G653" s="4"/>
@@ -8206,7 +8239,7 @@
       <c r="J653" s="7"/>
       <c r="K653" s="7"/>
     </row>
-    <row r="654">
+    <row r="654" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C654" s="7"/>
       <c r="F654" s="4"/>
       <c r="G654" s="4"/>
@@ -8215,7 +8248,7 @@
       <c r="J654" s="7"/>
       <c r="K654" s="7"/>
     </row>
-    <row r="655">
+    <row r="655" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C655" s="7"/>
       <c r="F655" s="4"/>
       <c r="G655" s="4"/>
@@ -8224,7 +8257,7 @@
       <c r="J655" s="7"/>
       <c r="K655" s="7"/>
     </row>
-    <row r="656">
+    <row r="656" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C656" s="7"/>
       <c r="F656" s="4"/>
       <c r="G656" s="4"/>
@@ -8233,7 +8266,7 @@
       <c r="J656" s="7"/>
       <c r="K656" s="7"/>
     </row>
-    <row r="657">
+    <row r="657" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C657" s="7"/>
       <c r="F657" s="4"/>
       <c r="G657" s="4"/>
@@ -8242,7 +8275,7 @@
       <c r="J657" s="7"/>
       <c r="K657" s="7"/>
     </row>
-    <row r="658">
+    <row r="658" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C658" s="7"/>
       <c r="F658" s="4"/>
       <c r="G658" s="4"/>
@@ -8251,7 +8284,7 @@
       <c r="J658" s="7"/>
       <c r="K658" s="7"/>
     </row>
-    <row r="659">
+    <row r="659" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C659" s="7"/>
       <c r="F659" s="4"/>
       <c r="G659" s="4"/>
@@ -8260,7 +8293,7 @@
       <c r="J659" s="7"/>
       <c r="K659" s="7"/>
     </row>
-    <row r="660">
+    <row r="660" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C660" s="7"/>
       <c r="F660" s="4"/>
       <c r="G660" s="4"/>
@@ -8269,7 +8302,7 @@
       <c r="J660" s="7"/>
       <c r="K660" s="7"/>
     </row>
-    <row r="661">
+    <row r="661" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C661" s="7"/>
       <c r="F661" s="4"/>
       <c r="G661" s="4"/>
@@ -8278,7 +8311,7 @@
       <c r="J661" s="7"/>
       <c r="K661" s="7"/>
     </row>
-    <row r="662">
+    <row r="662" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C662" s="7"/>
       <c r="F662" s="4"/>
       <c r="G662" s="4"/>
@@ -8287,7 +8320,7 @@
       <c r="J662" s="7"/>
       <c r="K662" s="7"/>
     </row>
-    <row r="663">
+    <row r="663" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C663" s="7"/>
       <c r="F663" s="4"/>
       <c r="G663" s="4"/>
@@ -8296,7 +8329,7 @@
       <c r="J663" s="7"/>
       <c r="K663" s="7"/>
     </row>
-    <row r="664">
+    <row r="664" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C664" s="7"/>
       <c r="F664" s="4"/>
       <c r="G664" s="4"/>
@@ -8305,7 +8338,7 @@
       <c r="J664" s="7"/>
       <c r="K664" s="7"/>
     </row>
-    <row r="665">
+    <row r="665" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C665" s="7"/>
       <c r="F665" s="4"/>
       <c r="G665" s="4"/>
@@ -8314,7 +8347,7 @@
       <c r="J665" s="7"/>
       <c r="K665" s="7"/>
     </row>
-    <row r="666">
+    <row r="666" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C666" s="7"/>
       <c r="F666" s="4"/>
       <c r="G666" s="4"/>
@@ -8323,7 +8356,7 @@
       <c r="J666" s="7"/>
       <c r="K666" s="7"/>
     </row>
-    <row r="667">
+    <row r="667" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C667" s="7"/>
       <c r="F667" s="4"/>
       <c r="G667" s="4"/>
@@ -8332,7 +8365,7 @@
       <c r="J667" s="7"/>
       <c r="K667" s="7"/>
     </row>
-    <row r="668">
+    <row r="668" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C668" s="7"/>
       <c r="F668" s="4"/>
       <c r="G668" s="4"/>
@@ -8341,7 +8374,7 @@
       <c r="J668" s="7"/>
       <c r="K668" s="7"/>
     </row>
-    <row r="669">
+    <row r="669" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C669" s="7"/>
       <c r="F669" s="4"/>
       <c r="G669" s="4"/>
@@ -8350,7 +8383,7 @@
       <c r="J669" s="7"/>
       <c r="K669" s="7"/>
     </row>
-    <row r="670">
+    <row r="670" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C670" s="7"/>
       <c r="F670" s="4"/>
       <c r="G670" s="4"/>
@@ -8359,7 +8392,7 @@
       <c r="J670" s="7"/>
       <c r="K670" s="7"/>
     </row>
-    <row r="671">
+    <row r="671" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C671" s="7"/>
       <c r="F671" s="4"/>
       <c r="G671" s="4"/>
@@ -8368,7 +8401,7 @@
       <c r="J671" s="7"/>
       <c r="K671" s="7"/>
     </row>
-    <row r="672">
+    <row r="672" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C672" s="7"/>
       <c r="F672" s="4"/>
       <c r="G672" s="4"/>
@@ -8377,7 +8410,7 @@
       <c r="J672" s="7"/>
       <c r="K672" s="7"/>
     </row>
-    <row r="673">
+    <row r="673" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C673" s="7"/>
       <c r="F673" s="4"/>
       <c r="G673" s="4"/>
@@ -8386,7 +8419,7 @@
       <c r="J673" s="7"/>
       <c r="K673" s="7"/>
     </row>
-    <row r="674">
+    <row r="674" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C674" s="7"/>
       <c r="F674" s="4"/>
       <c r="G674" s="4"/>
@@ -8395,7 +8428,7 @@
       <c r="J674" s="7"/>
       <c r="K674" s="7"/>
     </row>
-    <row r="675">
+    <row r="675" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C675" s="7"/>
       <c r="F675" s="4"/>
       <c r="G675" s="4"/>
@@ -8404,7 +8437,7 @@
       <c r="J675" s="7"/>
       <c r="K675" s="7"/>
     </row>
-    <row r="676">
+    <row r="676" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C676" s="7"/>
       <c r="F676" s="4"/>
       <c r="G676" s="4"/>
@@ -8413,7 +8446,7 @@
       <c r="J676" s="7"/>
       <c r="K676" s="7"/>
     </row>
-    <row r="677">
+    <row r="677" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C677" s="7"/>
       <c r="F677" s="4"/>
       <c r="G677" s="4"/>
@@ -8422,7 +8455,7 @@
       <c r="J677" s="7"/>
       <c r="K677" s="7"/>
     </row>
-    <row r="678">
+    <row r="678" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C678" s="7"/>
       <c r="F678" s="4"/>
       <c r="G678" s="4"/>
@@ -8431,7 +8464,7 @@
       <c r="J678" s="7"/>
       <c r="K678" s="7"/>
     </row>
-    <row r="679">
+    <row r="679" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C679" s="7"/>
       <c r="F679" s="4"/>
       <c r="G679" s="4"/>
@@ -8440,7 +8473,7 @@
       <c r="J679" s="7"/>
       <c r="K679" s="7"/>
     </row>
-    <row r="680">
+    <row r="680" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C680" s="7"/>
       <c r="F680" s="4"/>
       <c r="G680" s="4"/>
@@ -8449,7 +8482,7 @@
       <c r="J680" s="7"/>
       <c r="K680" s="7"/>
     </row>
-    <row r="681">
+    <row r="681" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C681" s="7"/>
       <c r="F681" s="4"/>
       <c r="G681" s="4"/>
@@ -8458,7 +8491,7 @@
       <c r="J681" s="7"/>
       <c r="K681" s="7"/>
     </row>
-    <row r="682">
+    <row r="682" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C682" s="7"/>
       <c r="F682" s="4"/>
       <c r="G682" s="4"/>
@@ -8467,7 +8500,7 @@
       <c r="J682" s="7"/>
       <c r="K682" s="7"/>
     </row>
-    <row r="683">
+    <row r="683" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C683" s="7"/>
       <c r="F683" s="4"/>
       <c r="G683" s="4"/>
@@ -8476,7 +8509,7 @@
       <c r="J683" s="7"/>
       <c r="K683" s="7"/>
     </row>
-    <row r="684">
+    <row r="684" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C684" s="7"/>
       <c r="F684" s="4"/>
       <c r="G684" s="4"/>
@@ -8485,7 +8518,7 @@
       <c r="J684" s="7"/>
       <c r="K684" s="7"/>
     </row>
-    <row r="685">
+    <row r="685" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C685" s="7"/>
       <c r="F685" s="4"/>
       <c r="G685" s="4"/>
@@ -8494,7 +8527,7 @@
       <c r="J685" s="7"/>
       <c r="K685" s="7"/>
     </row>
-    <row r="686">
+    <row r="686" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C686" s="7"/>
       <c r="F686" s="4"/>
       <c r="G686" s="4"/>
@@ -8503,7 +8536,7 @@
       <c r="J686" s="7"/>
       <c r="K686" s="7"/>
     </row>
-    <row r="687">
+    <row r="687" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C687" s="7"/>
       <c r="F687" s="4"/>
       <c r="G687" s="4"/>
@@ -8512,7 +8545,7 @@
       <c r="J687" s="7"/>
       <c r="K687" s="7"/>
     </row>
-    <row r="688">
+    <row r="688" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C688" s="7"/>
       <c r="F688" s="4"/>
       <c r="G688" s="4"/>
@@ -8521,7 +8554,7 @@
       <c r="J688" s="7"/>
       <c r="K688" s="7"/>
     </row>
-    <row r="689">
+    <row r="689" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C689" s="7"/>
       <c r="F689" s="4"/>
       <c r="G689" s="4"/>
@@ -8530,7 +8563,7 @@
       <c r="J689" s="7"/>
       <c r="K689" s="7"/>
     </row>
-    <row r="690">
+    <row r="690" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C690" s="7"/>
       <c r="F690" s="4"/>
       <c r="G690" s="4"/>
@@ -8539,7 +8572,7 @@
       <c r="J690" s="7"/>
       <c r="K690" s="7"/>
     </row>
-    <row r="691">
+    <row r="691" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C691" s="7"/>
       <c r="F691" s="4"/>
       <c r="G691" s="4"/>
@@ -8548,7 +8581,7 @@
       <c r="J691" s="7"/>
       <c r="K691" s="7"/>
     </row>
-    <row r="692">
+    <row r="692" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C692" s="7"/>
       <c r="F692" s="4"/>
       <c r="G692" s="4"/>
@@ -8557,7 +8590,7 @@
       <c r="J692" s="7"/>
       <c r="K692" s="7"/>
     </row>
-    <row r="693">
+    <row r="693" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C693" s="7"/>
       <c r="F693" s="4"/>
       <c r="G693" s="4"/>
@@ -8566,7 +8599,7 @@
       <c r="J693" s="7"/>
       <c r="K693" s="7"/>
     </row>
-    <row r="694">
+    <row r="694" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C694" s="7"/>
       <c r="F694" s="4"/>
       <c r="G694" s="4"/>
@@ -8575,7 +8608,7 @@
       <c r="J694" s="7"/>
       <c r="K694" s="7"/>
     </row>
-    <row r="695">
+    <row r="695" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C695" s="7"/>
       <c r="F695" s="4"/>
       <c r="G695" s="4"/>
@@ -8584,7 +8617,7 @@
       <c r="J695" s="7"/>
       <c r="K695" s="7"/>
     </row>
-    <row r="696">
+    <row r="696" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C696" s="7"/>
       <c r="F696" s="4"/>
       <c r="G696" s="4"/>
@@ -8593,7 +8626,7 @@
       <c r="J696" s="7"/>
       <c r="K696" s="7"/>
     </row>
-    <row r="697">
+    <row r="697" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C697" s="7"/>
       <c r="F697" s="4"/>
       <c r="G697" s="4"/>
@@ -8602,7 +8635,7 @@
       <c r="J697" s="7"/>
       <c r="K697" s="7"/>
     </row>
-    <row r="698">
+    <row r="698" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C698" s="7"/>
       <c r="F698" s="4"/>
       <c r="G698" s="4"/>
@@ -8611,7 +8644,7 @@
       <c r="J698" s="7"/>
       <c r="K698" s="7"/>
     </row>
-    <row r="699">
+    <row r="699" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C699" s="7"/>
       <c r="F699" s="4"/>
       <c r="G699" s="4"/>
@@ -8620,7 +8653,7 @@
       <c r="J699" s="7"/>
       <c r="K699" s="7"/>
     </row>
-    <row r="700">
+    <row r="700" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C700" s="7"/>
       <c r="F700" s="4"/>
       <c r="G700" s="4"/>
@@ -8629,7 +8662,7 @@
       <c r="J700" s="7"/>
       <c r="K700" s="7"/>
     </row>
-    <row r="701">
+    <row r="701" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C701" s="7"/>
       <c r="F701" s="4"/>
       <c r="G701" s="4"/>
@@ -8638,7 +8671,7 @@
       <c r="J701" s="7"/>
       <c r="K701" s="7"/>
     </row>
-    <row r="702">
+    <row r="702" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C702" s="7"/>
       <c r="F702" s="4"/>
       <c r="G702" s="4"/>
@@ -8647,7 +8680,7 @@
       <c r="J702" s="7"/>
       <c r="K702" s="7"/>
     </row>
-    <row r="703">
+    <row r="703" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C703" s="7"/>
       <c r="F703" s="4"/>
       <c r="G703" s="4"/>
@@ -8656,7 +8689,7 @@
       <c r="J703" s="7"/>
       <c r="K703" s="7"/>
     </row>
-    <row r="704">
+    <row r="704" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C704" s="7"/>
       <c r="F704" s="4"/>
       <c r="G704" s="4"/>
@@ -8665,7 +8698,7 @@
       <c r="J704" s="7"/>
       <c r="K704" s="7"/>
     </row>
-    <row r="705">
+    <row r="705" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C705" s="7"/>
       <c r="F705" s="4"/>
       <c r="G705" s="4"/>
@@ -8674,7 +8707,7 @@
       <c r="J705" s="7"/>
       <c r="K705" s="7"/>
     </row>
-    <row r="706">
+    <row r="706" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C706" s="7"/>
       <c r="F706" s="4"/>
       <c r="G706" s="4"/>
@@ -8683,7 +8716,7 @@
       <c r="J706" s="7"/>
       <c r="K706" s="7"/>
     </row>
-    <row r="707">
+    <row r="707" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C707" s="7"/>
       <c r="F707" s="4"/>
       <c r="G707" s="4"/>
@@ -8692,7 +8725,7 @@
       <c r="J707" s="7"/>
       <c r="K707" s="7"/>
     </row>
-    <row r="708">
+    <row r="708" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C708" s="7"/>
       <c r="F708" s="4"/>
       <c r="G708" s="4"/>
@@ -8701,7 +8734,7 @@
       <c r="J708" s="7"/>
       <c r="K708" s="7"/>
     </row>
-    <row r="709">
+    <row r="709" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C709" s="7"/>
       <c r="F709" s="4"/>
       <c r="G709" s="4"/>
@@ -8710,7 +8743,7 @@
       <c r="J709" s="7"/>
       <c r="K709" s="7"/>
     </row>
-    <row r="710">
+    <row r="710" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C710" s="7"/>
       <c r="F710" s="4"/>
       <c r="G710" s="4"/>
@@ -8719,7 +8752,7 @@
       <c r="J710" s="7"/>
       <c r="K710" s="7"/>
     </row>
-    <row r="711">
+    <row r="711" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C711" s="7"/>
       <c r="F711" s="4"/>
       <c r="G711" s="4"/>
@@ -8728,7 +8761,7 @@
       <c r="J711" s="7"/>
       <c r="K711" s="7"/>
     </row>
-    <row r="712">
+    <row r="712" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C712" s="7"/>
       <c r="F712" s="4"/>
       <c r="G712" s="4"/>
@@ -8737,7 +8770,7 @@
       <c r="J712" s="7"/>
       <c r="K712" s="7"/>
     </row>
-    <row r="713">
+    <row r="713" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C713" s="7"/>
       <c r="F713" s="4"/>
       <c r="G713" s="4"/>
@@ -8746,7 +8779,7 @@
       <c r="J713" s="7"/>
       <c r="K713" s="7"/>
     </row>
-    <row r="714">
+    <row r="714" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C714" s="7"/>
       <c r="F714" s="4"/>
       <c r="G714" s="4"/>
@@ -8755,7 +8788,7 @@
       <c r="J714" s="7"/>
       <c r="K714" s="7"/>
     </row>
-    <row r="715">
+    <row r="715" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C715" s="7"/>
       <c r="F715" s="4"/>
       <c r="G715" s="4"/>
@@ -8764,7 +8797,7 @@
       <c r="J715" s="7"/>
       <c r="K715" s="7"/>
     </row>
-    <row r="716">
+    <row r="716" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C716" s="7"/>
       <c r="F716" s="4"/>
       <c r="G716" s="4"/>
@@ -8773,7 +8806,7 @@
       <c r="J716" s="7"/>
       <c r="K716" s="7"/>
     </row>
-    <row r="717">
+    <row r="717" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C717" s="7"/>
       <c r="F717" s="4"/>
       <c r="G717" s="4"/>
@@ -8782,7 +8815,7 @@
       <c r="J717" s="7"/>
       <c r="K717" s="7"/>
     </row>
-    <row r="718">
+    <row r="718" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C718" s="7"/>
       <c r="F718" s="4"/>
       <c r="G718" s="4"/>
@@ -8791,7 +8824,7 @@
       <c r="J718" s="7"/>
       <c r="K718" s="7"/>
     </row>
-    <row r="719">
+    <row r="719" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C719" s="7"/>
       <c r="F719" s="4"/>
       <c r="G719" s="4"/>
@@ -8800,7 +8833,7 @@
       <c r="J719" s="7"/>
       <c r="K719" s="7"/>
     </row>
-    <row r="720">
+    <row r="720" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C720" s="7"/>
       <c r="F720" s="4"/>
       <c r="G720" s="4"/>
@@ -8809,7 +8842,7 @@
       <c r="J720" s="7"/>
       <c r="K720" s="7"/>
     </row>
-    <row r="721">
+    <row r="721" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C721" s="7"/>
       <c r="F721" s="4"/>
       <c r="G721" s="4"/>
@@ -8818,7 +8851,7 @@
       <c r="J721" s="7"/>
       <c r="K721" s="7"/>
     </row>
-    <row r="722">
+    <row r="722" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C722" s="7"/>
       <c r="F722" s="4"/>
       <c r="G722" s="4"/>
@@ -8827,7 +8860,7 @@
       <c r="J722" s="7"/>
       <c r="K722" s="7"/>
     </row>
-    <row r="723">
+    <row r="723" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C723" s="7"/>
       <c r="F723" s="4"/>
       <c r="G723" s="4"/>
@@ -8836,7 +8869,7 @@
       <c r="J723" s="7"/>
       <c r="K723" s="7"/>
     </row>
-    <row r="724">
+    <row r="724" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C724" s="7"/>
       <c r="F724" s="4"/>
       <c r="G724" s="4"/>
@@ -8845,7 +8878,7 @@
       <c r="J724" s="7"/>
       <c r="K724" s="7"/>
     </row>
-    <row r="725">
+    <row r="725" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C725" s="7"/>
       <c r="F725" s="4"/>
       <c r="G725" s="4"/>
@@ -8854,7 +8887,7 @@
       <c r="J725" s="7"/>
       <c r="K725" s="7"/>
     </row>
-    <row r="726">
+    <row r="726" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C726" s="7"/>
       <c r="F726" s="4"/>
       <c r="G726" s="4"/>
@@ -8863,7 +8896,7 @@
       <c r="J726" s="7"/>
       <c r="K726" s="7"/>
     </row>
-    <row r="727">
+    <row r="727" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C727" s="7"/>
       <c r="F727" s="4"/>
       <c r="G727" s="4"/>
@@ -8872,7 +8905,7 @@
       <c r="J727" s="7"/>
       <c r="K727" s="7"/>
     </row>
-    <row r="728">
+    <row r="728" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C728" s="7"/>
       <c r="F728" s="4"/>
       <c r="G728" s="4"/>
@@ -8881,7 +8914,7 @@
       <c r="J728" s="7"/>
       <c r="K728" s="7"/>
     </row>
-    <row r="729">
+    <row r="729" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C729" s="7"/>
       <c r="F729" s="4"/>
       <c r="G729" s="4"/>
@@ -8890,7 +8923,7 @@
       <c r="J729" s="7"/>
       <c r="K729" s="7"/>
     </row>
-    <row r="730">
+    <row r="730" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C730" s="7"/>
       <c r="F730" s="4"/>
       <c r="G730" s="4"/>
@@ -8899,7 +8932,7 @@
       <c r="J730" s="7"/>
       <c r="K730" s="7"/>
     </row>
-    <row r="731">
+    <row r="731" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C731" s="7"/>
       <c r="F731" s="4"/>
       <c r="G731" s="4"/>
@@ -8908,7 +8941,7 @@
       <c r="J731" s="7"/>
       <c r="K731" s="7"/>
     </row>
-    <row r="732">
+    <row r="732" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C732" s="7"/>
       <c r="F732" s="4"/>
       <c r="G732" s="4"/>
@@ -8917,7 +8950,7 @@
       <c r="J732" s="7"/>
       <c r="K732" s="7"/>
     </row>
-    <row r="733">
+    <row r="733" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C733" s="7"/>
       <c r="F733" s="4"/>
       <c r="G733" s="4"/>
@@ -8926,7 +8959,7 @@
       <c r="J733" s="7"/>
       <c r="K733" s="7"/>
     </row>
-    <row r="734">
+    <row r="734" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C734" s="7"/>
       <c r="F734" s="4"/>
       <c r="G734" s="4"/>
@@ -8935,7 +8968,7 @@
       <c r="J734" s="7"/>
       <c r="K734" s="7"/>
     </row>
-    <row r="735">
+    <row r="735" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C735" s="7"/>
       <c r="F735" s="4"/>
       <c r="G735" s="4"/>
@@ -8944,7 +8977,7 @@
       <c r="J735" s="7"/>
       <c r="K735" s="7"/>
     </row>
-    <row r="736">
+    <row r="736" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C736" s="7"/>
       <c r="F736" s="4"/>
       <c r="G736" s="4"/>
@@ -8953,7 +8986,7 @@
       <c r="J736" s="7"/>
       <c r="K736" s="7"/>
     </row>
-    <row r="737">
+    <row r="737" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C737" s="7"/>
       <c r="F737" s="4"/>
       <c r="G737" s="4"/>
@@ -8962,7 +8995,7 @@
       <c r="J737" s="7"/>
       <c r="K737" s="7"/>
     </row>
-    <row r="738">
+    <row r="738" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C738" s="7"/>
       <c r="F738" s="4"/>
       <c r="G738" s="4"/>
@@ -8971,7 +9004,7 @@
       <c r="J738" s="7"/>
       <c r="K738" s="7"/>
     </row>
-    <row r="739">
+    <row r="739" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C739" s="7"/>
       <c r="F739" s="4"/>
       <c r="G739" s="4"/>
@@ -8980,7 +9013,7 @@
       <c r="J739" s="7"/>
       <c r="K739" s="7"/>
     </row>
-    <row r="740">
+    <row r="740" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C740" s="7"/>
       <c r="F740" s="4"/>
       <c r="G740" s="4"/>
@@ -8989,7 +9022,7 @@
       <c r="J740" s="7"/>
       <c r="K740" s="7"/>
     </row>
-    <row r="741">
+    <row r="741" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C741" s="7"/>
       <c r="F741" s="4"/>
       <c r="G741" s="4"/>
@@ -8998,7 +9031,7 @@
       <c r="J741" s="7"/>
       <c r="K741" s="7"/>
     </row>
-    <row r="742">
+    <row r="742" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C742" s="7"/>
       <c r="F742" s="4"/>
       <c r="G742" s="4"/>
@@ -9007,7 +9040,7 @@
       <c r="J742" s="7"/>
       <c r="K742" s="7"/>
     </row>
-    <row r="743">
+    <row r="743" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C743" s="7"/>
       <c r="F743" s="4"/>
       <c r="G743" s="4"/>
@@ -9016,7 +9049,7 @@
       <c r="J743" s="7"/>
       <c r="K743" s="7"/>
     </row>
-    <row r="744">
+    <row r="744" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C744" s="7"/>
       <c r="F744" s="4"/>
       <c r="G744" s="4"/>
@@ -9025,7 +9058,7 @@
       <c r="J744" s="7"/>
       <c r="K744" s="7"/>
     </row>
-    <row r="745">
+    <row r="745" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C745" s="7"/>
       <c r="F745" s="4"/>
       <c r="G745" s="4"/>
@@ -9034,7 +9067,7 @@
       <c r="J745" s="7"/>
       <c r="K745" s="7"/>
     </row>
-    <row r="746">
+    <row r="746" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C746" s="7"/>
       <c r="F746" s="4"/>
       <c r="G746" s="4"/>
@@ -9043,7 +9076,7 @@
       <c r="J746" s="7"/>
       <c r="K746" s="7"/>
     </row>
-    <row r="747">
+    <row r="747" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C747" s="7"/>
       <c r="F747" s="4"/>
       <c r="G747" s="4"/>
@@ -9052,7 +9085,7 @@
       <c r="J747" s="7"/>
       <c r="K747" s="7"/>
     </row>
-    <row r="748">
+    <row r="748" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C748" s="7"/>
       <c r="F748" s="4"/>
       <c r="G748" s="4"/>
@@ -9061,7 +9094,7 @@
       <c r="J748" s="7"/>
       <c r="K748" s="7"/>
     </row>
-    <row r="749">
+    <row r="749" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C749" s="7"/>
       <c r="F749" s="4"/>
       <c r="G749" s="4"/>
@@ -9070,7 +9103,7 @@
       <c r="J749" s="7"/>
       <c r="K749" s="7"/>
     </row>
-    <row r="750">
+    <row r="750" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C750" s="7"/>
       <c r="F750" s="4"/>
       <c r="G750" s="4"/>
@@ -9079,7 +9112,7 @@
       <c r="J750" s="7"/>
       <c r="K750" s="7"/>
     </row>
-    <row r="751">
+    <row r="751" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C751" s="7"/>
       <c r="F751" s="4"/>
       <c r="G751" s="4"/>
@@ -9088,7 +9121,7 @@
       <c r="J751" s="7"/>
       <c r="K751" s="7"/>
     </row>
-    <row r="752">
+    <row r="752" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C752" s="7"/>
       <c r="F752" s="4"/>
       <c r="G752" s="4"/>
@@ -9097,7 +9130,7 @@
       <c r="J752" s="7"/>
       <c r="K752" s="7"/>
     </row>
-    <row r="753">
+    <row r="753" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C753" s="7"/>
       <c r="F753" s="4"/>
       <c r="G753" s="4"/>
@@ -9106,7 +9139,7 @@
       <c r="J753" s="7"/>
       <c r="K753" s="7"/>
     </row>
-    <row r="754">
+    <row r="754" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C754" s="7"/>
       <c r="F754" s="4"/>
       <c r="G754" s="4"/>
@@ -9115,7 +9148,7 @@
       <c r="J754" s="7"/>
       <c r="K754" s="7"/>
     </row>
-    <row r="755">
+    <row r="755" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C755" s="7"/>
       <c r="F755" s="4"/>
       <c r="G755" s="4"/>
@@ -9124,7 +9157,7 @@
       <c r="J755" s="7"/>
       <c r="K755" s="7"/>
     </row>
-    <row r="756">
+    <row r="756" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C756" s="7"/>
       <c r="F756" s="4"/>
       <c r="G756" s="4"/>
@@ -9133,7 +9166,7 @@
       <c r="J756" s="7"/>
       <c r="K756" s="7"/>
     </row>
-    <row r="757">
+    <row r="757" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C757" s="7"/>
       <c r="F757" s="4"/>
       <c r="G757" s="4"/>
@@ -9142,7 +9175,7 @@
       <c r="J757" s="7"/>
       <c r="K757" s="7"/>
     </row>
-    <row r="758">
+    <row r="758" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C758" s="7"/>
       <c r="F758" s="4"/>
       <c r="G758" s="4"/>
@@ -9151,7 +9184,7 @@
       <c r="J758" s="7"/>
       <c r="K758" s="7"/>
     </row>
-    <row r="759">
+    <row r="759" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C759" s="7"/>
       <c r="F759" s="4"/>
       <c r="G759" s="4"/>
@@ -9160,7 +9193,7 @@
       <c r="J759" s="7"/>
       <c r="K759" s="7"/>
     </row>
-    <row r="760">
+    <row r="760" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C760" s="7"/>
       <c r="F760" s="4"/>
       <c r="G760" s="4"/>
@@ -9169,7 +9202,7 @@
       <c r="J760" s="7"/>
       <c r="K760" s="7"/>
     </row>
-    <row r="761">
+    <row r="761" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C761" s="7"/>
       <c r="F761" s="4"/>
       <c r="G761" s="4"/>
@@ -9178,7 +9211,7 @@
       <c r="J761" s="7"/>
       <c r="K761" s="7"/>
     </row>
-    <row r="762">
+    <row r="762" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C762" s="7"/>
       <c r="F762" s="4"/>
       <c r="G762" s="4"/>
@@ -9187,7 +9220,7 @@
       <c r="J762" s="7"/>
       <c r="K762" s="7"/>
     </row>
-    <row r="763">
+    <row r="763" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C763" s="7"/>
       <c r="F763" s="4"/>
       <c r="G763" s="4"/>
@@ -9196,7 +9229,7 @@
       <c r="J763" s="7"/>
       <c r="K763" s="7"/>
     </row>
-    <row r="764">
+    <row r="764" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C764" s="7"/>
       <c r="F764" s="4"/>
       <c r="G764" s="4"/>
@@ -9205,7 +9238,7 @@
       <c r="J764" s="7"/>
       <c r="K764" s="7"/>
     </row>
-    <row r="765">
+    <row r="765" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C765" s="7"/>
       <c r="F765" s="4"/>
       <c r="G765" s="4"/>
@@ -9214,7 +9247,7 @@
       <c r="J765" s="7"/>
       <c r="K765" s="7"/>
     </row>
-    <row r="766">
+    <row r="766" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C766" s="7"/>
       <c r="F766" s="4"/>
       <c r="G766" s="4"/>
@@ -9223,7 +9256,7 @@
       <c r="J766" s="7"/>
       <c r="K766" s="7"/>
     </row>
-    <row r="767">
+    <row r="767" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C767" s="7"/>
       <c r="F767" s="4"/>
       <c r="G767" s="4"/>
@@ -9232,7 +9265,7 @@
       <c r="J767" s="7"/>
       <c r="K767" s="7"/>
     </row>
-    <row r="768">
+    <row r="768" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C768" s="7"/>
       <c r="F768" s="4"/>
       <c r="G768" s="4"/>
@@ -9241,7 +9274,7 @@
       <c r="J768" s="7"/>
       <c r="K768" s="7"/>
     </row>
-    <row r="769">
+    <row r="769" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C769" s="7"/>
       <c r="F769" s="4"/>
       <c r="G769" s="4"/>
@@ -9250,7 +9283,7 @@
       <c r="J769" s="7"/>
       <c r="K769" s="7"/>
     </row>
-    <row r="770">
+    <row r="770" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C770" s="7"/>
       <c r="F770" s="4"/>
       <c r="G770" s="4"/>
@@ -9259,7 +9292,7 @@
       <c r="J770" s="7"/>
       <c r="K770" s="7"/>
     </row>
-    <row r="771">
+    <row r="771" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C771" s="7"/>
       <c r="F771" s="4"/>
       <c r="G771" s="4"/>
@@ -9268,7 +9301,7 @@
       <c r="J771" s="7"/>
       <c r="K771" s="7"/>
     </row>
-    <row r="772">
+    <row r="772" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C772" s="7"/>
       <c r="F772" s="4"/>
       <c r="G772" s="4"/>
@@ -9277,7 +9310,7 @@
       <c r="J772" s="7"/>
       <c r="K772" s="7"/>
     </row>
-    <row r="773">
+    <row r="773" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C773" s="7"/>
       <c r="F773" s="4"/>
       <c r="G773" s="4"/>
@@ -9286,7 +9319,7 @@
       <c r="J773" s="7"/>
       <c r="K773" s="7"/>
     </row>
-    <row r="774">
+    <row r="774" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C774" s="7"/>
       <c r="F774" s="4"/>
       <c r="G774" s="4"/>
@@ -9295,7 +9328,7 @@
       <c r="J774" s="7"/>
       <c r="K774" s="7"/>
     </row>
-    <row r="775">
+    <row r="775" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C775" s="7"/>
       <c r="F775" s="4"/>
       <c r="G775" s="4"/>
@@ -9304,7 +9337,7 @@
       <c r="J775" s="7"/>
       <c r="K775" s="7"/>
     </row>
-    <row r="776">
+    <row r="776" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C776" s="7"/>
       <c r="F776" s="4"/>
       <c r="G776" s="4"/>
@@ -9313,7 +9346,7 @@
       <c r="J776" s="7"/>
       <c r="K776" s="7"/>
     </row>
-    <row r="777">
+    <row r="777" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C777" s="7"/>
       <c r="F777" s="4"/>
       <c r="G777" s="4"/>
@@ -9322,7 +9355,7 @@
       <c r="J777" s="7"/>
       <c r="K777" s="7"/>
     </row>
-    <row r="778">
+    <row r="778" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C778" s="7"/>
       <c r="F778" s="4"/>
       <c r="G778" s="4"/>
@@ -9331,7 +9364,7 @@
       <c r="J778" s="7"/>
       <c r="K778" s="7"/>
     </row>
-    <row r="779">
+    <row r="779" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C779" s="7"/>
       <c r="F779" s="4"/>
       <c r="G779" s="4"/>
@@ -9340,7 +9373,7 @@
       <c r="J779" s="7"/>
       <c r="K779" s="7"/>
     </row>
-    <row r="780">
+    <row r="780" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C780" s="7"/>
       <c r="F780" s="4"/>
       <c r="G780" s="4"/>
@@ -9349,7 +9382,7 @@
       <c r="J780" s="7"/>
       <c r="K780" s="7"/>
     </row>
-    <row r="781">
+    <row r="781" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C781" s="7"/>
       <c r="F781" s="4"/>
       <c r="G781" s="4"/>
@@ -9358,7 +9391,7 @@
       <c r="J781" s="7"/>
       <c r="K781" s="7"/>
     </row>
-    <row r="782">
+    <row r="782" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C782" s="7"/>
       <c r="F782" s="4"/>
       <c r="G782" s="4"/>
@@ -9367,7 +9400,7 @@
       <c r="J782" s="7"/>
       <c r="K782" s="7"/>
     </row>
-    <row r="783">
+    <row r="783" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C783" s="7"/>
       <c r="F783" s="4"/>
       <c r="G783" s="4"/>
@@ -9376,7 +9409,7 @@
       <c r="J783" s="7"/>
       <c r="K783" s="7"/>
     </row>
-    <row r="784">
+    <row r="784" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C784" s="7"/>
       <c r="F784" s="4"/>
       <c r="G784" s="4"/>
@@ -9385,7 +9418,7 @@
       <c r="J784" s="7"/>
       <c r="K784" s="7"/>
     </row>
-    <row r="785">
+    <row r="785" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C785" s="7"/>
       <c r="F785" s="4"/>
       <c r="G785" s="4"/>
@@ -9394,7 +9427,7 @@
       <c r="J785" s="7"/>
       <c r="K785" s="7"/>
     </row>
-    <row r="786">
+    <row r="786" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C786" s="7"/>
       <c r="F786" s="4"/>
       <c r="G786" s="4"/>
@@ -9403,7 +9436,7 @@
       <c r="J786" s="7"/>
       <c r="K786" s="7"/>
     </row>
-    <row r="787">
+    <row r="787" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C787" s="7"/>
       <c r="F787" s="4"/>
       <c r="G787" s="4"/>
@@ -9412,7 +9445,7 @@
       <c r="J787" s="7"/>
       <c r="K787" s="7"/>
     </row>
-    <row r="788">
+    <row r="788" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C788" s="7"/>
       <c r="F788" s="4"/>
       <c r="G788" s="4"/>
@@ -9421,7 +9454,7 @@
       <c r="J788" s="7"/>
       <c r="K788" s="7"/>
     </row>
-    <row r="789">
+    <row r="789" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C789" s="7"/>
       <c r="F789" s="4"/>
       <c r="G789" s="4"/>
@@ -9430,7 +9463,7 @@
       <c r="J789" s="7"/>
       <c r="K789" s="7"/>
     </row>
-    <row r="790">
+    <row r="790" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C790" s="7"/>
       <c r="F790" s="4"/>
       <c r="G790" s="4"/>
@@ -9439,7 +9472,7 @@
       <c r="J790" s="7"/>
       <c r="K790" s="7"/>
     </row>
-    <row r="791">
+    <row r="791" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C791" s="7"/>
       <c r="F791" s="4"/>
       <c r="G791" s="4"/>
@@ -9448,7 +9481,7 @@
       <c r="J791" s="7"/>
       <c r="K791" s="7"/>
     </row>
-    <row r="792">
+    <row r="792" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C792" s="7"/>
       <c r="F792" s="4"/>
       <c r="G792" s="4"/>
@@ -9457,7 +9490,7 @@
       <c r="J792" s="7"/>
       <c r="K792" s="7"/>
     </row>
-    <row r="793">
+    <row r="793" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C793" s="7"/>
       <c r="F793" s="4"/>
       <c r="G793" s="4"/>
@@ -9466,7 +9499,7 @@
       <c r="J793" s="7"/>
       <c r="K793" s="7"/>
     </row>
-    <row r="794">
+    <row r="794" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C794" s="7"/>
       <c r="F794" s="4"/>
       <c r="G794" s="4"/>
@@ -9475,7 +9508,7 @@
       <c r="J794" s="7"/>
       <c r="K794" s="7"/>
     </row>
-    <row r="795">
+    <row r="795" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C795" s="7"/>
       <c r="F795" s="4"/>
       <c r="G795" s="4"/>
@@ -9484,7 +9517,7 @@
       <c r="J795" s="7"/>
       <c r="K795" s="7"/>
     </row>
-    <row r="796">
+    <row r="796" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C796" s="7"/>
       <c r="F796" s="4"/>
       <c r="G796" s="4"/>
@@ -9493,7 +9526,7 @@
       <c r="J796" s="7"/>
       <c r="K796" s="7"/>
     </row>
-    <row r="797">
+    <row r="797" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C797" s="7"/>
       <c r="F797" s="4"/>
       <c r="G797" s="4"/>
@@ -9502,7 +9535,7 @@
       <c r="J797" s="7"/>
       <c r="K797" s="7"/>
     </row>
-    <row r="798">
+    <row r="798" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C798" s="7"/>
       <c r="F798" s="4"/>
       <c r="G798" s="4"/>
@@ -9511,7 +9544,7 @@
       <c r="J798" s="7"/>
       <c r="K798" s="7"/>
     </row>
-    <row r="799">
+    <row r="799" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C799" s="7"/>
       <c r="F799" s="4"/>
       <c r="G799" s="4"/>
@@ -9520,7 +9553,7 @@
       <c r="J799" s="7"/>
       <c r="K799" s="7"/>
     </row>
-    <row r="800">
+    <row r="800" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C800" s="7"/>
       <c r="F800" s="4"/>
       <c r="G800" s="4"/>
@@ -9529,7 +9562,7 @@
       <c r="J800" s="7"/>
       <c r="K800" s="7"/>
     </row>
-    <row r="801">
+    <row r="801" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C801" s="7"/>
       <c r="F801" s="4"/>
       <c r="G801" s="4"/>
@@ -9538,7 +9571,7 @@
       <c r="J801" s="7"/>
       <c r="K801" s="7"/>
     </row>
-    <row r="802">
+    <row r="802" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C802" s="7"/>
       <c r="F802" s="4"/>
       <c r="G802" s="4"/>
@@ -9547,7 +9580,7 @@
       <c r="J802" s="7"/>
       <c r="K802" s="7"/>
     </row>
-    <row r="803">
+    <row r="803" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C803" s="7"/>
       <c r="F803" s="4"/>
       <c r="G803" s="4"/>
@@ -9556,7 +9589,7 @@
       <c r="J803" s="7"/>
       <c r="K803" s="7"/>
     </row>
-    <row r="804">
+    <row r="804" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C804" s="7"/>
       <c r="F804" s="4"/>
       <c r="G804" s="4"/>
@@ -9565,7 +9598,7 @@
       <c r="J804" s="7"/>
       <c r="K804" s="7"/>
     </row>
-    <row r="805">
+    <row r="805" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C805" s="7"/>
       <c r="F805" s="4"/>
       <c r="G805" s="4"/>
@@ -9574,7 +9607,7 @@
       <c r="J805" s="7"/>
       <c r="K805" s="7"/>
     </row>
-    <row r="806">
+    <row r="806" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C806" s="7"/>
       <c r="F806" s="4"/>
       <c r="G806" s="4"/>
@@ -9583,7 +9616,7 @@
       <c r="J806" s="7"/>
       <c r="K806" s="7"/>
     </row>
-    <row r="807">
+    <row r="807" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C807" s="7"/>
       <c r="F807" s="4"/>
       <c r="G807" s="4"/>
@@ -9592,7 +9625,7 @@
       <c r="J807" s="7"/>
       <c r="K807" s="7"/>
     </row>
-    <row r="808">
+    <row r="808" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C808" s="7"/>
       <c r="F808" s="4"/>
       <c r="G808" s="4"/>
@@ -9601,7 +9634,7 @@
       <c r="J808" s="7"/>
       <c r="K808" s="7"/>
     </row>
-    <row r="809">
+    <row r="809" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C809" s="7"/>
       <c r="F809" s="4"/>
       <c r="G809" s="4"/>
@@ -9610,7 +9643,7 @@
       <c r="J809" s="7"/>
       <c r="K809" s="7"/>
     </row>
-    <row r="810">
+    <row r="810" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C810" s="7"/>
       <c r="F810" s="4"/>
       <c r="G810" s="4"/>
@@ -9619,7 +9652,7 @@
       <c r="J810" s="7"/>
       <c r="K810" s="7"/>
     </row>
-    <row r="811">
+    <row r="811" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C811" s="7"/>
       <c r="F811" s="4"/>
       <c r="G811" s="4"/>
@@ -9628,7 +9661,7 @@
       <c r="J811" s="7"/>
       <c r="K811" s="7"/>
     </row>
-    <row r="812">
+    <row r="812" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C812" s="7"/>
       <c r="F812" s="4"/>
       <c r="G812" s="4"/>
@@ -9637,7 +9670,7 @@
       <c r="J812" s="7"/>
       <c r="K812" s="7"/>
     </row>
-    <row r="813">
+    <row r="813" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C813" s="7"/>
       <c r="F813" s="4"/>
       <c r="G813" s="4"/>
@@ -9646,7 +9679,7 @@
       <c r="J813" s="7"/>
       <c r="K813" s="7"/>
     </row>
-    <row r="814">
+    <row r="814" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C814" s="7"/>
       <c r="F814" s="4"/>
       <c r="G814" s="4"/>
@@ -9655,7 +9688,7 @@
       <c r="J814" s="7"/>
       <c r="K814" s="7"/>
     </row>
-    <row r="815">
+    <row r="815" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C815" s="7"/>
       <c r="F815" s="4"/>
       <c r="G815" s="4"/>
@@ -9664,7 +9697,7 @@
       <c r="J815" s="7"/>
       <c r="K815" s="7"/>
     </row>
-    <row r="816">
+    <row r="816" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C816" s="7"/>
       <c r="F816" s="4"/>
       <c r="G816" s="4"/>
@@ -9673,7 +9706,7 @@
       <c r="J816" s="7"/>
       <c r="K816" s="7"/>
     </row>
-    <row r="817">
+    <row r="817" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C817" s="7"/>
       <c r="F817" s="4"/>
       <c r="G817" s="4"/>
@@ -9682,7 +9715,7 @@
       <c r="J817" s="7"/>
       <c r="K817" s="7"/>
     </row>
-    <row r="818">
+    <row r="818" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C818" s="7"/>
       <c r="F818" s="4"/>
       <c r="G818" s="4"/>
@@ -9691,7 +9724,7 @@
       <c r="J818" s="7"/>
       <c r="K818" s="7"/>
     </row>
-    <row r="819">
+    <row r="819" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C819" s="7"/>
       <c r="F819" s="4"/>
       <c r="G819" s="4"/>
@@ -9700,7 +9733,7 @@
       <c r="J819" s="7"/>
       <c r="K819" s="7"/>
     </row>
-    <row r="820">
+    <row r="820" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C820" s="7"/>
       <c r="F820" s="4"/>
       <c r="G820" s="4"/>
@@ -9709,7 +9742,7 @@
       <c r="J820" s="7"/>
       <c r="K820" s="7"/>
     </row>
-    <row r="821">
+    <row r="821" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C821" s="7"/>
       <c r="F821" s="4"/>
       <c r="G821" s="4"/>
@@ -9718,7 +9751,7 @@
       <c r="J821" s="7"/>
       <c r="K821" s="7"/>
     </row>
-    <row r="822">
+    <row r="822" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C822" s="7"/>
       <c r="F822" s="4"/>
       <c r="G822" s="4"/>
@@ -9727,7 +9760,7 @@
       <c r="J822" s="7"/>
       <c r="K822" s="7"/>
     </row>
-    <row r="823">
+    <row r="823" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C823" s="7"/>
       <c r="F823" s="4"/>
       <c r="G823" s="4"/>
@@ -9736,7 +9769,7 @@
       <c r="J823" s="7"/>
       <c r="K823" s="7"/>
     </row>
-    <row r="824">
+    <row r="824" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C824" s="7"/>
       <c r="F824" s="4"/>
       <c r="G824" s="4"/>
@@ -9745,7 +9778,7 @@
       <c r="J824" s="7"/>
       <c r="K824" s="7"/>
     </row>
-    <row r="825">
+    <row r="825" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C825" s="7"/>
       <c r="F825" s="4"/>
       <c r="G825" s="4"/>
@@ -9754,7 +9787,7 @@
       <c r="J825" s="7"/>
       <c r="K825" s="7"/>
     </row>
-    <row r="826">
+    <row r="826" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C826" s="7"/>
       <c r="F826" s="4"/>
       <c r="G826" s="4"/>
@@ -9763,7 +9796,7 @@
       <c r="J826" s="7"/>
       <c r="K826" s="7"/>
     </row>
-    <row r="827">
+    <row r="827" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C827" s="7"/>
       <c r="F827" s="4"/>
       <c r="G827" s="4"/>
@@ -9772,7 +9805,7 @@
       <c r="J827" s="7"/>
       <c r="K827" s="7"/>
     </row>
-    <row r="828">
+    <row r="828" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C828" s="7"/>
       <c r="F828" s="4"/>
       <c r="G828" s="4"/>
@@ -9781,7 +9814,7 @@
       <c r="J828" s="7"/>
       <c r="K828" s="7"/>
     </row>
-    <row r="829">
+    <row r="829" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C829" s="7"/>
       <c r="F829" s="4"/>
       <c r="G829" s="4"/>
@@ -9790,7 +9823,7 @@
       <c r="J829" s="7"/>
       <c r="K829" s="7"/>
     </row>
-    <row r="830">
+    <row r="830" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C830" s="7"/>
       <c r="F830" s="4"/>
       <c r="G830" s="4"/>
@@ -9799,7 +9832,7 @@
       <c r="J830" s="7"/>
       <c r="K830" s="7"/>
     </row>
-    <row r="831">
+    <row r="831" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C831" s="7"/>
       <c r="F831" s="4"/>
       <c r="G831" s="4"/>
@@ -9808,7 +9841,7 @@
       <c r="J831" s="7"/>
       <c r="K831" s="7"/>
     </row>
-    <row r="832">
+    <row r="832" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C832" s="7"/>
       <c r="F832" s="4"/>
       <c r="G832" s="4"/>
@@ -9817,7 +9850,7 @@
       <c r="J832" s="7"/>
       <c r="K832" s="7"/>
     </row>
-    <row r="833">
+    <row r="833" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C833" s="7"/>
       <c r="F833" s="4"/>
       <c r="G833" s="4"/>
@@ -9826,7 +9859,7 @@
       <c r="J833" s="7"/>
       <c r="K833" s="7"/>
     </row>
-    <row r="834">
+    <row r="834" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C834" s="7"/>
       <c r="F834" s="4"/>
       <c r="G834" s="4"/>
@@ -9835,7 +9868,7 @@
       <c r="J834" s="7"/>
       <c r="K834" s="7"/>
     </row>
-    <row r="835">
+    <row r="835" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C835" s="7"/>
       <c r="F835" s="4"/>
       <c r="G835" s="4"/>
@@ -9844,7 +9877,7 @@
       <c r="J835" s="7"/>
       <c r="K835" s="7"/>
     </row>
-    <row r="836">
+    <row r="836" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C836" s="7"/>
       <c r="F836" s="4"/>
       <c r="G836" s="4"/>
@@ -9853,7 +9886,7 @@
       <c r="J836" s="7"/>
       <c r="K836" s="7"/>
     </row>
-    <row r="837">
+    <row r="837" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C837" s="7"/>
       <c r="F837" s="4"/>
       <c r="G837" s="4"/>
@@ -9862,7 +9895,7 @@
       <c r="J837" s="7"/>
       <c r="K837" s="7"/>
     </row>
-    <row r="838">
+    <row r="838" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C838" s="7"/>
       <c r="F838" s="4"/>
       <c r="G838" s="4"/>
@@ -9871,7 +9904,7 @@
       <c r="J838" s="7"/>
       <c r="K838" s="7"/>
     </row>
-    <row r="839">
+    <row r="839" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C839" s="7"/>
       <c r="F839" s="4"/>
       <c r="G839" s="4"/>
@@ -9880,7 +9913,7 @@
       <c r="J839" s="7"/>
       <c r="K839" s="7"/>
     </row>
-    <row r="840">
+    <row r="840" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C840" s="7"/>
       <c r="F840" s="4"/>
       <c r="G840" s="4"/>
@@ -9889,7 +9922,7 @@
       <c r="J840" s="7"/>
       <c r="K840" s="7"/>
     </row>
-    <row r="841">
+    <row r="841" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C841" s="7"/>
       <c r="F841" s="4"/>
       <c r="G841" s="4"/>
@@ -9898,7 +9931,7 @@
       <c r="J841" s="7"/>
       <c r="K841" s="7"/>
     </row>
-    <row r="842">
+    <row r="842" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C842" s="7"/>
       <c r="F842" s="4"/>
       <c r="G842" s="4"/>
@@ -9907,7 +9940,7 @@
       <c r="J842" s="7"/>
       <c r="K842" s="7"/>
     </row>
-    <row r="843">
+    <row r="843" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C843" s="7"/>
       <c r="F843" s="4"/>
       <c r="G843" s="4"/>
@@ -9916,7 +9949,7 @@
       <c r="J843" s="7"/>
       <c r="K843" s="7"/>
     </row>
-    <row r="844">
+    <row r="844" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C844" s="7"/>
       <c r="F844" s="4"/>
       <c r="G844" s="4"/>
@@ -9925,7 +9958,7 @@
       <c r="J844" s="7"/>
       <c r="K844" s="7"/>
     </row>
-    <row r="845">
+    <row r="845" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C845" s="7"/>
       <c r="F845" s="4"/>
       <c r="G845" s="4"/>
@@ -9934,7 +9967,7 @@
       <c r="J845" s="7"/>
       <c r="K845" s="7"/>
     </row>
-    <row r="846">
+    <row r="846" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C846" s="7"/>
       <c r="F846" s="4"/>
       <c r="G846" s="4"/>
@@ -9943,7 +9976,7 @@
       <c r="J846" s="7"/>
       <c r="K846" s="7"/>
     </row>
-    <row r="847">
+    <row r="847" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C847" s="7"/>
       <c r="F847" s="4"/>
       <c r="G847" s="4"/>
@@ -9952,7 +9985,7 @@
       <c r="J847" s="7"/>
       <c r="K847" s="7"/>
     </row>
-    <row r="848">
+    <row r="848" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C848" s="7"/>
       <c r="F848" s="4"/>
       <c r="G848" s="4"/>
@@ -9961,7 +9994,7 @@
       <c r="J848" s="7"/>
       <c r="K848" s="7"/>
     </row>
-    <row r="849">
+    <row r="849" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C849" s="7"/>
       <c r="F849" s="4"/>
       <c r="G849" s="4"/>
@@ -9970,7 +10003,7 @@
       <c r="J849" s="7"/>
       <c r="K849" s="7"/>
     </row>
-    <row r="850">
+    <row r="850" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C850" s="7"/>
       <c r="F850" s="4"/>
       <c r="G850" s="4"/>
@@ -9979,7 +10012,7 @@
       <c r="J850" s="7"/>
       <c r="K850" s="7"/>
     </row>
-    <row r="851">
+    <row r="851" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C851" s="7"/>
       <c r="F851" s="4"/>
       <c r="G851" s="4"/>
@@ -9988,7 +10021,7 @@
       <c r="J851" s="7"/>
       <c r="K851" s="7"/>
     </row>
-    <row r="852">
+    <row r="852" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C852" s="7"/>
       <c r="F852" s="4"/>
       <c r="G852" s="4"/>
@@ -9997,7 +10030,7 @@
       <c r="J852" s="7"/>
       <c r="K852" s="7"/>
     </row>
-    <row r="853">
+    <row r="853" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C853" s="7"/>
       <c r="F853" s="4"/>
       <c r="G853" s="4"/>
@@ -10006,7 +10039,7 @@
       <c r="J853" s="7"/>
       <c r="K853" s="7"/>
     </row>
-    <row r="854">
+    <row r="854" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C854" s="7"/>
       <c r="F854" s="4"/>
       <c r="G854" s="4"/>
@@ -10015,7 +10048,7 @@
       <c r="J854" s="7"/>
       <c r="K854" s="7"/>
     </row>
-    <row r="855">
+    <row r="855" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C855" s="7"/>
       <c r="F855" s="4"/>
       <c r="G855" s="4"/>
@@ -10024,7 +10057,7 @@
       <c r="J855" s="7"/>
       <c r="K855" s="7"/>
     </row>
-    <row r="856">
+    <row r="856" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C856" s="7"/>
       <c r="F856" s="4"/>
       <c r="G856" s="4"/>
@@ -10033,7 +10066,7 @@
       <c r="J856" s="7"/>
       <c r="K856" s="7"/>
     </row>
-    <row r="857">
+    <row r="857" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C857" s="7"/>
       <c r="F857" s="4"/>
       <c r="G857" s="4"/>
@@ -10042,7 +10075,7 @@
       <c r="J857" s="7"/>
       <c r="K857" s="7"/>
     </row>
-    <row r="858">
+    <row r="858" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C858" s="7"/>
       <c r="F858" s="4"/>
       <c r="G858" s="4"/>
@@ -10051,7 +10084,7 @@
       <c r="J858" s="7"/>
       <c r="K858" s="7"/>
     </row>
-    <row r="859">
+    <row r="859" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C859" s="7"/>
       <c r="F859" s="4"/>
       <c r="G859" s="4"/>
@@ -10060,7 +10093,7 @@
       <c r="J859" s="7"/>
       <c r="K859" s="7"/>
     </row>
-    <row r="860">
+    <row r="860" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C860" s="7"/>
       <c r="F860" s="4"/>
       <c r="G860" s="4"/>
@@ -10069,7 +10102,7 @@
       <c r="J860" s="7"/>
       <c r="K860" s="7"/>
     </row>
-    <row r="861">
+    <row r="861" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C861" s="7"/>
       <c r="F861" s="4"/>
       <c r="G861" s="4"/>
@@ -10078,7 +10111,7 @@
       <c r="J861" s="7"/>
       <c r="K861" s="7"/>
     </row>
-    <row r="862">
+    <row r="862" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C862" s="7"/>
       <c r="F862" s="4"/>
       <c r="G862" s="4"/>
@@ -10087,7 +10120,7 @@
       <c r="J862" s="7"/>
       <c r="K862" s="7"/>
     </row>
-    <row r="863">
+    <row r="863" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C863" s="7"/>
       <c r="F863" s="4"/>
       <c r="G863" s="4"/>
@@ -10096,7 +10129,7 @@
       <c r="J863" s="7"/>
       <c r="K863" s="7"/>
     </row>
-    <row r="864">
+    <row r="864" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C864" s="7"/>
       <c r="F864" s="4"/>
       <c r="G864" s="4"/>
@@ -10105,7 +10138,7 @@
       <c r="J864" s="7"/>
       <c r="K864" s="7"/>
     </row>
-    <row r="865">
+    <row r="865" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C865" s="7"/>
       <c r="F865" s="4"/>
       <c r="G865" s="4"/>
@@ -10114,7 +10147,7 @@
       <c r="J865" s="7"/>
       <c r="K865" s="7"/>
     </row>
-    <row r="866">
+    <row r="866" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C866" s="7"/>
       <c r="F866" s="4"/>
       <c r="G866" s="4"/>
@@ -10123,7 +10156,7 @@
       <c r="J866" s="7"/>
       <c r="K866" s="7"/>
     </row>
-    <row r="867">
+    <row r="867" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C867" s="7"/>
       <c r="F867" s="4"/>
       <c r="G867" s="4"/>
@@ -10132,7 +10165,7 @@
       <c r="J867" s="7"/>
       <c r="K867" s="7"/>
     </row>
-    <row r="868">
+    <row r="868" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C868" s="7"/>
       <c r="F868" s="4"/>
       <c r="G868" s="4"/>
@@ -10141,7 +10174,7 @@
       <c r="J868" s="7"/>
       <c r="K868" s="7"/>
     </row>
-    <row r="869">
+    <row r="869" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C869" s="7"/>
       <c r="F869" s="4"/>
       <c r="G869" s="4"/>
@@ -10150,7 +10183,7 @@
       <c r="J869" s="7"/>
       <c r="K869" s="7"/>
     </row>
-    <row r="870">
+    <row r="870" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C870" s="7"/>
       <c r="F870" s="4"/>
       <c r="G870" s="4"/>
@@ -10159,7 +10192,7 @@
       <c r="J870" s="7"/>
       <c r="K870" s="7"/>
     </row>
-    <row r="871">
+    <row r="871" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C871" s="7"/>
       <c r="F871" s="4"/>
       <c r="G871" s="4"/>
@@ -10168,7 +10201,7 @@
       <c r="J871" s="7"/>
       <c r="K871" s="7"/>
     </row>
-    <row r="872">
+    <row r="872" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C872" s="7"/>
       <c r="F872" s="4"/>
       <c r="G872" s="4"/>
@@ -10177,7 +10210,7 @@
       <c r="J872" s="7"/>
       <c r="K872" s="7"/>
     </row>
-    <row r="873">
+    <row r="873" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C873" s="7"/>
       <c r="F873" s="4"/>
       <c r="G873" s="4"/>
@@ -10186,7 +10219,7 @@
       <c r="J873" s="7"/>
       <c r="K873" s="7"/>
     </row>
-    <row r="874">
+    <row r="874" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C874" s="7"/>
       <c r="F874" s="4"/>
       <c r="G874" s="4"/>
@@ -10195,7 +10228,7 @@
       <c r="J874" s="7"/>
       <c r="K874" s="7"/>
     </row>
-    <row r="875">
+    <row r="875" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C875" s="7"/>
       <c r="F875" s="4"/>
       <c r="G875" s="4"/>
@@ -10204,7 +10237,7 @@
       <c r="J875" s="7"/>
       <c r="K875" s="7"/>
     </row>
-    <row r="876">
+    <row r="876" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C876" s="7"/>
       <c r="F876" s="4"/>
       <c r="G876" s="4"/>
@@ -10213,7 +10246,7 @@
       <c r="J876" s="7"/>
       <c r="K876" s="7"/>
     </row>
-    <row r="877">
+    <row r="877" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C877" s="7"/>
       <c r="F877" s="4"/>
       <c r="G877" s="4"/>
@@ -10222,7 +10255,7 @@
       <c r="J877" s="7"/>
       <c r="K877" s="7"/>
     </row>
-    <row r="878">
+    <row r="878" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C878" s="7"/>
       <c r="F878" s="4"/>
       <c r="G878" s="4"/>
@@ -10231,7 +10264,7 @@
       <c r="J878" s="7"/>
       <c r="K878" s="7"/>
     </row>
-    <row r="879">
+    <row r="879" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C879" s="7"/>
       <c r="F879" s="4"/>
       <c r="G879" s="4"/>
@@ -10240,7 +10273,7 @@
       <c r="J879" s="7"/>
       <c r="K879" s="7"/>
     </row>
-    <row r="880">
+    <row r="880" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C880" s="7"/>
       <c r="F880" s="4"/>
       <c r="G880" s="4"/>
@@ -10249,7 +10282,7 @@
       <c r="J880" s="7"/>
       <c r="K880" s="7"/>
     </row>
-    <row r="881">
+    <row r="881" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C881" s="7"/>
       <c r="F881" s="4"/>
       <c r="G881" s="4"/>
@@ -10258,7 +10291,7 @@
       <c r="J881" s="7"/>
       <c r="K881" s="7"/>
     </row>
-    <row r="882">
+    <row r="882" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C882" s="7"/>
       <c r="F882" s="4"/>
       <c r="G882" s="4"/>
@@ -10267,7 +10300,7 @@
       <c r="J882" s="7"/>
       <c r="K882" s="7"/>
     </row>
-    <row r="883">
+    <row r="883" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C883" s="7"/>
       <c r="F883" s="4"/>
       <c r="G883" s="4"/>
@@ -10276,7 +10309,7 @@
       <c r="J883" s="7"/>
       <c r="K883" s="7"/>
     </row>
-    <row r="884">
+    <row r="884" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C884" s="7"/>
       <c r="F884" s="4"/>
       <c r="G884" s="4"/>
@@ -10285,7 +10318,7 @@
       <c r="J884" s="7"/>
       <c r="K884" s="7"/>
     </row>
-    <row r="885">
+    <row r="885" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C885" s="7"/>
       <c r="F885" s="4"/>
       <c r="G885" s="4"/>
@@ -10294,7 +10327,7 @@
       <c r="J885" s="7"/>
       <c r="K885" s="7"/>
     </row>
-    <row r="886">
+    <row r="886" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C886" s="7"/>
       <c r="F886" s="4"/>
       <c r="G886" s="4"/>
@@ -10303,7 +10336,7 @@
       <c r="J886" s="7"/>
       <c r="K886" s="7"/>
     </row>
-    <row r="887">
+    <row r="887" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C887" s="7"/>
       <c r="F887" s="4"/>
       <c r="G887" s="4"/>
@@ -10312,7 +10345,7 @@
       <c r="J887" s="7"/>
       <c r="K887" s="7"/>
     </row>
-    <row r="888">
+    <row r="888" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C888" s="7"/>
       <c r="F888" s="4"/>
       <c r="G888" s="4"/>
@@ -10321,7 +10354,7 @@
       <c r="J888" s="7"/>
       <c r="K888" s="7"/>
     </row>
-    <row r="889">
+    <row r="889" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C889" s="7"/>
       <c r="F889" s="4"/>
       <c r="G889" s="4"/>
@@ -10330,7 +10363,7 @@
       <c r="J889" s="7"/>
       <c r="K889" s="7"/>
     </row>
-    <row r="890">
+    <row r="890" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C890" s="7"/>
       <c r="F890" s="4"/>
       <c r="G890" s="4"/>
@@ -10339,7 +10372,7 @@
       <c r="J890" s="7"/>
       <c r="K890" s="7"/>
     </row>
-    <row r="891">
+    <row r="891" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C891" s="7"/>
       <c r="F891" s="4"/>
       <c r="G891" s="4"/>
@@ -10348,7 +10381,7 @@
       <c r="J891" s="7"/>
       <c r="K891" s="7"/>
     </row>
-    <row r="892">
+    <row r="892" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C892" s="7"/>
       <c r="F892" s="4"/>
       <c r="G892" s="4"/>
@@ -10357,7 +10390,7 @@
       <c r="J892" s="7"/>
       <c r="K892" s="7"/>
     </row>
-    <row r="893">
+    <row r="893" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C893" s="7"/>
       <c r="F893" s="4"/>
       <c r="G893" s="4"/>
@@ -10366,7 +10399,7 @@
       <c r="J893" s="7"/>
       <c r="K893" s="7"/>
     </row>
-    <row r="894">
+    <row r="894" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C894" s="7"/>
       <c r="F894" s="4"/>
       <c r="G894" s="4"/>
@@ -10375,7 +10408,7 @@
       <c r="J894" s="7"/>
       <c r="K894" s="7"/>
     </row>
-    <row r="895">
+    <row r="895" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C895" s="7"/>
       <c r="F895" s="4"/>
       <c r="G895" s="4"/>
@@ -10384,7 +10417,7 @@
       <c r="J895" s="7"/>
       <c r="K895" s="7"/>
     </row>
-    <row r="896">
+    <row r="896" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C896" s="7"/>
       <c r="F896" s="4"/>
       <c r="G896" s="4"/>
@@ -10393,7 +10426,7 @@
       <c r="J896" s="7"/>
       <c r="K896" s="7"/>
     </row>
-    <row r="897">
+    <row r="897" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C897" s="7"/>
       <c r="F897" s="4"/>
       <c r="G897" s="4"/>
@@ -10402,7 +10435,7 @@
       <c r="J897" s="7"/>
       <c r="K897" s="7"/>
     </row>
-    <row r="898">
+    <row r="898" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C898" s="7"/>
       <c r="F898" s="4"/>
       <c r="G898" s="4"/>
@@ -10411,7 +10444,7 @@
       <c r="J898" s="7"/>
       <c r="K898" s="7"/>
     </row>
-    <row r="899">
+    <row r="899" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C899" s="7"/>
       <c r="F899" s="4"/>
       <c r="G899" s="4"/>
@@ -10420,7 +10453,7 @@
       <c r="J899" s="7"/>
       <c r="K899" s="7"/>
     </row>
-    <row r="900">
+    <row r="900" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C900" s="7"/>
       <c r="F900" s="4"/>
       <c r="G900" s="4"/>
@@ -10429,7 +10462,7 @@
       <c r="J900" s="7"/>
       <c r="K900" s="7"/>
     </row>
-    <row r="901">
+    <row r="901" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C901" s="7"/>
       <c r="F901" s="4"/>
       <c r="G901" s="4"/>
@@ -10438,7 +10471,7 @@
       <c r="J901" s="7"/>
       <c r="K901" s="7"/>
     </row>
-    <row r="902">
+    <row r="902" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C902" s="7"/>
       <c r="F902" s="4"/>
       <c r="G902" s="4"/>
@@ -10447,7 +10480,7 @@
       <c r="J902" s="7"/>
       <c r="K902" s="7"/>
     </row>
-    <row r="903">
+    <row r="903" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C903" s="7"/>
       <c r="F903" s="4"/>
       <c r="G903" s="4"/>
@@ -10456,7 +10489,7 @@
       <c r="J903" s="7"/>
       <c r="K903" s="7"/>
     </row>
-    <row r="904">
+    <row r="904" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C904" s="7"/>
       <c r="F904" s="4"/>
       <c r="G904" s="4"/>
@@ -10465,7 +10498,7 @@
       <c r="J904" s="7"/>
       <c r="K904" s="7"/>
     </row>
-    <row r="905">
+    <row r="905" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C905" s="7"/>
       <c r="F905" s="4"/>
       <c r="G905" s="4"/>
@@ -10474,7 +10507,7 @@
       <c r="J905" s="7"/>
       <c r="K905" s="7"/>
     </row>
-    <row r="906">
+    <row r="906" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C906" s="7"/>
       <c r="F906" s="4"/>
       <c r="G906" s="4"/>
@@ -10483,7 +10516,7 @@
       <c r="J906" s="7"/>
       <c r="K906" s="7"/>
     </row>
-    <row r="907">
+    <row r="907" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C907" s="7"/>
       <c r="F907" s="4"/>
       <c r="G907" s="4"/>
@@ -10492,7 +10525,7 @@
       <c r="J907" s="7"/>
       <c r="K907" s="7"/>
     </row>
-    <row r="908">
+    <row r="908" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C908" s="7"/>
       <c r="F908" s="4"/>
       <c r="G908" s="4"/>
@@ -10501,7 +10534,7 @@
       <c r="J908" s="7"/>
       <c r="K908" s="7"/>
     </row>
-    <row r="909">
+    <row r="909" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C909" s="7"/>
       <c r="F909" s="4"/>
       <c r="G909" s="4"/>
@@ -10510,7 +10543,7 @@
       <c r="J909" s="7"/>
       <c r="K909" s="7"/>
     </row>
-    <row r="910">
+    <row r="910" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C910" s="7"/>
       <c r="F910" s="4"/>
       <c r="G910" s="4"/>
@@ -10519,7 +10552,7 @@
       <c r="J910" s="7"/>
       <c r="K910" s="7"/>
     </row>
-    <row r="911">
+    <row r="911" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C911" s="7"/>
       <c r="F911" s="4"/>
       <c r="G911" s="4"/>
@@ -10528,7 +10561,7 @@
       <c r="J911" s="7"/>
       <c r="K911" s="7"/>
     </row>
-    <row r="912">
+    <row r="912" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C912" s="7"/>
       <c r="F912" s="4"/>
       <c r="G912" s="4"/>
@@ -10537,7 +10570,7 @@
       <c r="J912" s="7"/>
       <c r="K912" s="7"/>
     </row>
-    <row r="913">
+    <row r="913" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C913" s="7"/>
       <c r="F913" s="4"/>
       <c r="G913" s="4"/>
@@ -10546,7 +10579,7 @@
       <c r="J913" s="7"/>
       <c r="K913" s="7"/>
     </row>
-    <row r="914">
+    <row r="914" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C914" s="7"/>
       <c r="F914" s="4"/>
       <c r="G914" s="4"/>
@@ -10555,7 +10588,7 @@
       <c r="J914" s="7"/>
       <c r="K914" s="7"/>
     </row>
-    <row r="915">
+    <row r="915" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C915" s="7"/>
       <c r="F915" s="4"/>
       <c r="G915" s="4"/>
@@ -10564,7 +10597,7 @@
       <c r="J915" s="7"/>
       <c r="K915" s="7"/>
     </row>
-    <row r="916">
+    <row r="916" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C916" s="7"/>
       <c r="F916" s="4"/>
       <c r="G916" s="4"/>
@@ -10573,7 +10606,7 @@
       <c r="J916" s="7"/>
       <c r="K916" s="7"/>
     </row>
-    <row r="917">
+    <row r="917" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C917" s="7"/>
       <c r="F917" s="4"/>
       <c r="G917" s="4"/>
@@ -10582,7 +10615,7 @@
       <c r="J917" s="7"/>
       <c r="K917" s="7"/>
     </row>
-    <row r="918">
+    <row r="918" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C918" s="7"/>
       <c r="F918" s="4"/>
       <c r="G918" s="4"/>
@@ -10591,7 +10624,7 @@
       <c r="J918" s="7"/>
       <c r="K918" s="7"/>
     </row>
-    <row r="919">
+    <row r="919" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C919" s="7"/>
       <c r="F919" s="4"/>
       <c r="G919" s="4"/>
@@ -10600,7 +10633,7 @@
       <c r="J919" s="7"/>
       <c r="K919" s="7"/>
     </row>
-    <row r="920">
+    <row r="920" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C920" s="7"/>
       <c r="F920" s="4"/>
       <c r="G920" s="4"/>
@@ -10609,7 +10642,7 @@
       <c r="J920" s="7"/>
       <c r="K920" s="7"/>
     </row>
-    <row r="921">
+    <row r="921" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C921" s="7"/>
       <c r="F921" s="4"/>
       <c r="G921" s="4"/>
@@ -10618,7 +10651,7 @@
       <c r="J921" s="7"/>
       <c r="K921" s="7"/>
     </row>
-    <row r="922">
+    <row r="922" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C922" s="7"/>
       <c r="F922" s="4"/>
       <c r="G922" s="4"/>
@@ -10627,7 +10660,7 @@
       <c r="J922" s="7"/>
       <c r="K922" s="7"/>
     </row>
-    <row r="923">
+    <row r="923" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C923" s="7"/>
       <c r="F923" s="4"/>
       <c r="G923" s="4"/>
@@ -10636,7 +10669,7 @@
       <c r="J923" s="7"/>
       <c r="K923" s="7"/>
     </row>
-    <row r="924">
+    <row r="924" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C924" s="7"/>
       <c r="F924" s="4"/>
       <c r="G924" s="4"/>
@@ -10645,7 +10678,7 @@
       <c r="J924" s="7"/>
       <c r="K924" s="7"/>
     </row>
-    <row r="925">
+    <row r="925" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C925" s="7"/>
       <c r="F925" s="4"/>
       <c r="G925" s="4"/>
@@ -10654,7 +10687,7 @@
       <c r="J925" s="7"/>
       <c r="K925" s="7"/>
     </row>
-    <row r="926">
+    <row r="926" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C926" s="7"/>
       <c r="F926" s="4"/>
       <c r="G926" s="4"/>
@@ -10663,7 +10696,7 @@
       <c r="J926" s="7"/>
       <c r="K926" s="7"/>
     </row>
-    <row r="927">
+    <row r="927" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C927" s="7"/>
       <c r="F927" s="4"/>
       <c r="G927" s="4"/>
@@ -10672,7 +10705,7 @@
       <c r="J927" s="7"/>
       <c r="K927" s="7"/>
     </row>
-    <row r="928">
+    <row r="928" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C928" s="7"/>
       <c r="F928" s="4"/>
       <c r="G928" s="4"/>
@@ -10681,7 +10714,7 @@
       <c r="J928" s="7"/>
       <c r="K928" s="7"/>
     </row>
-    <row r="929">
+    <row r="929" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C929" s="7"/>
       <c r="F929" s="4"/>
       <c r="G929" s="4"/>
@@ -10690,7 +10723,7 @@
       <c r="J929" s="7"/>
       <c r="K929" s="7"/>
     </row>
-    <row r="930">
+    <row r="930" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C930" s="7"/>
       <c r="F930" s="4"/>
       <c r="G930" s="4"/>
@@ -10699,7 +10732,7 @@
       <c r="J930" s="7"/>
       <c r="K930" s="7"/>
     </row>
-    <row r="931">
+    <row r="931" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C931" s="7"/>
       <c r="F931" s="4"/>
       <c r="G931" s="4"/>
@@ -10708,7 +10741,7 @@
       <c r="J931" s="7"/>
       <c r="K931" s="7"/>
     </row>
-    <row r="932">
+    <row r="932" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C932" s="7"/>
       <c r="F932" s="4"/>
       <c r="G932" s="4"/>
@@ -10717,7 +10750,7 @@
       <c r="J932" s="7"/>
       <c r="K932" s="7"/>
     </row>
-    <row r="933">
+    <row r="933" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C933" s="7"/>
       <c r="F933" s="4"/>
       <c r="G933" s="4"/>
@@ -10726,7 +10759,7 @@
       <c r="J933" s="7"/>
       <c r="K933" s="7"/>
     </row>
-    <row r="934">
+    <row r="934" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C934" s="7"/>
       <c r="F934" s="4"/>
       <c r="G934" s="4"/>
@@ -10735,7 +10768,7 @@
       <c r="J934" s="7"/>
       <c r="K934" s="7"/>
     </row>
-    <row r="935">
+    <row r="935" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C935" s="7"/>
       <c r="F935" s="4"/>
       <c r="G935" s="4"/>
@@ -10744,7 +10777,7 @@
       <c r="J935" s="7"/>
       <c r="K935" s="7"/>
     </row>
-    <row r="936">
+    <row r="936" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C936" s="7"/>
       <c r="F936" s="4"/>
       <c r="G936" s="4"/>
@@ -10753,7 +10786,7 @@
       <c r="J936" s="7"/>
       <c r="K936" s="7"/>
     </row>
-    <row r="937">
+    <row r="937" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C937" s="7"/>
       <c r="F937" s="4"/>
       <c r="G937" s="4"/>
@@ -10762,7 +10795,7 @@
       <c r="J937" s="7"/>
       <c r="K937" s="7"/>
     </row>
-    <row r="938">
+    <row r="938" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C938" s="7"/>
       <c r="F938" s="4"/>
       <c r="G938" s="4"/>
@@ -10771,7 +10804,7 @@
       <c r="J938" s="7"/>
       <c r="K938" s="7"/>
     </row>
-    <row r="939">
+    <row r="939" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C939" s="7"/>
       <c r="F939" s="4"/>
       <c r="G939" s="4"/>
@@ -10780,7 +10813,7 @@
       <c r="J939" s="7"/>
       <c r="K939" s="7"/>
     </row>
-    <row r="940">
+    <row r="940" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C940" s="7"/>
       <c r="F940" s="4"/>
       <c r="G940" s="4"/>
@@ -10789,7 +10822,7 @@
       <c r="J940" s="7"/>
       <c r="K940" s="7"/>
     </row>
-    <row r="941">
+    <row r="941" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C941" s="7"/>
       <c r="F941" s="4"/>
       <c r="G941" s="4"/>
@@ -10798,7 +10831,7 @@
       <c r="J941" s="7"/>
       <c r="K941" s="7"/>
     </row>
-    <row r="942">
+    <row r="942" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C942" s="7"/>
       <c r="F942" s="4"/>
       <c r="G942" s="4"/>
@@ -10807,7 +10840,7 @@
       <c r="J942" s="7"/>
       <c r="K942" s="7"/>
     </row>
-    <row r="943">
+    <row r="943" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C943" s="7"/>
       <c r="F943" s="4"/>
       <c r="G943" s="4"/>
@@ -10816,7 +10849,7 @@
       <c r="J943" s="7"/>
       <c r="K943" s="7"/>
     </row>
-    <row r="944">
+    <row r="944" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C944" s="7"/>
       <c r="F944" s="4"/>
       <c r="G944" s="4"/>
@@ -10825,7 +10858,7 @@
       <c r="J944" s="7"/>
       <c r="K944" s="7"/>
     </row>
-    <row r="945">
+    <row r="945" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C945" s="7"/>
       <c r="F945" s="4"/>
       <c r="G945" s="4"/>
@@ -10834,7 +10867,7 @@
       <c r="J945" s="7"/>
       <c r="K945" s="7"/>
     </row>
-    <row r="946">
+    <row r="946" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C946" s="7"/>
       <c r="F946" s="4"/>
       <c r="G946" s="4"/>
@@ -10843,7 +10876,7 @@
       <c r="J946" s="7"/>
       <c r="K946" s="7"/>
     </row>
-    <row r="947">
+    <row r="947" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C947" s="7"/>
       <c r="F947" s="4"/>
       <c r="G947" s="4"/>
@@ -10852,7 +10885,7 @@
       <c r="J947" s="7"/>
       <c r="K947" s="7"/>
     </row>
-    <row r="948">
+    <row r="948" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C948" s="7"/>
       <c r="F948" s="4"/>
       <c r="G948" s="4"/>
@@ -10861,7 +10894,7 @@
       <c r="J948" s="7"/>
       <c r="K948" s="7"/>
     </row>
-    <row r="949">
+    <row r="949" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C949" s="7"/>
       <c r="F949" s="4"/>
       <c r="G949" s="4"/>
@@ -10870,7 +10903,7 @@
       <c r="J949" s="7"/>
       <c r="K949" s="7"/>
     </row>
-    <row r="950">
+    <row r="950" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C950" s="7"/>
       <c r="F950" s="4"/>
       <c r="G950" s="4"/>
@@ -10879,7 +10912,7 @@
       <c r="J950" s="7"/>
       <c r="K950" s="7"/>
     </row>
-    <row r="951">
+    <row r="951" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C951" s="7"/>
       <c r="F951" s="4"/>
       <c r="G951" s="4"/>
@@ -10888,7 +10921,7 @@
       <c r="J951" s="7"/>
       <c r="K951" s="7"/>
     </row>
-    <row r="952">
+    <row r="952" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C952" s="7"/>
       <c r="F952" s="4"/>
       <c r="G952" s="4"/>
@@ -10897,7 +10930,7 @@
       <c r="J952" s="7"/>
       <c r="K952" s="7"/>
     </row>
-    <row r="953">
+    <row r="953" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C953" s="7"/>
       <c r="F953" s="4"/>
       <c r="G953" s="4"/>
@@ -10906,7 +10939,7 @@
       <c r="J953" s="7"/>
       <c r="K953" s="7"/>
     </row>
-    <row r="954">
+    <row r="954" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C954" s="7"/>
       <c r="F954" s="4"/>
       <c r="G954" s="4"/>
@@ -10915,7 +10948,7 @@
       <c r="J954" s="7"/>
       <c r="K954" s="7"/>
     </row>
-    <row r="955">
+    <row r="955" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C955" s="7"/>
       <c r="F955" s="4"/>
       <c r="G955" s="4"/>
@@ -10924,7 +10957,7 @@
       <c r="J955" s="7"/>
       <c r="K955" s="7"/>
     </row>
-    <row r="956">
+    <row r="956" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C956" s="7"/>
       <c r="F956" s="4"/>
       <c r="G956" s="4"/>
@@ -10933,7 +10966,7 @@
       <c r="J956" s="7"/>
       <c r="K956" s="7"/>
     </row>
-    <row r="957">
+    <row r="957" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C957" s="7"/>
       <c r="F957" s="4"/>
       <c r="G957" s="4"/>
@@ -10942,7 +10975,7 @@
       <c r="J957" s="7"/>
       <c r="K957" s="7"/>
     </row>
-    <row r="958">
+    <row r="958" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C958" s="7"/>
       <c r="F958" s="4"/>
       <c r="G958" s="4"/>
@@ -10951,7 +10984,7 @@
       <c r="J958" s="7"/>
       <c r="K958" s="7"/>
     </row>
-    <row r="959">
+    <row r="959" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C959" s="7"/>
       <c r="F959" s="4"/>
       <c r="G959" s="4"/>
@@ -10960,7 +10993,7 @@
       <c r="J959" s="7"/>
       <c r="K959" s="7"/>
     </row>
-    <row r="960">
+    <row r="960" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C960" s="7"/>
       <c r="F960" s="4"/>
       <c r="G960" s="4"/>
@@ -10969,7 +11002,7 @@
       <c r="J960" s="7"/>
       <c r="K960" s="7"/>
     </row>
-    <row r="961">
+    <row r="961" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C961" s="7"/>
       <c r="F961" s="4"/>
       <c r="G961" s="4"/>
@@ -10978,7 +11011,7 @@
       <c r="J961" s="7"/>
       <c r="K961" s="7"/>
     </row>
-    <row r="962">
+    <row r="962" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C962" s="7"/>
       <c r="F962" s="4"/>
       <c r="G962" s="4"/>
@@ -10987,7 +11020,7 @@
       <c r="J962" s="7"/>
       <c r="K962" s="7"/>
     </row>
-    <row r="963">
+    <row r="963" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C963" s="7"/>
       <c r="F963" s="4"/>
       <c r="G963" s="4"/>
@@ -10996,7 +11029,7 @@
       <c r="J963" s="7"/>
       <c r="K963" s="7"/>
     </row>
-    <row r="964">
+    <row r="964" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C964" s="7"/>
       <c r="F964" s="4"/>
       <c r="G964" s="4"/>
@@ -11005,7 +11038,7 @@
       <c r="J964" s="7"/>
       <c r="K964" s="7"/>
     </row>
-    <row r="965">
+    <row r="965" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C965" s="7"/>
       <c r="F965" s="4"/>
       <c r="G965" s="4"/>
@@ -11014,7 +11047,7 @@
       <c r="J965" s="7"/>
       <c r="K965" s="7"/>
     </row>
-    <row r="966">
+    <row r="966" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C966" s="7"/>
       <c r="F966" s="4"/>
       <c r="G966" s="4"/>
@@ -11023,7 +11056,7 @@
       <c r="J966" s="7"/>
       <c r="K966" s="7"/>
     </row>
-    <row r="967">
+    <row r="967" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C967" s="7"/>
       <c r="F967" s="4"/>
       <c r="G967" s="4"/>
@@ -11032,7 +11065,7 @@
       <c r="J967" s="7"/>
       <c r="K967" s="7"/>
     </row>
-    <row r="968">
+    <row r="968" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C968" s="7"/>
       <c r="F968" s="4"/>
       <c r="G968" s="4"/>
@@ -11041,7 +11074,7 @@
       <c r="J968" s="7"/>
       <c r="K968" s="7"/>
     </row>
-    <row r="969">
+    <row r="969" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C969" s="7"/>
       <c r="F969" s="4"/>
       <c r="G969" s="4"/>
@@ -11050,7 +11083,7 @@
       <c r="J969" s="7"/>
       <c r="K969" s="7"/>
     </row>
-    <row r="970">
+    <row r="970" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C970" s="7"/>
       <c r="F970" s="4"/>
       <c r="G970" s="4"/>
@@ -11059,7 +11092,7 @@
       <c r="J970" s="7"/>
       <c r="K970" s="7"/>
     </row>
-    <row r="971">
+    <row r="971" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C971" s="7"/>
       <c r="F971" s="4"/>
       <c r="G971" s="4"/>
@@ -11068,7 +11101,7 @@
       <c r="J971" s="7"/>
       <c r="K971" s="7"/>
     </row>
-    <row r="972">
+    <row r="972" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C972" s="7"/>
       <c r="F972" s="4"/>
       <c r="G972" s="4"/>
@@ -11077,7 +11110,7 @@
       <c r="J972" s="7"/>
       <c r="K972" s="7"/>
     </row>
-    <row r="973">
+    <row r="973" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C973" s="7"/>
       <c r="F973" s="4"/>
       <c r="G973" s="4"/>
@@ -11086,7 +11119,7 @@
       <c r="J973" s="7"/>
       <c r="K973" s="7"/>
     </row>
-    <row r="974">
+    <row r="974" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C974" s="7"/>
       <c r="F974" s="4"/>
       <c r="G974" s="4"/>
@@ -11095,7 +11128,7 @@
       <c r="J974" s="7"/>
       <c r="K974" s="7"/>
     </row>
-    <row r="975">
+    <row r="975" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C975" s="7"/>
       <c r="F975" s="4"/>
       <c r="G975" s="4"/>
@@ -11104,7 +11137,7 @@
       <c r="J975" s="7"/>
       <c r="K975" s="7"/>
     </row>
-    <row r="976">
+    <row r="976" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C976" s="7"/>
       <c r="F976" s="4"/>
       <c r="G976" s="4"/>
@@ -11113,7 +11146,7 @@
       <c r="J976" s="7"/>
       <c r="K976" s="7"/>
     </row>
-    <row r="977">
+    <row r="977" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C977" s="7"/>
       <c r="F977" s="4"/>
       <c r="G977" s="4"/>
@@ -11122,7 +11155,7 @@
       <c r="J977" s="7"/>
       <c r="K977" s="7"/>
     </row>
-    <row r="978">
+    <row r="978" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C978" s="7"/>
       <c r="F978" s="4"/>
       <c r="G978" s="4"/>
@@ -11131,7 +11164,7 @@
       <c r="J978" s="7"/>
       <c r="K978" s="7"/>
     </row>
-    <row r="979">
+    <row r="979" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C979" s="7"/>
       <c r="F979" s="4"/>
       <c r="G979" s="4"/>
@@ -11140,7 +11173,7 @@
       <c r="J979" s="7"/>
       <c r="K979" s="7"/>
     </row>
-    <row r="980">
+    <row r="980" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C980" s="7"/>
       <c r="F980" s="4"/>
       <c r="G980" s="4"/>
@@ -11149,7 +11182,7 @@
       <c r="J980" s="7"/>
       <c r="K980" s="7"/>
     </row>
-    <row r="981">
+    <row r="981" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C981" s="7"/>
       <c r="F981" s="4"/>
       <c r="G981" s="4"/>
@@ -11158,7 +11191,7 @@
       <c r="J981" s="7"/>
       <c r="K981" s="7"/>
     </row>
-    <row r="982">
+    <row r="982" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C982" s="7"/>
       <c r="F982" s="4"/>
       <c r="G982" s="4"/>
@@ -11167,7 +11200,7 @@
       <c r="J982" s="7"/>
       <c r="K982" s="7"/>
     </row>
-    <row r="983">
+    <row r="983" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C983" s="7"/>
       <c r="F983" s="4"/>
       <c r="G983" s="4"/>
@@ -11176,7 +11209,7 @@
       <c r="J983" s="7"/>
       <c r="K983" s="7"/>
     </row>
-    <row r="984">
+    <row r="984" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C984" s="7"/>
       <c r="F984" s="4"/>
       <c r="G984" s="4"/>
@@ -11185,7 +11218,7 @@
       <c r="J984" s="7"/>
       <c r="K984" s="7"/>
     </row>
-    <row r="985">
+    <row r="985" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C985" s="7"/>
       <c r="F985" s="4"/>
       <c r="G985" s="4"/>
@@ -11194,7 +11227,7 @@
       <c r="J985" s="7"/>
       <c r="K985" s="7"/>
     </row>
-    <row r="986">
+    <row r="986" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C986" s="7"/>
       <c r="F986" s="4"/>
       <c r="G986" s="4"/>
@@ -11203,7 +11236,7 @@
       <c r="J986" s="7"/>
       <c r="K986" s="7"/>
     </row>
-    <row r="987">
+    <row r="987" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C987" s="7"/>
       <c r="F987" s="4"/>
       <c r="G987" s="4"/>
@@ -11212,7 +11245,7 @@
       <c r="J987" s="7"/>
       <c r="K987" s="7"/>
     </row>
-    <row r="988">
+    <row r="988" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C988" s="7"/>
       <c r="F988" s="4"/>
       <c r="G988" s="4"/>
@@ -11221,7 +11254,7 @@
       <c r="J988" s="7"/>
       <c r="K988" s="7"/>
     </row>
-    <row r="989">
+    <row r="989" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C989" s="7"/>
       <c r="F989" s="4"/>
       <c r="G989" s="4"/>
@@ -11230,7 +11263,7 @@
       <c r="J989" s="7"/>
       <c r="K989" s="7"/>
     </row>
-    <row r="990">
+    <row r="990" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C990" s="7"/>
       <c r="F990" s="4"/>
       <c r="G990" s="4"/>
@@ -11239,7 +11272,7 @@
       <c r="J990" s="7"/>
       <c r="K990" s="7"/>
     </row>
-    <row r="991">
+    <row r="991" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C991" s="7"/>
       <c r="F991" s="4"/>
       <c r="G991" s="4"/>
@@ -11248,7 +11281,7 @@
       <c r="J991" s="7"/>
       <c r="K991" s="7"/>
     </row>
-    <row r="992">
+    <row r="992" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C992" s="7"/>
       <c r="F992" s="4"/>
       <c r="G992" s="4"/>
@@ -11257,7 +11290,7 @@
       <c r="J992" s="7"/>
       <c r="K992" s="7"/>
     </row>
-    <row r="993">
+    <row r="993" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C993" s="7"/>
       <c r="F993" s="4"/>
       <c r="G993" s="4"/>
@@ -11266,7 +11299,7 @@
       <c r="J993" s="7"/>
       <c r="K993" s="7"/>
     </row>
-    <row r="994">
+    <row r="994" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C994" s="7"/>
       <c r="F994" s="4"/>
       <c r="G994" s="4"/>
@@ -11275,7 +11308,7 @@
       <c r="J994" s="7"/>
       <c r="K994" s="7"/>
     </row>
-    <row r="995">
+    <row r="995" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C995" s="7"/>
       <c r="F995" s="4"/>
       <c r="G995" s="4"/>
@@ -11284,7 +11317,7 @@
       <c r="J995" s="7"/>
       <c r="K995" s="7"/>
     </row>
-    <row r="996">
+    <row r="996" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C996" s="7"/>
       <c r="F996" s="4"/>
       <c r="G996" s="4"/>
@@ -11293,7 +11326,7 @@
       <c r="J996" s="7"/>
       <c r="K996" s="7"/>
     </row>
-    <row r="997">
+    <row r="997" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C997" s="7"/>
       <c r="F997" s="4"/>
       <c r="G997" s="4"/>
@@ -11302,7 +11335,7 @@
       <c r="J997" s="7"/>
       <c r="K997" s="7"/>
     </row>
-    <row r="998">
+    <row r="998" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C998" s="7"/>
       <c r="F998" s="4"/>
       <c r="G998" s="4"/>
@@ -11311,7 +11344,7 @@
       <c r="J998" s="7"/>
       <c r="K998" s="7"/>
     </row>
-    <row r="999">
+    <row r="999" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C999" s="7"/>
       <c r="F999" s="4"/>
       <c r="G999" s="4"/>
@@ -11320,7 +11353,7 @@
       <c r="J999" s="7"/>
       <c r="K999" s="7"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="3:11" ht="13" x14ac:dyDescent="0.15">
       <c r="C1000" s="7"/>
       <c r="F1000" s="4"/>
       <c r="G1000" s="4"/>
@@ -11330,11 +11363,11 @@
       <c r="K1000" s="7"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:I67">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:I67" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Neutral,Annoyance,Trust,Confusion,Contempt,Disgust,Scared,Sadness,Surprise,Joy,Anger,Anticipation,Serenity"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>